--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.63</v>
@@ -710,10 +710,10 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -722,10 +722,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.83</v>
@@ -734,10 +734,10 @@
         <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
@@ -752,19 +752,19 @@
         <v>2.05</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -840,25 +840,25 @@
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -887,19 +887,19 @@
         <v>3.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
         <v>51</v>
@@ -935,7 +935,7 @@
         <v>8.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>12</v>
@@ -1122,13 +1122,13 @@
         <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1264,28 +1264,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1320,16 +1320,16 @@
         <v>1.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1353,13 +1353,13 @@
         <v>351</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1411,7 +1411,7 @@
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1441,7 +1441,7 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.23</v>
@@ -1516,10 +1516,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1751,10 +1751,10 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9" t="n">
         <v>2.2</v>
@@ -1799,7 +1799,7 @@
         <v>6.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
         <v>12</v>
@@ -1896,10 +1896,10 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Y10" t="n">
         <v>2.75</v>
@@ -2305,18 +2305,18 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
         <v>1.36</v>
@@ -2367,7 +2367,7 @@
         <v>7.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN13" t="n">
         <v>8.5</v>
@@ -2422,7 +2422,7 @@
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2843,111 +2843,111 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="J17" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="V17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.37</v>
       </c>
-      <c r="W17" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X17" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA17" t="n">
         <v>11.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP17" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3407,22 +3407,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3451,10 +3451,10 @@
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
         <v>1.7</v>
@@ -3475,7 +3475,7 @@
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
@@ -3493,7 +3493,7 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="n">
         <v>9</v>
@@ -3689,13 +3689,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
         <v>2.3</v>
@@ -3982,13 +3982,13 @@
         <v>1.44</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K25" t="n">
         <v>2.5</v>
@@ -4015,10 +4015,10 @@
         <v>2.35</v>
       </c>
       <c r="S25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
         <v>2.38</v>
@@ -4033,16 +4033,16 @@
         <v>3.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.5</v>
@@ -4063,7 +4063,7 @@
         <v>9.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
         <v>51</v>
@@ -4072,13 +4072,13 @@
         <v>201</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>67</v>
@@ -4139,7 +4139,7 @@
         <v>2.75</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -4174,10 +4174,10 @@
         <v>4.33</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA26" t="n">
         <v>12</v>
@@ -4189,7 +4189,7 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -4201,7 +4201,7 @@
         <v>23</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -4444,22 +4444,22 @@
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4593,10 +4593,10 @@
         <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4845,34 +4845,34 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q31" t="n">
         <v>2.25</v>
@@ -4883,7 +4883,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V31" t="n">
         <v>1.22</v>
@@ -4901,31 +4901,31 @@
         <v>1.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
         <v>9.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>120</v>
@@ -4934,22 +4934,22 @@
         <v>900</v>
       </c>
       <c r="AL31" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>90</v>
       </c>
       <c r="AP31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4989,31 +4989,31 @@
         <v>1.55</v>
       </c>
       <c r="H32" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L32" t="n">
         <v>5.3</v>
       </c>
-      <c r="J32" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.2</v>
-      </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O32" t="n">
         <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q32" t="n">
         <v>1.72</v>
@@ -5030,10 +5030,10 @@
         <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Y32" t="n">
         <v>1.78</v>
@@ -5042,13 +5042,13 @@
         <v>1.93</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD32" t="n">
         <v>12</v>
@@ -5057,37 +5057,37 @@
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI32" t="n">
         <v>17.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="n">
         <v>600</v>
       </c>
       <c r="AL32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ32" t="n">
         <v>55</v>
@@ -5157,10 +5157,10 @@
         <v>2.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5231,13 +5231,13 @@
         <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="34">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
         <v>1.91</v>
@@ -5368,7 +5368,7 @@
         <v>9.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN34" t="n">
         <v>9</v>
@@ -5420,7 +5420,7 @@
         <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
         <v>1.8</v>
@@ -5447,18 +5447,18 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
         <v>1.36</v>
@@ -5467,10 +5467,10 @@
         <v>3</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA35" t="n">
         <v>12</v>
@@ -5503,10 +5503,10 @@
         <v>51</v>
       </c>
       <c r="AK35" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM35" t="n">
         <v>9</v>
@@ -5521,7 +5521,7 @@
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5699,10 +5699,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H37" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I37" t="n">
         <v>3.85</v>
@@ -5717,10 +5717,10 @@
         <v>4.65</v>
       </c>
       <c r="M37" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="O37" t="n">
         <v>1.65</v>
@@ -5729,7 +5729,7 @@
         <v>2.12</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="R37" t="n">
         <v>1.37</v>
@@ -5746,13 +5746,13 @@
         <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AA37" t="n">
         <v>5.2</v>
@@ -5764,7 +5764,7 @@
         <v>9.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE37" t="n">
         <v>24</v>
@@ -5773,13 +5773,13 @@
         <v>50</v>
       </c>
       <c r="AG37" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AH37" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="n">
         <v>150</v>
@@ -5791,7 +5791,7 @@
         <v>7.2</v>
       </c>
       <c r="AM37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN37" t="n">
         <v>14.5</v>
@@ -5981,37 +5981,37 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L39" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R39" t="n">
         <v>1.57</v>
@@ -6019,43 +6019,43 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W39" t="n">
         <v>1.47</v>
       </c>
       <c r="X39" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA39" t="n">
         <v>5.7</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
         <v>8.25</v>
       </c>
       <c r="AD39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE39" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
         <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AH39" t="n">
         <v>5.9</v>
@@ -6070,13 +6070,13 @@
         <v>900</v>
       </c>
       <c r="AL39" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO39" t="n">
         <v>100</v>
@@ -6285,10 +6285,10 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6301,10 +6301,10 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="AA41" t="n">
         <v>9</v>
@@ -6554,7 +6554,7 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
@@ -6683,7 +6683,7 @@
         <v>4.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K44" t="n">
         <v>2.1</v>
@@ -6695,7 +6695,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6733,7 +6733,7 @@
         <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC44" t="n">
         <v>8.5</v>
@@ -6833,30 +6833,30 @@
         <v>4.33</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
         <v>1.36</v>
@@ -6956,16 +6956,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
         <v>2.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>1.91</v>
@@ -6986,10 +6986,10 @@
         <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R46" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
@@ -7063,10 +7063,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="47">
@@ -7238,13 +7238,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
         <v>2.38</v>
@@ -7259,7 +7259,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
@@ -7292,10 +7292,10 @@
         <v>3.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA48" t="n">
         <v>9.5</v>
@@ -7334,7 +7334,7 @@
         <v>15</v>
       </c>
       <c r="AM48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
@@ -7677,7 +7677,7 @@
         <v>2.2</v>
       </c>
       <c r="K51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L51" t="n">
         <v>4.75</v>
@@ -7701,10 +7701,10 @@
         <v>2.35</v>
       </c>
       <c r="S51" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U51" t="n">
         <v>2.38</v>
@@ -7713,19 +7713,19 @@
         <v>1.53</v>
       </c>
       <c r="W51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB51" t="n">
         <v>9.5</v>
@@ -7743,19 +7743,19 @@
         <v>21</v>
       </c>
       <c r="AG51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH51" t="n">
         <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
       </c>
       <c r="AK51" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL51" t="n">
         <v>17</v>
@@ -7810,13 +7810,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7831,13 +7831,13 @@
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
         <v>2.35</v>
@@ -7875,7 +7875,7 @@
         <v>12</v>
       </c>
       <c r="AD52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE52" t="n">
         <v>29</v>
@@ -7884,7 +7884,7 @@
         <v>41</v>
       </c>
       <c r="AG52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH52" t="n">
         <v>6.5</v>
@@ -7896,13 +7896,13 @@
         <v>67</v>
       </c>
       <c r="AK52" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL52" t="n">
         <v>6.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN52" t="n">
         <v>9.5</v>
@@ -7969,10 +7969,10 @@
         <v>6.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -8013,10 +8013,10 @@
         <v>6.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE53" t="n">
         <v>15</v>
@@ -8046,7 +8046,7 @@
         <v>29</v>
       </c>
       <c r="AN53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="n">
         <v>67</v>
@@ -8101,7 +8101,7 @@
         <v>1.95</v>
       </c>
       <c r="J54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>1.95</v>
@@ -8110,10 +8110,10 @@
         <v>2.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8122,33 +8122,33 @@
         <v>2.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
         <v>21</v>
@@ -8166,7 +8166,7 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH54" t="n">
         <v>6</v>
@@ -8181,13 +8181,13 @@
         <v>501</v>
       </c>
       <c r="AL54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM54" t="n">
         <v>8</v>
       </c>
       <c r="AN54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO54" t="n">
         <v>17</v>
@@ -8196,13 +8196,13 @@
         <v>19</v>
       </c>
       <c r="AQ54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="55">
@@ -8255,10 +8255,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.53</v>
@@ -8391,7 +8391,7 @@
         <v>6.25</v>
       </c>
       <c r="J56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>2.38</v>
@@ -8447,7 +8447,7 @@
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -8465,7 +8465,7 @@
         <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK56" t="n">
         <v>351</v>
@@ -8483,7 +8483,7 @@
         <v>67</v>
       </c>
       <c r="AP56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ56" t="n">
         <v>41</v>
@@ -8523,13 +8523,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
@@ -8544,19 +8544,19 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8567,25 +8567,25 @@
         <v>1.2</v>
       </c>
       <c r="W57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB57" t="n">
         <v>19</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
         <v>41</v>
@@ -8618,7 +8618,7 @@
         <v>8.5</v>
       </c>
       <c r="AN57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO57" t="n">
         <v>17</v>
@@ -8630,10 +8630,10 @@
         <v>34</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="58">
@@ -8941,41 +8941,41 @@
         <v>2.9</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J60" t="n">
         <v>3.35</v>
       </c>
       <c r="K60" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L60" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R60" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W60" t="n">
         <v>1.42</v>
@@ -8984,13 +8984,13 @@
         <v>2.47</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AA60" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB60" t="n">
         <v>15.5</v>
@@ -9005,40 +9005,40 @@
         <v>24</v>
       </c>
       <c r="AF60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH60" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ60" t="n">
         <v>60</v>
       </c>
       <c r="AK60" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL60" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN60" t="n">
         <v>9.25</v>
       </c>
       <c r="AO60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP60" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9084,10 +9084,10 @@
         <v>3.9</v>
       </c>
       <c r="J61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K61" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L61" t="n">
         <v>5.5</v>
@@ -9105,10 +9105,10 @@
         <v>2.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9119,10 +9119,10 @@
         <v>1.13</v>
       </c>
       <c r="W61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y61" t="n">
         <v>2.5</v>
@@ -9235,13 +9235,13 @@
         <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.44</v>
@@ -9282,7 +9282,7 @@
         <v>6.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD62" t="n">
         <v>12</v>
@@ -9294,7 +9294,7 @@
         <v>41</v>
       </c>
       <c r="AG62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH62" t="n">
         <v>7.5</v>
@@ -9303,7 +9303,7 @@
         <v>23</v>
       </c>
       <c r="AJ62" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="n">
         <v>101</v>
@@ -9318,7 +9318,7 @@
         <v>19</v>
       </c>
       <c r="AO62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP62" t="n">
         <v>51</v>
@@ -9365,28 +9365,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L63" t="n">
         <v>3</v>
       </c>
-      <c r="I63" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.88</v>
-      </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O63" t="n">
         <v>1.5</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R63" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -9424,7 +9424,7 @@
         <v>8.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
         <v>15</v>
@@ -9439,7 +9439,7 @@
         <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH63" t="n">
         <v>6</v>
@@ -9454,16 +9454,16 @@
         <v>900</v>
       </c>
       <c r="AL63" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP63" t="n">
         <v>21</v>
@@ -9510,22 +9510,22 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K64" t="n">
         <v>1.95</v>
       </c>
-      <c r="H64" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
@@ -9540,18 +9540,18 @@
         <v>2.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W64" t="n">
         <v>1.57</v>
@@ -9560,16 +9560,16 @@
         <v>2.25</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA64" t="n">
         <v>5.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC64" t="n">
         <v>9.5</v>
@@ -9596,13 +9596,13 @@
         <v>81</v>
       </c>
       <c r="AK64" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL64" t="n">
         <v>8.5</v>
       </c>
       <c r="AM64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN64" t="n">
         <v>15</v>
@@ -9617,10 +9617,10 @@
         <v>51</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="65">
@@ -9673,58 +9673,58 @@
         <v>6.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S65" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y65" t="n">
         <v>1.8</v>
       </c>
-      <c r="U65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Z65" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
@@ -9733,19 +9733,19 @@
         <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
         <v>9</v>
       </c>
       <c r="AI65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL65" t="n">
         <v>21</v>
@@ -9763,7 +9763,7 @@
         <v>51</v>
       </c>
       <c r="AQ65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9830,16 +9830,16 @@
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R66" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S66" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U66" t="n">
         <v>2.38</v>
@@ -9963,10 +9963,10 @@
         <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O67" t="n">
         <v>1.14</v>
@@ -9981,10 +9981,10 @@
         <v>2.5</v>
       </c>
       <c r="S67" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="U67" t="n">
         <v>2.2</v>
@@ -10267,10 +10267,10 @@
         <v>2.5</v>
       </c>
       <c r="S69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T69" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U69" t="n">
         <v>2.2</v>
@@ -10662,16 +10662,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I72" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K72" t="n">
         <v>2.2</v>
@@ -10680,10 +10680,10 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -10692,10 +10692,10 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S72" t="n">
         <v>2.8</v>
@@ -10710,10 +10710,10 @@
         <v>1.29</v>
       </c>
       <c r="W72" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X72" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y72" t="n">
         <v>2</v>
@@ -10731,31 +10731,31 @@
         <v>8.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF72" t="n">
         <v>29</v>
       </c>
       <c r="AG72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK72" t="n">
         <v>351</v>
       </c>
       <c r="AL72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM72" t="n">
         <v>29</v>
@@ -10764,7 +10764,7 @@
         <v>19</v>
       </c>
       <c r="AO72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP72" t="n">
         <v>41</v>
@@ -10841,10 +10841,10 @@
         <v>3.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -11249,7 +11249,7 @@
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -11293,7 +11293,7 @@
         <v>10</v>
       </c>
       <c r="AB76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
         <v>10</v>
@@ -11332,10 +11332,10 @@
         <v>10</v>
       </c>
       <c r="AO76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ76" t="n">
         <v>26</v>
@@ -11516,13 +11516,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I78" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
         <v>2.6</v>
@@ -11543,7 +11543,7 @@
         <v>1.16</v>
       </c>
       <c r="P78" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Q78" t="n">
         <v>1.5</v>
@@ -11554,10 +11554,10 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W78" t="n">
         <v>1.27</v>
@@ -11569,22 +11569,22 @@
         <v>1.45</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AA78" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC78" t="n">
         <v>9</v>
       </c>
       <c r="AD78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF78" t="n">
         <v>18.5</v>
@@ -11593,7 +11593,7 @@
         <v>9.25</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI78" t="n">
         <v>11.25</v>
@@ -11605,22 +11605,22 @@
         <v>175</v>
       </c>
       <c r="AL78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN78" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO78" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP78" t="n">
         <v>21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11660,19 +11660,19 @@
         <v>1.33</v>
       </c>
       <c r="H79" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K79" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L79" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -11687,7 +11687,7 @@
         <v>5.3</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R79" t="n">
         <v>2.8</v>
@@ -11701,10 +11701,10 @@
         <v>1.78</v>
       </c>
       <c r="W79" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X79" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Y79" t="n">
         <v>1.62</v>
@@ -11713,13 +11713,13 @@
         <v>2.15</v>
       </c>
       <c r="AA79" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB79" t="n">
         <v>8.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD79" t="n">
         <v>9.75</v>
@@ -11734,31 +11734,31 @@
         <v>10</v>
       </c>
       <c r="AH79" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI79" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ79" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK79" t="n">
         <v>300</v>
       </c>
       <c r="AL79" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM79" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO79" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP79" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ79" t="n">
         <v>50</v>
@@ -11798,99 +11798,99 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J80" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K80" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L80" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M80" t="n">
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P80" t="n">
-        <v>4.55</v>
+        <v>4.85</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R80" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V80" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="W80" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X80" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="AA80" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC80" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE80" t="n">
         <v>15.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AI80" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK80" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM80" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN80" t="n">
         <v>10.25</v>
@@ -11899,10 +11899,10 @@
         <v>35</v>
       </c>
       <c r="AP80" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>21</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11939,16 +11939,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H81" t="n">
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K81" t="n">
         <v>2.6</v>
@@ -11957,10 +11957,10 @@
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="O81" t="n">
         <v>1.11</v>
@@ -12104,10 +12104,10 @@
         <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P82" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q82" t="n">
         <v>1.44</v>
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>3.9</v>
@@ -12230,13 +12230,13 @@
         <v>4.75</v>
       </c>
       <c r="J83" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K83" t="n">
         <v>2.4</v>
       </c>
       <c r="L83" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M83" t="n">
         <v>1.01</v>
@@ -12257,16 +12257,16 @@
         <v>2.35</v>
       </c>
       <c r="S83" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U83" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V83" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W83" t="n">
         <v>1.29</v>
@@ -12284,7 +12284,7 @@
         <v>9.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
@@ -12522,7 +12522,7 @@
         <v>1.91</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M85" t="n">
         <v>1.11</v>
@@ -12563,10 +12563,10 @@
         <v>1.57</v>
       </c>
       <c r="AA85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC85" t="n">
         <v>15</v>
@@ -12614,10 +12614,10 @@
         <v>41</v>
       </c>
       <c r="AR85" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="86">
@@ -12943,7 +12943,7 @@
         <v>4.5</v>
       </c>
       <c r="J88" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K88" t="n">
         <v>2.2</v>
@@ -12952,30 +12952,30 @@
         <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O88" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P88" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R88" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V88" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W88" t="n">
         <v>1.4</v>
@@ -13008,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="AG88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH88" t="n">
         <v>7</v>
@@ -13353,22 +13353,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K91" t="n">
         <v>2.07</v>
       </c>
       <c r="L91" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -13399,37 +13399,37 @@
         <v>2.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Z91" t="n">
         <v>1.75</v>
       </c>
       <c r="AA91" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB91" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF91" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG91" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH91" t="n">
         <v>6.3</v>
       </c>
       <c r="AI91" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ91" t="n">
         <v>90</v>
@@ -13438,19 +13438,19 @@
         <v>800</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AM91" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN91" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO91" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP91" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ91" t="n">
         <v>40</v>
@@ -13631,19 +13631,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I93" t="n">
         <v>1.19</v>
       </c>
       <c r="J93" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="K93" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="L93" t="n">
         <v>1.55</v>
@@ -13652,66 +13652,66 @@
         <v>1.02</v>
       </c>
       <c r="N93" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O93" t="n">
         <v>1.13</v>
       </c>
       <c r="P93" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R93" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V93" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W93" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X93" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Z93" t="n">
         <v>1.72</v>
       </c>
       <c r="AA93" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AB93" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AC93" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD93" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE93" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AF93" t="n">
         <v>110</v>
       </c>
       <c r="AG93" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH93" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI93" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ93" t="n">
         <v>110</v>
@@ -13720,16 +13720,16 @@
         <v>800</v>
       </c>
       <c r="AL93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM93" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AN93" t="n">
         <v>9.75</v>
       </c>
       <c r="AO93" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AP93" t="n">
         <v>10.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -701,7 +701,7 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
         <v>2.63</v>
@@ -746,25 +746,25 @@
         <v>3.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
       <c r="AP2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -996,10 +996,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1008,10 +1008,10 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
         <v>401</v>
@@ -1128,7 +1128,7 @@
         <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
@@ -1143,16 +1143,16 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1161,10 +1161,10 @@
         <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>1.33</v>
@@ -1173,13 +1173,13 @@
         <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
         <v>11</v>
@@ -1200,25 +1200,25 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>34</v>
@@ -1282,10 +1282,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1420,7 +1420,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1495,7 +1495,7 @@
         <v>81</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1516,10 +1516,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1703,64 +1703,64 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.75</v>
       </c>
-      <c r="K9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1769,25 +1769,25 @@
         <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>5.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>81</v>
@@ -1796,7 +1796,7 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
@@ -1811,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="10">
@@ -2011,10 +2011,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -2367,7 +2367,7 @@
         <v>7.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN13" t="n">
         <v>8.5</v>
@@ -2416,13 +2416,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2452,16 +2452,16 @@
         <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>1.3</v>
@@ -2494,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>7.5</v>
@@ -2509,7 +2509,7 @@
         <v>126</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>11</v>
@@ -2521,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
         <v>21</v>
@@ -2567,63 +2567,63 @@
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J15" t="n">
         <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L15" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA15" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>50</v>
@@ -2632,28 +2632,28 @@
         <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AH15" t="n">
         <v>6.7</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
@@ -2665,7 +2665,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2867,51 +2867,51 @@
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Y17" t="n">
         <v>1.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF17" t="n">
         <v>35</v>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
@@ -2932,7 +2932,7 @@
         <v>400</v>
       </c>
       <c r="AL17" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM17" t="n">
         <v>9.5</v>
@@ -2941,10 +2941,10 @@
         <v>8.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
@@ -3266,13 +3266,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H20" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="J20" t="n">
         <v>1.85</v>
@@ -3281,48 +3281,48 @@
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Z20" t="n">
         <v>1.65</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB20" t="n">
         <v>6</v>
@@ -3331,22 +3331,22 @@
         <v>8.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
         <v>11.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>120</v>
@@ -3355,10 +3355,10 @@
         <v>600</v>
       </c>
       <c r="AL20" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
         <v>29</v>
@@ -3367,10 +3367,10 @@
         <v>300</v>
       </c>
       <c r="AP20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>120</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>100</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3407,16 +3407,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
@@ -3451,10 +3451,10 @@
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y21" t="n">
         <v>1.7</v>
@@ -3475,7 +3475,7 @@
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
@@ -3493,7 +3493,7 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="n">
         <v>9</v>
@@ -3695,13 +3695,13 @@
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
         <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
         <v>4.75</v>
@@ -3710,7 +3710,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3719,10 +3719,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3739,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
@@ -3851,7 +3851,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3884,10 +3884,10 @@
         <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3944,7 +3944,7 @@
         <v>1.58</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="25">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>4.75</v>
@@ -3994,7 +3994,7 @@
         <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4033,16 +4033,16 @@
         <v>3.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.5</v>
@@ -4054,13 +4054,13 @@
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>17</v>
@@ -4072,19 +4072,19 @@
         <v>201</v>
       </c>
       <c r="AL25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
@@ -4142,54 +4142,54 @@
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB26" t="n">
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -4210,10 +4210,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -4265,28 +4265,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.5</v>
@@ -4301,16 +4301,16 @@
         <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W27" t="n">
         <v>1.57</v>
@@ -4319,28 +4319,28 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="n">
         <v>41</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
       </c>
       <c r="AG27" t="n">
         <v>6.5</v>
@@ -4349,37 +4349,37 @@
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK27" t="n">
         <v>1250</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="28">
@@ -4471,7 +4471,7 @@
         <v>2.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -4581,10 +4581,10 @@
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
@@ -4601,10 +4601,10 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4704,22 +4704,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
         <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="K30" t="n">
         <v>2.15</v>
       </c>
       <c r="L30" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4734,7 +4734,7 @@
         <v>3.15</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
         <v>1.78</v>
@@ -4748,10 +4748,10 @@
         <v>1.3</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X30" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Y30" t="n">
         <v>1.83</v>
@@ -4760,19 +4760,19 @@
         <v>1.87</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB30" t="n">
         <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD30" t="n">
         <v>80</v>
       </c>
       <c r="AE30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
         <v>55</v>
@@ -4784,7 +4784,7 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
         <v>90</v>
@@ -4793,10 +4793,10 @@
         <v>800</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AM30" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AN30" t="n">
         <v>8.75</v>
@@ -4805,7 +4805,7 @@
         <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>30</v>
@@ -4845,13 +4845,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J31" t="n">
         <v>2.42</v>
@@ -4860,13 +4860,13 @@
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.42</v>
@@ -4886,7 +4886,7 @@
         <v>3.95</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
         <v>1.47</v>
@@ -4895,40 +4895,40 @@
         <v>2.57</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
         <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK31" t="n">
         <v>900</v>
@@ -4937,10 +4937,10 @@
         <v>10.25</v>
       </c>
       <c r="AM31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
         <v>90</v>
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -5145,10 +5145,10 @@
         <v>3.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
@@ -5177,16 +5177,16 @@
         <v>2.38</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5201,19 +5201,19 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="n">
         <v>67</v>
       </c>
       <c r="AK33" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL33" t="n">
         <v>6.5</v>
@@ -5225,7 +5225,7 @@
         <v>10</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP33" t="n">
         <v>21</v>
@@ -5272,13 +5272,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5326,10 +5326,10 @@
         <v>3.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -5362,13 +5362,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
         <v>9</v>
@@ -5438,7 +5438,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5576,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -5699,28 +5699,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I37" t="n">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L37" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.65</v>
@@ -5732,7 +5732,7 @@
         <v>2.87</v>
       </c>
       <c r="R37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5755,16 +5755,16 @@
         <v>1.57</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
         <v>24</v>
@@ -5773,13 +5773,13 @@
         <v>50</v>
       </c>
       <c r="AG37" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>150</v>
@@ -5788,19 +5788,19 @@
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="AM37" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AP37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ37" t="n">
         <v>80</v>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
@@ -5990,28 +5990,28 @@
         <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="K39" t="n">
         <v>1.98</v>
       </c>
       <c r="L39" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
         <v>1.57</v>
@@ -6019,10 +6019,10 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W39" t="n">
         <v>1.47</v>
@@ -6031,16 +6031,16 @@
         <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB39" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC39" t="n">
         <v>8.25</v>
@@ -6049,43 +6049,43 @@
         <v>16</v>
       </c>
       <c r="AE39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
         <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AH39" t="n">
         <v>5.9</v>
       </c>
       <c r="AI39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ39" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK39" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AM39" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO39" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AP39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6833,30 +6833,30 @@
         <v>4.33</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R45" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W45" t="n">
         <v>1.36</v>
@@ -7107,16 +7107,16 @@
         <v>3.85</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J47" t="n">
         <v>2.07</v>
       </c>
       <c r="K47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7127,10 +7127,10 @@
         <v>3.45</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7153,10 +7153,10 @@
         <v>1.8</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB47" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AC47" t="n">
         <v>7</v>
@@ -7165,13 +7165,13 @@
         <v>9</v>
       </c>
       <c r="AE47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG47" t="n">
         <v>10.25</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>10.75</v>
       </c>
       <c r="AH47" t="n">
         <v>6.6</v>
@@ -7180,7 +7180,7 @@
         <v>14.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK47" t="n">
         <v>450</v>
@@ -7192,16 +7192,16 @@
         <v>23</v>
       </c>
       <c r="AN47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP47" t="n">
         <v>40</v>
       </c>
       <c r="AQ47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7238,19 +7238,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
         <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K48" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L48" t="n">
         <v>4.33</v>
@@ -7259,7 +7259,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
@@ -7274,10 +7274,10 @@
         <v>2.3</v>
       </c>
       <c r="S48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -7334,7 +7334,7 @@
         <v>15</v>
       </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
@@ -7386,13 +7386,13 @@
         <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K49" t="n">
         <v>2.3</v>
@@ -7439,10 +7439,10 @@
         <v>2.1</v>
       </c>
       <c r="AA49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
@@ -7554,10 +7554,10 @@
         <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R50" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7701,10 +7701,10 @@
         <v>2.35</v>
       </c>
       <c r="S51" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T51" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="n">
         <v>2.38</v>
@@ -7831,13 +7831,13 @@
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q52" t="n">
         <v>2.35</v>
@@ -7951,13 +7951,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H53" t="n">
         <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
         <v>2.2</v>
@@ -8013,7 +8013,7 @@
         <v>6.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
         <v>11</v>
@@ -8040,7 +8040,7 @@
         <v>501</v>
       </c>
       <c r="AL53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM53" t="n">
         <v>29</v>
@@ -8110,10 +8110,10 @@
         <v>2.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8382,34 +8382,34 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K56" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L56" t="n">
         <v>6.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q56" t="n">
         <v>1.75</v>
@@ -8420,10 +8420,10 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W56" t="n">
         <v>1.33</v>
@@ -8447,7 +8447,7 @@
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -8459,13 +8459,13 @@
         <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI56" t="n">
         <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK56" t="n">
         <v>351</v>
@@ -8523,16 +8523,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K57" t="n">
         <v>2</v>
@@ -8544,19 +8544,19 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8567,10 +8567,10 @@
         <v>1.2</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X57" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y57" t="n">
         <v>2.05</v>
@@ -8579,19 +8579,19 @@
         <v>1.7</v>
       </c>
       <c r="AA57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB57" t="n">
         <v>19</v>
       </c>
       <c r="AC57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD57" t="n">
         <v>41</v>
       </c>
       <c r="AE57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF57" t="n">
         <v>41</v>
@@ -8618,7 +8618,7 @@
         <v>8.5</v>
       </c>
       <c r="AN57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO57" t="n">
         <v>17</v>
@@ -8714,10 +8714,10 @@
         <v>2.4</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="AA58" t="n">
         <v>9.25</v>
@@ -8938,22 +8938,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="J60" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L60" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -8964,7 +8964,7 @@
         <v>2.87</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R60" t="n">
         <v>1.7</v>
@@ -8987,25 +8987,25 @@
         <v>1.7</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA60" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB60" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD60" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG60" t="n">
         <v>9</v>
@@ -9020,22 +9020,22 @@
         <v>60</v>
       </c>
       <c r="AK60" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL60" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AM60" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AN60" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ60" t="n">
         <v>30</v>
@@ -9075,13 +9075,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>2.75</v>
@@ -9093,16 +9093,16 @@
         <v>5.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P61" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q61" t="n">
         <v>2.7</v>
@@ -9113,10 +9113,10 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W61" t="n">
         <v>1.62</v>
@@ -9140,7 +9140,7 @@
         <v>10</v>
       </c>
       <c r="AD61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
         <v>21</v>
@@ -9170,7 +9170,7 @@
         <v>19</v>
       </c>
       <c r="AN61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO61" t="n">
         <v>51</v>
@@ -9182,10 +9182,10 @@
         <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="62">
@@ -9510,13 +9510,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J64" t="n">
         <v>2.88</v>
@@ -9525,7 +9525,7 @@
         <v>1.95</v>
       </c>
       <c r="L64" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
@@ -9575,7 +9575,7 @@
         <v>9.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE64" t="n">
         <v>21</v>
@@ -9590,7 +9590,7 @@
         <v>6.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ64" t="n">
         <v>81</v>
@@ -9599,13 +9599,13 @@
         <v>900</v>
       </c>
       <c r="AL64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM64" t="n">
         <v>17</v>
       </c>
       <c r="AN64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO64" t="n">
         <v>41</v>
@@ -9830,16 +9830,16 @@
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S66" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T66" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U66" t="n">
         <v>2.38</v>
@@ -9963,10 +9963,10 @@
         <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O67" t="n">
         <v>1.14</v>
@@ -10111,7 +10111,7 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O68" t="n">
         <v>1.1</v>
@@ -10120,10 +10120,10 @@
         <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R68" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10261,10 +10261,10 @@
         <v>5.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S69" t="n">
         <v>1.83</v>
@@ -10662,13 +10662,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10743,13 +10743,13 @@
         <v>9.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK72" t="n">
         <v>351</v>
@@ -10841,10 +10841,10 @@
         <v>3.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R73" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10970,22 +10970,22 @@
         <v>3.6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11114,7 +11114,7 @@
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
         <v>1.25</v>
@@ -11234,13 +11234,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H76" t="n">
         <v>3.25</v>
       </c>
       <c r="I76" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J76" t="n">
         <v>3.25</v>
@@ -11264,18 +11264,18 @@
         <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
         <v>1.36</v>
@@ -11305,7 +11305,7 @@
         <v>21</v>
       </c>
       <c r="AF76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG76" t="n">
         <v>11</v>
@@ -11393,10 +11393,10 @@
         <v>4.75</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O77" t="n">
         <v>1.29</v>
@@ -11516,22 +11516,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H78" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J78" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K78" t="n">
         <v>2.35</v>
       </c>
       <c r="L78" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11560,10 +11560,10 @@
         <v>1.62</v>
       </c>
       <c r="W78" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X78" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Y78" t="n">
         <v>1.45</v>
@@ -11572,16 +11572,16 @@
         <v>2.57</v>
       </c>
       <c r="AA78" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB78" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC78" t="n">
         <v>9</v>
       </c>
       <c r="AD78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE78" t="n">
         <v>14.5</v>
@@ -11605,16 +11605,16 @@
         <v>175</v>
       </c>
       <c r="AL78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN78" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP78" t="n">
         <v>21</v>
@@ -11663,16 +11663,16 @@
         <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J79" t="n">
         <v>1.75</v>
       </c>
       <c r="K79" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -11684,10 +11684,10 @@
         <v>1.12</v>
       </c>
       <c r="P79" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R79" t="n">
         <v>2.8</v>
@@ -11701,7 +11701,7 @@
         <v>1.78</v>
       </c>
       <c r="W79" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X79" t="n">
         <v>3.7</v>
@@ -11710,10 +11710,10 @@
         <v>1.62</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AA79" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB79" t="n">
         <v>8.5</v>
@@ -11743,13 +11743,13 @@
         <v>50</v>
       </c>
       <c r="AK79" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM79" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN79" t="n">
         <v>24</v>
@@ -11758,7 +11758,7 @@
         <v>200</v>
       </c>
       <c r="AP79" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AQ79" t="n">
         <v>50</v>
@@ -11807,13 +11807,13 @@
         <v>2.72</v>
       </c>
       <c r="J80" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K80" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L80" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M80" t="n">
         <v>1.03</v>
@@ -11825,7 +11825,7 @@
         <v>1.15</v>
       </c>
       <c r="P80" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q80" t="n">
         <v>1.45</v>
@@ -11845,7 +11845,7 @@
         <v>1.26</v>
       </c>
       <c r="X80" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Y80" t="n">
         <v>1.4</v>
@@ -11854,28 +11854,28 @@
         <v>2.72</v>
       </c>
       <c r="AA80" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB80" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC80" t="n">
         <v>9.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE80" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF80" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG80" t="n">
         <v>9.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI80" t="n">
         <v>10.5</v>
@@ -11887,10 +11887,10 @@
         <v>150</v>
       </c>
       <c r="AL80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM80" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN80" t="n">
         <v>10.25</v>
@@ -11899,10 +11899,10 @@
         <v>35</v>
       </c>
       <c r="AP80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>20</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11939,13 +11939,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H81" t="n">
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J81" t="n">
         <v>2.1</v>
@@ -11957,10 +11957,10 @@
         <v>4</v>
       </c>
       <c r="M81" t="n">
+        <v>21</v>
+      </c>
+      <c r="N81" t="n">
         <v>1.02</v>
-      </c>
-      <c r="N81" t="n">
-        <v>12</v>
       </c>
       <c r="O81" t="n">
         <v>1.11</v>
@@ -11998,7 +11998,7 @@
         <v>13</v>
       </c>
       <c r="AB81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC81" t="n">
         <v>9</v>
@@ -12013,7 +12013,7 @@
         <v>17</v>
       </c>
       <c r="AG81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH81" t="n">
         <v>9</v>
@@ -12037,13 +12037,13 @@
         <v>15</v>
       </c>
       <c r="AO81" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP81" t="n">
         <v>29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12227,7 +12227,7 @@
         <v>3.9</v>
       </c>
       <c r="I83" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
         <v>2.1</v>
@@ -12239,34 +12239,34 @@
         <v>4.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V83" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R83" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1.53</v>
       </c>
       <c r="W83" t="n">
         <v>1.29</v>
@@ -12275,13 +12275,13 @@
         <v>3.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB83" t="n">
         <v>9.5</v>
@@ -12299,7 +12299,7 @@
         <v>21</v>
       </c>
       <c r="AG83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH83" t="n">
         <v>8</v>
@@ -12384,10 +12384,10 @@
         <v>2.88</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12507,13 +12507,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J85" t="n">
         <v>4.75</v>
@@ -12525,10 +12525,10 @@
         <v>2.88</v>
       </c>
       <c r="M85" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O85" t="n">
         <v>1.53</v>
@@ -12793,22 +12793,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>4.5</v>
       </c>
       <c r="I87" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J87" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="K87" t="n">
         <v>2.45</v>
       </c>
       <c r="L87" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
@@ -12831,7 +12831,7 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="V87" t="n">
         <v>1.57</v>
@@ -12852,16 +12852,16 @@
         <v>8.75</v>
       </c>
       <c r="AB87" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC87" t="n">
         <v>8.25</v>
       </c>
       <c r="AD87" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE87" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF87" t="n">
         <v>21</v>
@@ -12873,13 +12873,13 @@
         <v>9</v>
       </c>
       <c r="AI87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK87" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL87" t="n">
         <v>21</v>
@@ -12888,16 +12888,16 @@
         <v>45</v>
       </c>
       <c r="AN87" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO87" t="n">
         <v>150</v>
       </c>
       <c r="AP87" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -12955,7 +12955,7 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
         <v>1.3</v>
@@ -13216,22 +13216,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I90" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -13239,21 +13239,21 @@
         <v>1.19</v>
       </c>
       <c r="P90" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="V90" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W90" t="n">
         <v>1.39</v>
@@ -13268,19 +13268,19 @@
         <v>1.47</v>
       </c>
       <c r="AA90" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB90" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AC90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD90" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE90" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AF90" t="n">
         <v>175</v>
@@ -13289,10 +13289,10 @@
         <v>13</v>
       </c>
       <c r="AH90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ90" t="n">
         <v>200</v>
@@ -13301,19 +13301,19 @@
         <v>101</v>
       </c>
       <c r="AL90" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AM90" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AN90" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ90" t="n">
         <v>40</v>
@@ -13359,10 +13359,10 @@
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J91" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K91" t="n">
         <v>2.07</v>
@@ -13376,7 +13376,7 @@
         <v>1.37</v>
       </c>
       <c r="P91" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q91" t="n">
         <v>2.07</v>
@@ -13399,13 +13399,13 @@
         <v>2.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Z91" t="n">
         <v>1.75</v>
       </c>
       <c r="AA91" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB91" t="n">
         <v>10.5</v>
@@ -13438,7 +13438,7 @@
         <v>800</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AM91" t="n">
         <v>13.5</v>
@@ -13490,66 +13490,66 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I92" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K92" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L92" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O92" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P92" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R92" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="V92" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W92" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X92" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA92" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AC92" t="n">
         <v>8.5</v>
@@ -13558,16 +13558,16 @@
         <v>8.25</v>
       </c>
       <c r="AE92" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF92" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG92" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH92" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI92" t="n">
         <v>21</v>
@@ -13576,25 +13576,25 @@
         <v>90</v>
       </c>
       <c r="AK92" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL92" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM92" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN92" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO92" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP92" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ92" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
@@ -13631,75 +13631,75 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="H93" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="I93" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J93" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="K93" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="L93" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M93" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
         <v>9.75</v>
       </c>
       <c r="O93" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P93" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R93" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V93" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W93" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X93" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA93" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB93" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AC93" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD93" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE93" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AF93" t="n">
         <v>110</v>
@@ -13711,19 +13711,19 @@
         <v>13</v>
       </c>
       <c r="AI93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ93" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK93" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL93" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM93" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AN93" t="n">
         <v>9.75</v>
@@ -13732,10 +13732,10 @@
         <v>7.1</v>
       </c>
       <c r="AP93" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13775,16 +13775,16 @@
         <v>1.25</v>
       </c>
       <c r="H94" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I94" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J94" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K94" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="L94" t="n">
         <v>7.3</v>
@@ -13795,45 +13795,45 @@
         <v>1.11</v>
       </c>
       <c r="P94" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R94" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V94" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W94" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X94" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z94" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA94" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB94" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC94" t="n">
         <v>9.25</v>
       </c>
       <c r="AD94" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE94" t="n">
         <v>9.75</v>
@@ -13842,25 +13842,25 @@
         <v>21</v>
       </c>
       <c r="AG94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH94" t="n">
         <v>12.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ94" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK94" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL94" t="n">
         <v>35</v>
       </c>
       <c r="AM94" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN94" t="n">
         <v>29</v>
@@ -13872,7 +13872,7 @@
         <v>100</v>
       </c>
       <c r="AQ94" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -701,7 +701,7 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.63</v>
@@ -746,25 +746,25 @@
         <v>3.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -837,19 +837,19 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J3" t="n">
         <v>4.75</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
         <v>2.1</v>
@@ -858,7 +858,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -867,18 +867,18 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>1.25</v>
@@ -899,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>51</v>
@@ -908,16 +908,16 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1002,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
@@ -1167,10 +1167,10 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y5" t="n">
         <v>1.57</v>
@@ -1215,16 +1215,16 @@
         <v>13</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1267,13 +1267,13 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1282,10 +1282,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1314,22 +1314,22 @@
         <v>2.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1353,13 +1353,13 @@
         <v>351</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM6" t="n">
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1516,10 +1516,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
         <v>2.8</v>
@@ -1715,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
@@ -1727,46 +1727,46 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -1781,43 +1781,43 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10">
@@ -1870,10 +1870,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O10" t="n">
         <v>1.83</v>
@@ -1896,10 +1896,10 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="X10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y10" t="n">
         <v>2.75</v>
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
         <v>41</v>
@@ -2040,7 +2040,7 @@
         <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
         <v>2.5</v>
@@ -2275,13 +2275,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
         <v>4.75</v>
@@ -2290,7 +2290,7 @@
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2334,13 +2334,13 @@
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2352,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2416,13 +2416,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2431,7 +2431,7 @@
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2452,10 +2452,10 @@
         <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
@@ -2476,13 +2476,13 @@
         <v>2.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
@@ -2494,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>7.5</v>
@@ -2509,10 +2509,10 @@
         <v>126</v>
       </c>
       <c r="AL14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM14" t="n">
         <v>10</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>11</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
@@ -2846,19 +2846,19 @@
         <v>3.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
         <v>1.88</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2867,39 +2867,39 @@
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB17" t="n">
         <v>19.5</v>
@@ -2920,22 +2920,22 @@
         <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL17" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AN17" t="n">
         <v>8.5</v>
@@ -2944,7 +2944,7 @@
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3437,30 +3437,30 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA21" t="n">
         <v>10</v>
@@ -3481,7 +3481,7 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3578,18 +3578,18 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3692,16 +3692,16 @@
         <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
         <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
         <v>4.75</v>
@@ -3719,10 +3719,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3739,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
@@ -3884,10 +3884,10 @@
         <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3979,19 +3979,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
@@ -4033,10 +4033,10 @@
         <v>3.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
@@ -4048,7 +4048,7 @@
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4057,13 +4057,13 @@
         <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>51</v>
@@ -4124,111 +4124,111 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R26" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA26" t="n">
         <v>11</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
       </c>
       <c r="AK26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4265,40 +4265,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>4.4</v>
@@ -4307,10 +4307,10 @@
         <v>1.2</v>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
         <v>1.57</v>
@@ -4322,22 +4322,22 @@
         <v>2.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
@@ -4361,25 +4361,25 @@
         <v>6.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="28">
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
@@ -4423,19 +4423,19 @@
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4468,10 +4468,10 @@
         <v>2.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -4486,13 +4486,13 @@
         <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -4501,7 +4501,7 @@
         <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="n">
         <v>101</v>
@@ -4581,10 +4581,10 @@
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
@@ -4601,10 +4601,10 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4845,37 +4845,37 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L31" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R31" t="n">
         <v>1.6</v>
@@ -4883,49 +4883,49 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
         <v>1.47</v>
       </c>
       <c r="X31" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Z31" t="n">
         <v>1.72</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB31" t="n">
         <v>8.25</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD31" t="n">
         <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>110</v>
@@ -4940,7 +4940,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>90</v>
@@ -5447,18 +5447,18 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
         <v>1.36</v>
@@ -5521,7 +5521,7 @@
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5990,13 +5990,13 @@
         <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -6005,42 +6005,42 @@
         <v>5.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AC39" t="n">
         <v>8.25</v>
@@ -6049,10 +6049,10 @@
         <v>16</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG39" t="n">
         <v>5.9</v>
@@ -6070,22 +6070,22 @@
         <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP39" t="n">
         <v>55</v>
       </c>
       <c r="AQ39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6122,28 +6122,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -6178,7 +6178,7 @@
         <v>1.83</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
@@ -6187,7 +6187,7 @@
         <v>11</v>
       </c>
       <c r="AD40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE40" t="n">
         <v>26</v>
@@ -6226,7 +6226,7 @@
         <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6301,10 +6301,10 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AA41" t="n">
         <v>9</v>
@@ -6422,10 +6422,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6533,19 +6533,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
         <v>4</v>
@@ -6595,10 +6595,10 @@
         <v>10</v>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE43" t="n">
         <v>19</v>
@@ -6619,19 +6619,19 @@
         <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM43" t="n">
         <v>17</v>
       </c>
       <c r="AN43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP43" t="n">
         <v>29</v>
@@ -6956,22 +6956,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>2.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>1.91</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.13</v>
@@ -7000,10 +7000,10 @@
         <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y46" t="n">
         <v>2.1</v>
@@ -7018,13 +7018,13 @@
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF46" t="n">
         <v>41</v>
@@ -7048,7 +7048,7 @@
         <v>7</v>
       </c>
       <c r="AM46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN46" t="n">
         <v>12</v>
@@ -7121,10 +7121,10 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
         <v>1.8</v>
@@ -7135,10 +7135,10 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V47" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W47" t="n">
         <v>1.36</v>
@@ -7147,10 +7147,10 @@
         <v>2.52</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA47" t="n">
         <v>5.6</v>
@@ -7262,28 +7262,28 @@
         <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T48" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W48" t="n">
         <v>1.3</v>
@@ -7386,16 +7386,16 @@
         <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>2.38</v>
       </c>
       <c r="K49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L49" t="n">
         <v>4.5</v>
@@ -7404,45 +7404,45 @@
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R49" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X49" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
@@ -7457,7 +7457,7 @@
         <v>23</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
         <v>7.5</v>
@@ -7466,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK49" t="n">
         <v>201</v>
@@ -7484,7 +7484,7 @@
         <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ49" t="n">
         <v>34</v>
@@ -7548,16 +7548,16 @@
         <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R50" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7810,16 +7810,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
@@ -7848,22 +7848,22 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X52" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y52" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA52" t="n">
         <v>8</v>
@@ -7878,7 +7878,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF52" t="n">
         <v>41</v>
@@ -7890,7 +7890,7 @@
         <v>6.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="n">
         <v>67</v>
@@ -7916,8 +7916,12 @@
       <c r="AQ52" t="n">
         <v>34</v>
       </c>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
+      <c r="AR52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8116,10 +8120,10 @@
         <v>7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q54" t="n">
         <v>2.5</v>
@@ -8199,10 +8203,10 @@
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="55">
@@ -8255,16 +8259,16 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P55" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q55" t="n">
         <v>2.7</v>
@@ -8275,10 +8279,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W55" t="n">
         <v>1.62</v>
@@ -8344,10 +8348,10 @@
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="56">
@@ -8938,19 +8942,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J60" t="n">
         <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L60" t="n">
         <v>3.05</v>
@@ -8961,7 +8965,7 @@
         <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q60" t="n">
         <v>1.91</v>
@@ -8972,10 +8976,10 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="V60" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W60" t="n">
         <v>1.42</v>
@@ -8990,13 +8994,13 @@
         <v>1.93</v>
       </c>
       <c r="AA60" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB60" t="n">
         <v>14.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD60" t="n">
         <v>32</v>
@@ -9014,7 +9018,7 @@
         <v>6</v>
       </c>
       <c r="AI60" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ60" t="n">
         <v>60</v>
@@ -9023,16 +9027,16 @@
         <v>450</v>
       </c>
       <c r="AL60" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AM60" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN60" t="n">
         <v>9.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP60" t="n">
         <v>21</v>
@@ -9075,22 +9079,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="n">
         <v>1.91</v>
       </c>
       <c r="L61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>1.1</v>
@@ -9105,10 +9109,10 @@
         <v>2.38</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R61" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9125,22 +9129,22 @@
         <v>2.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC61" t="n">
         <v>10</v>
       </c>
       <c r="AD61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE61" t="n">
         <v>21</v>
@@ -9149,16 +9153,16 @@
         <v>41</v>
       </c>
       <c r="AG61" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH61" t="n">
         <v>6.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ61" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="n">
         <v>101</v>
@@ -9167,13 +9171,13 @@
         <v>8</v>
       </c>
       <c r="AM61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN61" t="n">
         <v>15</v>
       </c>
       <c r="AO61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP61" t="n">
         <v>41</v>
@@ -9182,10 +9186,10 @@
         <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="62">
@@ -9241,7 +9245,7 @@
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
         <v>1.44</v>
@@ -9258,10 +9262,10 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W62" t="n">
         <v>1.53</v>
@@ -9327,10 +9331,10 @@
         <v>51</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="63">
@@ -9383,10 +9387,10 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.5</v>
@@ -9528,10 +9532,10 @@
         <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O64" t="n">
         <v>1.5</v>
@@ -10267,16 +10271,16 @@
         <v>2.4</v>
       </c>
       <c r="S69" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T69" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V69" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W69" t="n">
         <v>1.25</v>
@@ -10539,10 +10543,10 @@
         <v>6</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -10559,10 +10563,10 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10607,7 +10611,7 @@
         <v>67</v>
       </c>
       <c r="AK71" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AL71" t="n">
         <v>13</v>
@@ -10662,13 +10666,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10677,13 +10681,13 @@
         <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M72" t="n">
         <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -10692,16 +10696,16 @@
         <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="n">
         <v>2.8</v>
       </c>
       <c r="T72" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U72" t="n">
         <v>3.5</v>
@@ -10716,16 +10720,16 @@
         <v>2.75</v>
       </c>
       <c r="Y72" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB72" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>7</v>
       </c>
       <c r="AC72" t="n">
         <v>8.5</v>
@@ -10740,16 +10744,16 @@
         <v>29</v>
       </c>
       <c r="AG72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK72" t="n">
         <v>351</v>
@@ -10767,7 +10771,7 @@
         <v>67</v>
       </c>
       <c r="AP72" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ72" t="n">
         <v>51</v>
@@ -10776,7 +10780,7 @@
         <v>1.51</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="73">
@@ -10811,28 +10815,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J73" t="n">
         <v>2.88</v>
       </c>
       <c r="K73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L73" t="n">
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.29</v>
@@ -10861,10 +10865,10 @@
         <v>2.75</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA73" t="n">
         <v>8</v>
@@ -10885,7 +10889,7 @@
         <v>26</v>
       </c>
       <c r="AG73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH73" t="n">
         <v>6.5</v>
@@ -10900,7 +10904,7 @@
         <v>201</v>
       </c>
       <c r="AL73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM73" t="n">
         <v>17</v>
@@ -10952,13 +10956,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J74" t="n">
         <v>3.1</v>
@@ -10967,13 +10971,13 @@
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -11008,10 +11012,10 @@
         <v>2</v>
       </c>
       <c r="AA74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC74" t="n">
         <v>9.5</v>
@@ -11020,13 +11024,13 @@
         <v>23</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF74" t="n">
         <v>29</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH74" t="n">
         <v>6</v>
@@ -11056,7 +11060,7 @@
         <v>23</v>
       </c>
       <c r="AQ74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11111,30 +11115,30 @@
         <v>2.38</v>
       </c>
       <c r="M75" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O75" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W75" t="n">
         <v>1.36</v>
@@ -11234,22 +11238,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K76" t="n">
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -11264,10 +11268,10 @@
         <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11278,10 +11282,10 @@
         <v>1.33</v>
       </c>
       <c r="W76" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X76" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y76" t="n">
         <v>1.67</v>
@@ -11290,7 +11294,7 @@
         <v>2.1</v>
       </c>
       <c r="AA76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB76" t="n">
         <v>13</v>
@@ -11305,7 +11309,7 @@
         <v>21</v>
       </c>
       <c r="AF76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG76" t="n">
         <v>11</v>
@@ -11320,7 +11324,7 @@
         <v>41</v>
       </c>
       <c r="AK76" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL76" t="n">
         <v>9.5</v>
@@ -11338,7 +11342,7 @@
         <v>21</v>
       </c>
       <c r="AQ76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11375,13 +11379,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J77" t="n">
         <v>2.5</v>
@@ -11390,13 +11394,13 @@
         <v>2.2</v>
       </c>
       <c r="L77" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
         <v>1.29</v>
@@ -11425,16 +11429,16 @@
         <v>2.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA77" t="n">
         <v>7</v>
       </c>
       <c r="AB77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC77" t="n">
         <v>8.5</v>
@@ -11467,7 +11471,7 @@
         <v>12</v>
       </c>
       <c r="AM77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN77" t="n">
         <v>15</v>
@@ -11519,13 +11523,13 @@
         <v>2.12</v>
       </c>
       <c r="H78" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I78" t="n">
         <v>2.95</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="K78" t="n">
         <v>2.35</v>
@@ -11557,19 +11561,19 @@
         <v>2.18</v>
       </c>
       <c r="V78" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W78" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X78" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Y78" t="n">
         <v>1.45</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AA78" t="n">
         <v>12</v>
@@ -11587,7 +11591,7 @@
         <v>14.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG78" t="n">
         <v>9.25</v>
@@ -11605,10 +11609,10 @@
         <v>175</v>
       </c>
       <c r="AL78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN78" t="n">
         <v>10.75</v>
@@ -11620,7 +11624,7 @@
         <v>21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11657,22 +11661,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H79" t="n">
         <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="J79" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="L79" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -11690,15 +11694,15 @@
         <v>1.38</v>
       </c>
       <c r="R79" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V79" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W79" t="n">
         <v>1.23</v>
@@ -11725,10 +11729,10 @@
         <v>9.75</v>
       </c>
       <c r="AE79" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF79" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG79" t="n">
         <v>10</v>
@@ -11746,19 +11750,19 @@
         <v>250</v>
       </c>
       <c r="AL79" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM79" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO79" t="n">
         <v>200</v>
       </c>
       <c r="AP79" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AQ79" t="n">
         <v>50</v>
@@ -11798,19 +11802,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H80" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I80" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="J80" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="K80" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L80" t="n">
         <v>3.1</v>
@@ -11819,90 +11823,90 @@
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O80" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P80" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R80" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V80" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W80" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X80" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AA80" t="n">
         <v>13</v>
       </c>
       <c r="AB80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE80" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF80" t="n">
         <v>18.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH80" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AI80" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK80" t="n">
         <v>150</v>
       </c>
       <c r="AL80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN80" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP80" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11942,7 +11946,7 @@
         <v>1.65</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I81" t="n">
         <v>4.33</v>
@@ -11957,7 +11961,7 @@
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N81" t="n">
         <v>1.02</v>
@@ -11998,7 +12002,7 @@
         <v>13</v>
       </c>
       <c r="AB81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC81" t="n">
         <v>9</v>
@@ -12013,7 +12017,7 @@
         <v>17</v>
       </c>
       <c r="AG81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH81" t="n">
         <v>9</v>
@@ -12245,28 +12249,28 @@
         <v>10.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V83" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R83" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1.57</v>
       </c>
       <c r="W83" t="n">
         <v>1.29</v>
@@ -12366,16 +12370,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J84" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K84" t="n">
         <v>2.05</v>
@@ -12384,10 +12388,10 @@
         <v>2.88</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12437,7 +12441,7 @@
         <v>26</v>
       </c>
       <c r="AF84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG84" t="n">
         <v>9</v>
@@ -12464,7 +12468,7 @@
         <v>9.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP84" t="n">
         <v>19</v>
@@ -12510,7 +12514,7 @@
         <v>4.1</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I85" t="n">
         <v>2.05</v>
@@ -12531,16 +12535,16 @@
         <v>6</v>
       </c>
       <c r="O85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P85" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R85" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -12551,16 +12555,16 @@
         <v>1.14</v>
       </c>
       <c r="W85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z85" t="n">
         <v>1.62</v>
-      </c>
-      <c r="X85" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>1.57</v>
       </c>
       <c r="AA85" t="n">
         <v>8.5</v>
@@ -12599,13 +12603,13 @@
         <v>5.5</v>
       </c>
       <c r="AM85" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN85" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
@@ -12614,10 +12618,10 @@
         <v>41</v>
       </c>
       <c r="AR85" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="86">
@@ -12934,96 +12938,96 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H88" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I88" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J88" t="n">
         <v>2.4</v>
       </c>
       <c r="K88" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R88" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V88" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="W88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X88" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AA88" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC88" t="n">
         <v>8.5</v>
       </c>
       <c r="AD88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE88" t="n">
         <v>15</v>
       </c>
       <c r="AF88" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH88" t="n">
         <v>7</v>
       </c>
       <c r="AI88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ88" t="n">
         <v>51</v>
       </c>
       <c r="AK88" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AL88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM88" t="n">
         <v>23</v>
@@ -13032,10 +13036,10 @@
         <v>15</v>
       </c>
       <c r="AO88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ88" t="n">
         <v>41</v>
@@ -13216,22 +13220,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="H90" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I90" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="J90" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L90" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -13239,21 +13243,21 @@
         <v>1.19</v>
       </c>
       <c r="P90" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R90" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="V90" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W90" t="n">
         <v>1.39</v>
@@ -13268,19 +13272,19 @@
         <v>1.47</v>
       </c>
       <c r="AA90" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AB90" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AC90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD90" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE90" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AF90" t="n">
         <v>175</v>
@@ -13289,10 +13293,10 @@
         <v>13</v>
       </c>
       <c r="AH90" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ90" t="n">
         <v>200</v>
@@ -13301,19 +13305,19 @@
         <v>101</v>
       </c>
       <c r="AL90" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AM90" t="n">
         <v>5.4</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AP90" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ90" t="n">
         <v>40</v>
@@ -13353,22 +13357,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="J91" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K91" t="n">
         <v>2.07</v>
       </c>
       <c r="L91" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -13396,7 +13400,7 @@
         <v>1.4</v>
       </c>
       <c r="X91" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Y91" t="n">
         <v>1.85</v>
@@ -13405,22 +13409,22 @@
         <v>1.75</v>
       </c>
       <c r="AA91" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AB91" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE91" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF91" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG91" t="n">
         <v>8.25</v>
@@ -13429,7 +13433,7 @@
         <v>6.3</v>
       </c>
       <c r="AI91" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ91" t="n">
         <v>90</v>
@@ -13438,22 +13442,22 @@
         <v>800</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AM91" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN91" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AO91" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP91" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ91" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>
@@ -13909,22 +13913,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I95" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="J95" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K95" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L95" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -13932,7 +13936,7 @@
         <v>1.38</v>
       </c>
       <c r="P95" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q95" t="n">
         <v>2.1</v>
@@ -13961,19 +13965,19 @@
         <v>1.83</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC95" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD95" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE95" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF95" t="n">
         <v>35</v>
@@ -13988,28 +13992,28 @@
         <v>14</v>
       </c>
       <c r="AJ95" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK95" t="n">
         <v>600</v>
       </c>
       <c r="AL95" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AM95" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AN95" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO95" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AP95" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ95" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
         <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -734,10 +734,10 @@
         <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
@@ -746,25 +746,25 @@
         <v>3.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
       <c r="AP2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -840,60 +840,64 @@
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
         <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>2.38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.97</v>
+      </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
@@ -908,10 +912,10 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
@@ -920,16 +924,16 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN3" t="n">
         <v>8.5</v>
@@ -981,111 +985,115 @@
         <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AR4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1119,22 +1127,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1179,19 +1187,19 @@
         <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1212,13 +1220,13 @@
         <v>126</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>41</v>
@@ -1405,13 +1413,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1429,22 +1437,22 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U7" t="n">
         <v>5</v>
@@ -1459,10 +1467,10 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1516,10 +1524,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="8">
@@ -1703,10 +1711,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>2.8</v>
@@ -1715,52 +1723,52 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
@@ -1781,13 +1789,13 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>101</v>
@@ -1796,13 +1804,13 @@
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -1814,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="10">
@@ -2134,16 +2142,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
         <v>1.83</v>
@@ -2190,7 +2198,7 @@
         <v>1.44</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB12" t="n">
         <v>7</v>
@@ -2202,43 +2210,43 @@
         <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="n">
         <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP12" t="n">
         <v>51</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2275,22 +2283,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2305,24 +2313,24 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
         <v>1.8</v>
@@ -2331,28 +2339,28 @@
         <v>1.95</v>
       </c>
       <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
         <v>12</v>
       </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
       <c r="AD13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="n">
         <v>34</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2367,16 +2375,16 @@
         <v>7.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2440,22 +2448,22 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
@@ -2464,10 +2472,10 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y14" t="n">
         <v>1.57</v>
@@ -2494,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2509,10 +2517,10 @@
         <v>126</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
@@ -2564,16 +2572,16 @@
         <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
         <v>1.98</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>2.6</v>
@@ -2588,13 +2596,13 @@
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2605,19 +2613,19 @@
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Y15" t="n">
         <v>1.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB15" t="n">
         <v>18.5</v>
@@ -2629,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
         <v>37</v>
@@ -2641,7 +2649,7 @@
         <v>6.7</v>
       </c>
       <c r="AI15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
@@ -2650,22 +2658,22 @@
         <v>500</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP15" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2702,54 +2710,54 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Y16" t="n">
         <v>1.75</v>
@@ -2758,28 +2766,28 @@
         <v>1.95</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC16" t="n">
         <v>8.25</v>
       </c>
       <c r="AD16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>14.5</v>
       </c>
       <c r="AF16" t="n">
         <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AI16" t="n">
         <v>14.5</v>
@@ -2791,16 +2799,16 @@
         <v>500</v>
       </c>
       <c r="AL16" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP16" t="n">
         <v>35</v>
@@ -2843,22 +2851,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L17" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2867,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>3.55</v>
@@ -2881,31 +2889,31 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V17" t="n">
         <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z17" t="n">
         <v>2.02</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
         <v>50</v>
@@ -2932,7 +2940,7 @@
         <v>450</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AM17" t="n">
         <v>9.25</v>
@@ -2941,10 +2949,10 @@
         <v>8.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
@@ -3125,19 +3133,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L19" t="n">
         <v>3.5</v>
@@ -3149,10 +3157,10 @@
         <v>7.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.75</v>
@@ -3163,10 +3171,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
         <v>1.38</v>
@@ -3178,25 +3186,25 @@
         <v>1.65</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC19" t="n">
         <v>8.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>16.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>7.9</v>
@@ -3208,19 +3216,19 @@
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
         <v>350</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
         <v>37</v>
@@ -3266,40 +3274,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I20" t="n">
         <v>9.25</v>
       </c>
       <c r="J20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L20" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="n">
         <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -3310,67 +3318,67 @@
         <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Z20" t="n">
         <v>1.65</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC20" t="n">
         <v>8.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH20" t="n">
         <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
         <v>300</v>
       </c>
       <c r="AP20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ20" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3425,10 +3433,10 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3566,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3607,7 +3615,7 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -3622,7 +3630,7 @@
         <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
@@ -3979,97 +3987,97 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>1.83</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
         <v>17</v>
       </c>
-      <c r="AH25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -4084,7 +4092,7 @@
         <v>81</v>
       </c>
       <c r="AP25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -4124,16 +4132,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K26" t="n">
         <v>2.6</v>
@@ -4148,16 +4156,16 @@
         <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R26" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4189,7 +4197,7 @@
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
@@ -4198,13 +4206,13 @@
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -4213,13 +4221,13 @@
         <v>126</v>
       </c>
       <c r="AL26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4265,13 +4273,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -4280,7 +4288,7 @@
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -4313,16 +4321,16 @@
         <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA27" t="n">
         <v>6.5</v>
@@ -4352,7 +4360,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="n">
         <v>1250</v>
@@ -4414,13 +4422,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4429,7 +4437,7 @@
         <v>1.8</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.14</v>
@@ -4483,7 +4491,7 @@
         <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
         <v>34</v>
@@ -4516,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
@@ -4704,10 +4712,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
         <v>1.8</v>
@@ -4725,45 +4733,45 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Y30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z30" t="n">
         <v>1.83</v>
       </c>
-      <c r="Z30" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AA30" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC30" t="n">
         <v>15.5</v>
@@ -4775,28 +4783,28 @@
         <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>90</v>
       </c>
       <c r="AK30" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AM30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AN30" t="n">
         <v>8.75</v>
@@ -4805,10 +4813,10 @@
         <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4845,19 +4853,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J31" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
         <v>4.8</v>
@@ -4866,39 +4874,39 @@
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA31" t="n">
         <v>5.5</v>
@@ -4910,25 +4918,25 @@
         <v>9.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF31" t="n">
         <v>40</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AH31" t="n">
         <v>6.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="n">
         <v>900</v>
@@ -4986,13 +4994,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H32" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
         <v>2.1</v>
@@ -5001,33 +5009,33 @@
         <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W32" t="n">
         <v>1.37</v>
@@ -5036,13 +5044,13 @@
         <v>2.95</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB32" t="n">
         <v>7.9</v>
@@ -5054,13 +5062,13 @@
         <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
         <v>8.25</v>
@@ -5069,25 +5077,25 @@
         <v>17.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ32" t="n">
         <v>55</v>
@@ -5127,13 +5135,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -5142,7 +5150,7 @@
         <v>1.95</v>
       </c>
       <c r="L33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
@@ -5151,24 +5159,24 @@
         <v>7</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
         <v>1.53</v>
@@ -5225,19 +5233,19 @@
         <v>10</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="n">
         <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="34">
@@ -5558,28 +5566,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -5617,7 +5625,7 @@
         <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
         <v>9.5</v>
@@ -5644,10 +5652,10 @@
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM36" t="n">
         <v>15</v>
@@ -5659,7 +5667,7 @@
         <v>34</v>
       </c>
       <c r="AP36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ36" t="n">
         <v>41</v>
@@ -5699,48 +5707,48 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="H37" t="n">
         <v>2.6</v>
       </c>
       <c r="I37" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
         <v>1.78</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M37" t="n">
         <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P37" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
         <v>1.65</v>
@@ -5749,37 +5757,37 @@
         <v>2.1</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
         <v>50</v>
       </c>
       <c r="AG37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AH37" t="n">
         <v>5.4</v>
       </c>
       <c r="AI37" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>150</v>
@@ -5788,22 +5796,22 @@
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO37" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AP37" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5840,108 +5848,108 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="J38" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="V38" t="n">
         <v>1.23</v>
       </c>
       <c r="W38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X38" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA38" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AB38" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC38" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AD38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>110</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>120</v>
       </c>
       <c r="AK38" t="n">
         <v>101</v>
       </c>
       <c r="AL38" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AM38" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>35</v>
@@ -5981,87 +5989,87 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I39" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L39" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X39" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AH39" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>90</v>
@@ -6070,22 +6078,22 @@
         <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AN39" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO39" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AP39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>55</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>60</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6122,28 +6130,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -6181,7 +6189,7 @@
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
         <v>11</v>
@@ -6190,13 +6198,13 @@
         <v>29</v>
       </c>
       <c r="AE40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH40" t="n">
         <v>6</v>
@@ -6211,16 +6219,16 @@
         <v>301</v>
       </c>
       <c r="AL40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
@@ -6263,48 +6271,48 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H41" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K41" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="L41" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V41" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AA41" t="n">
         <v>9</v>
@@ -6313,49 +6321,49 @@
         <v>6.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE41" t="n">
         <v>8.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ41" t="n">
         <v>60</v>
       </c>
       <c r="AK41" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO41" t="n">
         <v>350</v>
       </c>
-      <c r="AL41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="n">
+      <c r="AP41" t="n">
         <v>110</v>
       </c>
-      <c r="AN41" t="n">
-        <v>35</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>120</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6545,7 +6553,7 @@
         <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
         <v>4</v>
@@ -6589,7 +6597,7 @@
         <v>1.83</v>
       </c>
       <c r="AA43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB43" t="n">
         <v>10</v>
@@ -6619,10 +6627,10 @@
         <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM43" t="n">
         <v>17</v>
@@ -6845,10 +6853,10 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6974,10 +6982,10 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.5</v>
@@ -6986,10 +6994,10 @@
         <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7063,10 +7071,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="47">
@@ -7238,67 +7246,67 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K48" t="n">
         <v>2.3</v>
       </c>
-      <c r="K48" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L48" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R48" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S48" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U48" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V48" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB48" t="n">
         <v>10</v>
@@ -7307,7 +7315,7 @@
         <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE48" t="n">
         <v>13</v>
@@ -7316,10 +7324,10 @@
         <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI48" t="n">
         <v>13</v>
@@ -7331,10 +7339,10 @@
         <v>151</v>
       </c>
       <c r="AL48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
@@ -7343,7 +7351,7 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ48" t="n">
         <v>29</v>
@@ -7383,19 +7391,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I49" t="n">
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L49" t="n">
         <v>4.5</v>
@@ -7404,7 +7412,7 @@
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
         <v>1.25</v>
@@ -7413,7 +7421,7 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
@@ -7433,13 +7441,13 @@
         <v>3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB49" t="n">
         <v>9</v>
@@ -7451,16 +7459,16 @@
         <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI49" t="n">
         <v>15</v>
@@ -7469,10 +7477,10 @@
         <v>51</v>
       </c>
       <c r="AK49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM49" t="n">
         <v>21</v>
@@ -7487,7 +7495,7 @@
         <v>34</v>
       </c>
       <c r="AQ49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7539,7 +7547,7 @@
         <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7695,22 +7703,22 @@
         <v>5</v>
       </c>
       <c r="Q51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V51" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.53</v>
       </c>
       <c r="W51" t="n">
         <v>1.29</v>
@@ -7810,48 +7818,48 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="J52" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W52" t="n">
         <v>1.53</v>
@@ -7866,28 +7874,28 @@
         <v>1.7</v>
       </c>
       <c r="AA52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
         <v>12</v>
       </c>
       <c r="AD52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF52" t="n">
         <v>41</v>
       </c>
       <c r="AG52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI52" t="n">
         <v>19</v>
@@ -7896,31 +7904,31 @@
         <v>67</v>
       </c>
       <c r="AK52" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL52" t="n">
         <v>6.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="53">
@@ -7955,22 +7963,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K53" t="n">
         <v>2.2</v>
       </c>
-      <c r="K53" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L53" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.07</v>
@@ -7979,24 +7987,24 @@
         <v>8.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
         <v>1.44</v>
@@ -8005,25 +8013,25 @@
         <v>2.63</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA53" t="n">
         <v>5.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC53" t="n">
         <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
         <v>34</v>
@@ -8032,10 +8040,10 @@
         <v>8.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ53" t="n">
         <v>81</v>
@@ -8044,22 +8052,22 @@
         <v>501</v>
       </c>
       <c r="AL53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN53" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP53" t="n">
         <v>51</v>
       </c>
       <c r="AQ53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8096,28 +8104,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I54" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="L54" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.5</v>
@@ -8126,10 +8134,10 @@
         <v>2.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R54" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -8146,37 +8154,37 @@
         <v>2.25</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD54" t="n">
         <v>41</v>
       </c>
       <c r="AE54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF54" t="n">
         <v>41</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>51</v>
       </c>
       <c r="AG54" t="n">
         <v>6.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
         <v>67</v>
@@ -8185,28 +8193,28 @@
         <v>501</v>
       </c>
       <c r="AL54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM54" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO54" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP54" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="55">
@@ -8241,19 +8249,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L55" t="n">
         <v>3.6</v>
@@ -8265,10 +8273,10 @@
         <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q55" t="n">
         <v>2.7</v>
@@ -8279,10 +8287,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W55" t="n">
         <v>1.62</v>
@@ -8330,7 +8338,7 @@
         <v>501</v>
       </c>
       <c r="AL55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM55" t="n">
         <v>11</v>
@@ -8339,19 +8347,19 @@
         <v>11</v>
       </c>
       <c r="AO55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ55" t="n">
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="56">
@@ -8386,28 +8394,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L56" t="n">
         <v>6.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -8430,16 +8438,16 @@
         <v>1.36</v>
       </c>
       <c r="W56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA56" t="n">
         <v>7</v>
@@ -8451,13 +8459,13 @@
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
       </c>
       <c r="AF56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG56" t="n">
         <v>13</v>
@@ -8472,16 +8480,16 @@
         <v>67</v>
       </c>
       <c r="AK56" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="n">
         <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO56" t="n">
         <v>67</v>
@@ -8527,48 +8535,48 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J57" t="n">
         <v>4.75</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -8577,16 +8585,16 @@
         <v>2.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
         <v>15</v>
@@ -8601,34 +8609,34 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI57" t="n">
         <v>17</v>
       </c>
       <c r="AJ57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK57" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL57" t="n">
         <v>6</v>
       </c>
       <c r="AM57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN57" t="n">
         <v>9</v>
       </c>
       <c r="AO57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP57" t="n">
         <v>17</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>19</v>
       </c>
       <c r="AQ57" t="n">
         <v>34</v>
@@ -9079,16 +9087,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K61" t="n">
         <v>1.91</v>
@@ -9123,28 +9131,28 @@
         <v>1.14</v>
       </c>
       <c r="W61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA61" t="n">
         <v>5.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
         <v>21</v>
@@ -9159,7 +9167,7 @@
         <v>6.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ61" t="n">
         <v>81</v>
@@ -9168,16 +9176,16 @@
         <v>101</v>
       </c>
       <c r="AL61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN61" t="n">
         <v>15</v>
       </c>
       <c r="AO61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP61" t="n">
         <v>41</v>
@@ -9680,7 +9688,7 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
@@ -9804,16 +9812,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J66" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K66" t="n">
         <v>2.38</v>
@@ -9873,7 +9881,7 @@
         <v>11</v>
       </c>
       <c r="AD66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE66" t="n">
         <v>19</v>
@@ -9888,7 +9896,7 @@
         <v>6.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ66" t="n">
         <v>34</v>
@@ -9909,10 +9917,10 @@
         <v>26</v>
       </c>
       <c r="AP66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10094,22 +10102,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
         <v>4.2</v>
       </c>
       <c r="I68" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J68" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K68" t="n">
         <v>2.75</v>
       </c>
       <c r="L68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
@@ -10162,28 +10170,28 @@
         <v>51</v>
       </c>
       <c r="AE68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF68" t="n">
         <v>29</v>
       </c>
-      <c r="AF68" t="n">
-        <v>26</v>
-      </c>
       <c r="AG68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH68" t="n">
         <v>9.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ68" t="n">
         <v>29</v>
       </c>
       <c r="AK68" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM68" t="n">
         <v>12</v>
@@ -10195,7 +10203,7 @@
         <v>15</v>
       </c>
       <c r="AP68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ68" t="n">
         <v>17</v>
@@ -10259,10 +10267,10 @@
         <v>17</v>
       </c>
       <c r="O69" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P69" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
         <v>1.53</v>
@@ -10271,10 +10279,10 @@
         <v>2.4</v>
       </c>
       <c r="S69" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U69" t="n">
         <v>2.25</v>
@@ -10666,13 +10674,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H72" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10681,7 +10689,7 @@
         <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>1.06</v>
@@ -10705,7 +10713,7 @@
         <v>2.8</v>
       </c>
       <c r="T72" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U72" t="n">
         <v>3.5</v>
@@ -10714,22 +10722,22 @@
         <v>1.29</v>
       </c>
       <c r="W72" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X72" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC72" t="n">
         <v>8.5</v>
@@ -10747,7 +10755,7 @@
         <v>9</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
@@ -10759,7 +10767,7 @@
         <v>351</v>
       </c>
       <c r="AL72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM72" t="n">
         <v>29</v>
@@ -10780,7 +10788,7 @@
         <v>1.51</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="73">
@@ -10833,10 +10841,10 @@
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O73" t="n">
         <v>1.29</v>
@@ -10962,7 +10970,7 @@
         <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J74" t="n">
         <v>3.1</v>
@@ -10971,7 +10979,7 @@
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -11018,7 +11026,7 @@
         <v>12</v>
       </c>
       <c r="AC74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD74" t="n">
         <v>23</v>
@@ -11127,10 +11135,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R75" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -11403,24 +11411,24 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11520,22 +11528,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H78" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I78" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K78" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L78" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11547,45 +11555,45 @@
         <v>1.16</v>
       </c>
       <c r="P78" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="Q78" t="n">
         <v>1.5</v>
       </c>
       <c r="R78" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V78" t="n">
         <v>1.6</v>
       </c>
       <c r="W78" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X78" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AA78" t="n">
         <v>12</v>
       </c>
       <c r="AB78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC78" t="n">
         <v>9</v>
       </c>
       <c r="AD78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE78" t="n">
         <v>14.5</v>
@@ -11597,19 +11605,19 @@
         <v>9.25</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AI78" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ78" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK78" t="n">
         <v>175</v>
       </c>
       <c r="AL78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM78" t="n">
         <v>19</v>
@@ -11618,10 +11626,10 @@
         <v>10.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ78" t="n">
         <v>23</v>
@@ -11961,10 +11969,10 @@
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="O81" t="n">
         <v>1.11</v>
@@ -12108,10 +12116,10 @@
         <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P82" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q82" t="n">
         <v>1.44</v>
@@ -12261,16 +12269,16 @@
         <v>2.35</v>
       </c>
       <c r="S83" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T83" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U83" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V83" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W83" t="n">
         <v>1.29</v>
@@ -12370,28 +12378,28 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J84" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K84" t="n">
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12426,7 +12434,7 @@
         <v>1.83</v>
       </c>
       <c r="AA84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB84" t="n">
         <v>15</v>
@@ -12438,10 +12446,10 @@
         <v>34</v>
       </c>
       <c r="AE84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG84" t="n">
         <v>9</v>
@@ -12459,7 +12467,7 @@
         <v>700</v>
       </c>
       <c r="AL84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM84" t="n">
         <v>10</v>
@@ -12468,7 +12476,7 @@
         <v>9.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP84" t="n">
         <v>19</v>
@@ -12511,28 +12519,28 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J85" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
         <v>1.91</v>
       </c>
       <c r="L85" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O85" t="n">
         <v>1.5</v>
@@ -12561,13 +12569,13 @@
         <v>2.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB85" t="n">
         <v>19</v>
@@ -12576,7 +12584,7 @@
         <v>15</v>
       </c>
       <c r="AD85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE85" t="n">
         <v>41</v>
@@ -12659,31 +12667,31 @@
         <v>1.93</v>
       </c>
       <c r="H86" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J86" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="n">
         <v>2.15</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O86" t="n">
         <v>1.25</v>
       </c>
       <c r="P86" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q86" t="n">
         <v>1.75</v>
@@ -12694,10 +12702,10 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="V86" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W86" t="n">
         <v>1.37</v>
@@ -12709,10 +12717,10 @@
         <v>1.65</v>
       </c>
       <c r="Z86" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA86" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB86" t="n">
         <v>9.75</v>
@@ -12730,10 +12738,10 @@
         <v>23</v>
       </c>
       <c r="AG86" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI86" t="n">
         <v>13</v>
@@ -12745,19 +12753,19 @@
         <v>350</v>
       </c>
       <c r="AL86" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN86" t="n">
         <v>12</v>
       </c>
       <c r="AO86" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP86" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ86" t="n">
         <v>32</v>
@@ -12938,66 +12946,66 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H88" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I88" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K88" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L88" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P88" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="R88" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V88" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W88" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X88" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z88" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA88" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC88" t="n">
         <v>8.5</v>
@@ -13006,28 +13014,28 @@
         <v>15</v>
       </c>
       <c r="AE88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF88" t="n">
         <v>23</v>
       </c>
       <c r="AG88" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH88" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI88" t="n">
         <v>15</v>
       </c>
       <c r="AJ88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK88" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM88" t="n">
         <v>23</v>
@@ -13042,7 +13050,7 @@
         <v>34</v>
       </c>
       <c r="AQ88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr"/>
@@ -13082,19 +13090,19 @@
         <v>4.9</v>
       </c>
       <c r="H89" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I89" t="n">
         <v>1.75</v>
       </c>
       <c r="J89" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K89" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L89" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M89" t="n">
         <v>1.1</v>
@@ -13103,16 +13111,16 @@
         <v>6.6</v>
       </c>
       <c r="O89" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P89" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R89" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -13123,10 +13131,10 @@
         <v>1.18</v>
       </c>
       <c r="W89" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X89" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y89" t="n">
         <v>2.07</v>
@@ -13135,31 +13143,31 @@
         <v>1.6</v>
       </c>
       <c r="AA89" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB89" t="n">
         <v>27</v>
       </c>
       <c r="AC89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD89" t="n">
         <v>100</v>
       </c>
       <c r="AE89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF89" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG89" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ89" t="n">
         <v>120</v>
@@ -13168,22 +13176,22 @@
         <v>101</v>
       </c>
       <c r="AL89" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AM89" t="n">
         <v>7</v>
       </c>
       <c r="AN89" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO89" t="n">
         <v>13.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13220,10 +13228,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H90" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I90" t="n">
         <v>1.18</v>
@@ -13232,10 +13240,10 @@
         <v>10.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L90" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -13266,13 +13274,13 @@
         <v>2.57</v>
       </c>
       <c r="Y90" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AA90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB90" t="n">
         <v>120</v>
@@ -13281,19 +13289,19 @@
         <v>50</v>
       </c>
       <c r="AD90" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE90" t="n">
         <v>250</v>
       </c>
       <c r="AF90" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG90" t="n">
         <v>13</v>
       </c>
       <c r="AH90" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI90" t="n">
         <v>35</v>
@@ -13311,13 +13319,13 @@
         <v>5.4</v>
       </c>
       <c r="AN90" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AP90" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ90" t="n">
         <v>40</v>
@@ -13357,22 +13365,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J91" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
         <v>2.07</v>
       </c>
       <c r="L91" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -13380,7 +13388,7 @@
         <v>1.37</v>
       </c>
       <c r="P91" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q91" t="n">
         <v>2.07</v>
@@ -13391,16 +13399,16 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="V91" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W91" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X91" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="Y91" t="n">
         <v>1.85</v>
@@ -13409,16 +13417,16 @@
         <v>1.75</v>
       </c>
       <c r="AA91" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB91" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC91" t="n">
         <v>9.75</v>
       </c>
       <c r="AD91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE91" t="n">
         <v>22</v>
@@ -13430,7 +13438,7 @@
         <v>8.25</v>
       </c>
       <c r="AH91" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI91" t="n">
         <v>16</v>
@@ -13442,22 +13450,22 @@
         <v>800</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AM91" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN91" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP91" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ91" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.83</v>
@@ -707,7 +707,7 @@
         <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -722,10 +722,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.83</v>
@@ -746,16 +746,16 @@
         <v>3.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.65</v>
@@ -858,7 +858,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -867,22 +867,22 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -985,63 +985,63 @@
         <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" t="n">
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
@@ -1056,43 +1056,43 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1169,10 +1169,10 @@
         <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1199,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1220,7 +1220,7 @@
         <v>126</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1437,22 +1437,22 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U7" t="n">
         <v>5</v>
@@ -1491,43 +1491,43 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1568,67 +1568,67 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U8" t="n">
         <v>4.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="V8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>5</v>
       </c>
       <c r="AB8" t="n">
         <v>7.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>15</v>
@@ -1640,7 +1640,7 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>6.5</v>
@@ -1673,10 +1673,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="9">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.9</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1726,58 +1726,58 @@
         <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.14</v>
       </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6</v>
-      </c>
       <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
@@ -1786,19 +1786,19 @@
         <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1810,22 +1810,22 @@
         <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1872,7 @@
         <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
@@ -2048,7 +2048,7 @@
         <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Y11" t="n">
         <v>2.5</v>
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>2.63</v>
@@ -2157,13 +2157,13 @@
         <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.67</v>
@@ -2192,22 +2192,22 @@
         <v>2.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA12" t="n">
         <v>4.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2231,13 +2231,13 @@
         <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>67</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2448,22 +2448,22 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
@@ -2478,10 +2478,10 @@
         <v>3.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -2490,25 +2490,25 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
       </c>
       <c r="AE14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF14" t="n">
         <v>26</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>29</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2523,13 +2523,13 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>21</v>
@@ -2569,28 +2569,28 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="n">
         <v>4.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -2628,7 +2628,7 @@
         <v>10.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2643,13 +2643,13 @@
         <v>37</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
@@ -2658,19 +2658,19 @@
         <v>500</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AN15" t="n">
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>26</v>
@@ -2710,69 +2710,69 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB16" t="n">
         <v>9.25</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>16.5</v>
@@ -2781,40 +2781,40 @@
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL16" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>35</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>40</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2851,63 +2851,63 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="K17" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L17" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X17" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB17" t="n">
         <v>20</v>
@@ -2919,43 +2919,43 @@
         <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3415,22 +3415,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3445,18 +3445,18 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
         <v>1.36</v>
@@ -3474,19 +3474,19 @@
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -3504,19 +3504,19 @@
         <v>151</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>26</v>
@@ -3721,16 +3721,16 @@
         <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3987,28 +3987,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K25" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4017,28 +4017,28 @@
         <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y25" t="n">
         <v>1.7</v>
@@ -4047,7 +4047,7 @@
         <v>2.05</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="n">
         <v>8</v>
@@ -4056,7 +4056,7 @@
         <v>8.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4065,10 +4065,10 @@
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI25" t="n">
         <v>17</v>
@@ -4083,13 +4083,13 @@
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP25" t="n">
         <v>41</v>
@@ -4144,7 +4144,7 @@
         <v>2.05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L26" t="n">
         <v>5</v>
@@ -4188,7 +4188,7 @@
         <v>2.25</v>
       </c>
       <c r="AA26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB26" t="n">
         <v>9.5</v>
@@ -4227,7 +4227,7 @@
         <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4440,10 +4440,10 @@
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4452,10 +4452,10 @@
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
         <v>4.9</v>
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.2</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4609,10 +4609,10 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4621,37 +4621,37 @@
         <v>2.63</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
         <v>21</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4660,22 +4660,22 @@
         <v>251</v>
       </c>
       <c r="AL29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>15</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>34</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>41</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4715,34 +4715,34 @@
         <v>4.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J30" t="n">
         <v>4.65</v>
       </c>
       <c r="K30" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L30" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
         <v>1.75</v>
@@ -4750,19 +4750,19 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X30" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z30" t="n">
         <v>1.83</v>
@@ -4783,10 +4783,10 @@
         <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -4801,7 +4801,7 @@
         <v>900</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AM30" t="n">
         <v>8.75</v>
@@ -5135,48 +5135,48 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
         <v>1.95</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W33" t="n">
         <v>1.53</v>
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5227,25 +5227,25 @@
         <v>6.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN33" t="n">
         <v>10</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ33" t="n">
         <v>41</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="34">
@@ -5283,10 +5283,10 @@
         <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -5304,16 +5304,16 @@
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
         <v>2.03</v>
@@ -5322,22 +5322,22 @@
         <v>1.83</v>
       </c>
       <c r="U34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -5355,13 +5355,13 @@
         <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
         <v>12</v>
@@ -5370,10 +5370,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM34" t="n">
         <v>11</v>
@@ -5584,10 +5584,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -5710,45 +5710,45 @@
         <v>2.27</v>
       </c>
       <c r="H37" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L37" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M37" t="n">
         <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P37" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W37" t="n">
         <v>1.65</v>
@@ -5757,19 +5757,19 @@
         <v>2.1</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB37" t="n">
         <v>9.25</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>24</v>
@@ -5781,13 +5781,13 @@
         <v>50</v>
       </c>
       <c r="AG37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AH37" t="n">
         <v>5.4</v>
       </c>
       <c r="AI37" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
         <v>150</v>
@@ -5799,7 +5799,7 @@
         <v>7.7</v>
       </c>
       <c r="AM37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="n">
         <v>14</v>
@@ -5992,51 +5992,51 @@
         <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J39" t="n">
         <v>2.57</v>
       </c>
       <c r="K39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="V39" t="n">
         <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y39" t="n">
         <v>1.91</v>
@@ -6045,55 +6045,55 @@
         <v>1.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AC39" t="n">
         <v>8.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF39" t="n">
         <v>32</v>
       </c>
       <c r="AG39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH39" t="n">
         <v>5.8</v>
       </c>
-      <c r="AH39" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AI39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="n">
         <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO39" t="n">
         <v>75</v>
       </c>
       <c r="AP39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>50</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>55</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6130,22 +6130,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -6168,10 +6168,10 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -6186,16 +6186,16 @@
         <v>1.83</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE40" t="n">
         <v>23</v>
@@ -6231,7 +6231,7 @@
         <v>26</v>
       </c>
       <c r="AP40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ40" t="n">
         <v>34</v>
@@ -6271,32 +6271,32 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H41" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="K41" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="L41" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6304,15 +6304,15 @@
         <v>1.78</v>
       </c>
       <c r="V41" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AA41" t="n">
         <v>9</v>
@@ -6333,13 +6333,13 @@
         <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="n">
         <v>60</v>
@@ -6348,22 +6348,22 @@
         <v>300</v>
       </c>
       <c r="AL41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN41" t="n">
         <v>32</v>
       </c>
       <c r="AO41" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AP41" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AQ41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6400,19 +6400,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>2.75</v>
@@ -6421,13 +6421,13 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
         <v>2.25</v>
@@ -6450,13 +6450,13 @@
         <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB42" t="n">
         <v>19</v>
@@ -6474,13 +6474,13 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
       </c>
       <c r="AI42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ42" t="n">
         <v>51</v>
@@ -6541,28 +6541,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -6571,10 +6571,10 @@
         <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6630,7 +6630,7 @@
         <v>251</v>
       </c>
       <c r="AL43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM43" t="n">
         <v>17</v>
@@ -6720,10 +6720,10 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
@@ -6844,7 +6844,7 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O45" t="n">
         <v>1.25</v>
@@ -6853,10 +6853,10 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R45" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6964,16 +6964,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>1.91</v>
@@ -6982,42 +6982,42 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.48</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -7026,19 +7026,19 @@
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF46" t="n">
         <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH46" t="n">
         <v>5.5</v>
@@ -7050,13 +7050,13 @@
         <v>67</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN46" t="n">
         <v>12</v>
@@ -7071,10 +7071,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="47">
@@ -7276,10 +7276,10 @@
         <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R48" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S48" t="n">
         <v>2.05</v>
@@ -7397,13 +7397,13 @@
         <v>3.8</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>2.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L49" t="n">
         <v>4.5</v>
@@ -7441,10 +7441,10 @@
         <v>3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA49" t="n">
         <v>7.5</v>
@@ -7462,10 +7462,10 @@
         <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
         <v>7</v>
@@ -7477,7 +7477,7 @@
         <v>51</v>
       </c>
       <c r="AK49" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL49" t="n">
         <v>12</v>
@@ -7495,7 +7495,7 @@
         <v>34</v>
       </c>
       <c r="AQ49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7547,7 +7547,7 @@
         <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7562,18 +7562,18 @@
         <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W50" t="n">
         <v>1.36</v>
@@ -7673,22 +7673,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I51" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K51" t="n">
         <v>2.5</v>
       </c>
       <c r="L51" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7697,10 +7697,10 @@
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q51" t="n">
         <v>1.53</v>
@@ -7709,10 +7709,10 @@
         <v>2.4</v>
       </c>
       <c r="S51" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T51" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
         <v>2.25</v>
@@ -7733,7 +7733,7 @@
         <v>2.25</v>
       </c>
       <c r="AA51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB51" t="n">
         <v>9.5</v>
@@ -7754,10 +7754,10 @@
         <v>17</v>
       </c>
       <c r="AH51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
@@ -7769,7 +7769,7 @@
         <v>17</v>
       </c>
       <c r="AM51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
         <v>15</v>
@@ -7818,66 +7818,66 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J52" t="n">
         <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="V52" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
         <v>12</v>
@@ -7892,43 +7892,43 @@
         <v>41</v>
       </c>
       <c r="AG52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ52" t="n">
         <v>67</v>
       </c>
       <c r="AK52" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="n">
         <v>6.5</v>
       </c>
       <c r="AM52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="53">
@@ -7963,13 +7963,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H53" t="n">
         <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>2.05</v>
@@ -7981,10 +7981,10 @@
         <v>7.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
         <v>1.33</v>
@@ -8013,10 +8013,10 @@
         <v>2.63</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA53" t="n">
         <v>5.5</v>
@@ -8028,7 +8028,7 @@
         <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
         <v>13</v>
@@ -8037,7 +8037,7 @@
         <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH53" t="n">
         <v>8</v>
@@ -8058,7 +8058,7 @@
         <v>34</v>
       </c>
       <c r="AN53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO53" t="n">
         <v>81</v>
@@ -8067,7 +8067,7 @@
         <v>51</v>
       </c>
       <c r="AQ53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
@@ -8104,22 +8104,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I54" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L54" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M54" t="n">
         <v>1.11</v>
@@ -8160,25 +8160,25 @@
         <v>1.7</v>
       </c>
       <c r="AA54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH54" t="n">
         <v>5.5</v>
@@ -8193,28 +8193,28 @@
         <v>501</v>
       </c>
       <c r="AL54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="55">
@@ -8252,66 +8252,66 @@
         <v>2.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P55" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W55" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X55" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB55" t="n">
         <v>12</v>
       </c>
       <c r="AC55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD55" t="n">
         <v>29</v>
@@ -8323,7 +8323,7 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH55" t="n">
         <v>6</v>
@@ -8338,13 +8338,13 @@
         <v>501</v>
       </c>
       <c r="AL55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO55" t="n">
         <v>29</v>
@@ -8356,10 +8356,10 @@
         <v>41</v>
       </c>
       <c r="AR55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="56">
@@ -8394,54 +8394,54 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K56" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V56" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y56" t="n">
         <v>2</v>
@@ -8453,19 +8453,19 @@
         <v>7</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
       </c>
       <c r="AF56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG56" t="n">
         <v>13</v>
@@ -8486,19 +8486,19 @@
         <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8535,22 +8535,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J57" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8559,16 +8559,16 @@
         <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8600,7 +8600,7 @@
         <v>15</v>
       </c>
       <c r="AD57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE57" t="n">
         <v>41</v>
@@ -8618,10 +8618,10 @@
         <v>17</v>
       </c>
       <c r="AJ57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK57" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL57" t="n">
         <v>6</v>
@@ -9111,24 +9111,24 @@
         <v>7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P61" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R61" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V61" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W61" t="n">
         <v>1.57</v>
@@ -9194,10 +9194,10 @@
         <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="62">
@@ -9415,10 +9415,10 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W63" t="n">
         <v>1.57</v>
@@ -9484,10 +9484,10 @@
         <v>41</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="64">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -9552,18 +9552,18 @@
         <v>2.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R64" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W64" t="n">
         <v>1.57</v>
@@ -9629,10 +9629,10 @@
         <v>51</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="65">
@@ -9836,28 +9836,28 @@
         <v>15</v>
       </c>
       <c r="O66" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R66" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
@@ -9957,22 +9957,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J67" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K67" t="n">
         <v>2.6</v>
       </c>
       <c r="L67" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -10017,10 +10017,10 @@
         <v>2.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC67" t="n">
         <v>8.5</v>
@@ -10047,13 +10047,13 @@
         <v>41</v>
       </c>
       <c r="AK67" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL67" t="n">
         <v>21</v>
       </c>
       <c r="AM67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN67" t="n">
         <v>19</v>
@@ -10246,25 +10246,25 @@
         <v>3.5</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K69" t="n">
         <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O69" t="n">
         <v>1.17</v>
@@ -10273,37 +10273,37 @@
         <v>5</v>
       </c>
       <c r="Q69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V69" t="n">
         <v>1.53</v>
       </c>
-      <c r="R69" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U69" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X69" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB69" t="n">
         <v>21</v>
@@ -10321,25 +10321,25 @@
         <v>26</v>
       </c>
       <c r="AG69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI69" t="n">
         <v>11</v>
       </c>
       <c r="AJ69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK69" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM69" t="n">
         <v>12</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>13</v>
       </c>
       <c r="AN69" t="n">
         <v>9</v>
@@ -10351,7 +10351,7 @@
         <v>15</v>
       </c>
       <c r="AQ69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10388,22 +10388,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K70" t="n">
         <v>1.91</v>
       </c>
       <c r="L70" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70" t="n">
         <v>1.11</v>
@@ -10418,10 +10418,10 @@
         <v>2.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R70" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10447,13 +10447,13 @@
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC70" t="n">
         <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE70" t="n">
         <v>26</v>
@@ -10477,10 +10477,10 @@
         <v>101</v>
       </c>
       <c r="AL70" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN70" t="n">
         <v>11</v>
@@ -10489,16 +10489,16 @@
         <v>29</v>
       </c>
       <c r="AP70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ70" t="n">
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="71">
@@ -10533,28 +10533,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H71" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -10571,10 +10571,10 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10592,7 +10592,7 @@
         <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC71" t="n">
         <v>8.5</v>
@@ -10601,7 +10601,7 @@
         <v>11</v>
       </c>
       <c r="AE71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF71" t="n">
         <v>29</v>
@@ -10613,7 +10613,7 @@
         <v>7.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ71" t="n">
         <v>67</v>
@@ -10622,13 +10622,13 @@
         <v>1250</v>
       </c>
       <c r="AL71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM71" t="n">
         <v>29</v>
       </c>
       <c r="AN71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO71" t="n">
         <v>67</v>
@@ -10674,13 +10674,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10692,40 +10692,40 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V72" t="n">
         <v>1.3</v>
       </c>
-      <c r="P72" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S72" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W72" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X72" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y72" t="n">
         <v>2</v>
@@ -10734,7 +10734,7 @@
         <v>1.73</v>
       </c>
       <c r="AA72" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB72" t="n">
         <v>7</v>
@@ -10752,7 +10752,7 @@
         <v>29</v>
       </c>
       <c r="AG72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH72" t="n">
         <v>7</v>
@@ -10761,13 +10761,13 @@
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK72" t="n">
         <v>351</v>
       </c>
       <c r="AL72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM72" t="n">
         <v>29</v>
@@ -10779,13 +10779,13 @@
         <v>67</v>
       </c>
       <c r="AP72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ72" t="n">
         <v>51</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AS72" t="n">
         <v>2.6</v>
@@ -10853,10 +10853,10 @@
         <v>3.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -11531,19 +11531,19 @@
         <v>2.15</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J78" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="n">
         <v>2.32</v>
       </c>
       <c r="L78" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11561,7 +11561,7 @@
         <v>1.5</v>
       </c>
       <c r="R78" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11578,34 +11578,34 @@
         <v>3.35</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AA78" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC78" t="n">
         <v>9</v>
       </c>
       <c r="AD78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG78" t="n">
         <v>9.25</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI78" t="n">
         <v>11</v>
@@ -11617,22 +11617,22 @@
         <v>175</v>
       </c>
       <c r="AL78" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN78" t="n">
         <v>10.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ78" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>23</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11672,19 +11672,19 @@
         <v>1.32</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I79" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="J79" t="n">
         <v>1.72</v>
       </c>
       <c r="K79" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="L79" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -11693,45 +11693,45 @@
         <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P79" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="R79" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V79" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W79" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X79" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AA79" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB79" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD79" t="n">
         <v>9.75</v>
@@ -11743,13 +11743,13 @@
         <v>18.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH79" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>50</v>
@@ -11761,16 +11761,16 @@
         <v>32</v>
       </c>
       <c r="AM79" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO79" t="n">
         <v>200</v>
       </c>
       <c r="AP79" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AQ79" t="n">
         <v>50</v>
@@ -11837,7 +11837,7 @@
         <v>1.16</v>
       </c>
       <c r="P80" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q80" t="n">
         <v>1.5</v>
@@ -11848,10 +11848,10 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V80" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W80" t="n">
         <v>1.28</v>
@@ -11860,10 +11860,10 @@
         <v>3.35</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AA80" t="n">
         <v>13</v>
@@ -11896,13 +11896,13 @@
         <v>32</v>
       </c>
       <c r="AK80" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL80" t="n">
         <v>13</v>
       </c>
       <c r="AM80" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN80" t="n">
         <v>10</v>
@@ -11911,10 +11911,10 @@
         <v>32</v>
       </c>
       <c r="AP80" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11975,24 +11975,24 @@
         <v>12</v>
       </c>
       <c r="O81" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P81" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R81" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
         <v>1.22</v>
@@ -12040,7 +12040,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM81" t="n">
         <v>29</v>
@@ -12251,10 +12251,10 @@
         <v>4.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
         <v>1.17</v>
@@ -12287,13 +12287,13 @@
         <v>3.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB83" t="n">
         <v>9.5</v>
@@ -12326,13 +12326,13 @@
         <v>126</v>
       </c>
       <c r="AL83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM83" t="n">
         <v>29</v>
       </c>
       <c r="AN83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO83" t="n">
         <v>51</v>
@@ -12378,13 +12378,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J84" t="n">
         <v>3.75</v>
@@ -12393,13 +12393,13 @@
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12434,7 +12434,7 @@
         <v>1.83</v>
       </c>
       <c r="AA84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB84" t="n">
         <v>15</v>
@@ -12446,7 +12446,7 @@
         <v>34</v>
       </c>
       <c r="AE84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF84" t="n">
         <v>41</v>
@@ -12467,7 +12467,7 @@
         <v>700</v>
       </c>
       <c r="AL84" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM84" t="n">
         <v>10</v>
@@ -12949,19 +12949,19 @@
         <v>1.73</v>
       </c>
       <c r="H88" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I88" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K88" t="n">
         <v>2.38</v>
       </c>
-      <c r="K88" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L88" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
@@ -12976,10 +12976,10 @@
         <v>4.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -12990,22 +12990,22 @@
         <v>1.44</v>
       </c>
       <c r="W88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB88" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC88" t="n">
         <v>8.5</v>
@@ -13017,16 +13017,16 @@
         <v>13</v>
       </c>
       <c r="AF88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH88" t="n">
         <v>7.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ88" t="n">
         <v>41</v>
@@ -13041,13 +13041,13 @@
         <v>23</v>
       </c>
       <c r="AN88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO88" t="n">
         <v>41</v>
       </c>
       <c r="AP88" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ88" t="n">
         <v>34</v>
@@ -13228,22 +13228,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H90" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I90" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J90" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="K90" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="L90" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -13254,15 +13254,15 @@
         <v>3.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R90" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V90" t="n">
         <v>1.47</v>
@@ -13274,19 +13274,19 @@
         <v>2.57</v>
       </c>
       <c r="Y90" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AA90" t="n">
         <v>32</v>
       </c>
       <c r="AB90" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AC90" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD90" t="n">
         <v>600</v>
@@ -13295,16 +13295,16 @@
         <v>250</v>
       </c>
       <c r="AF90" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG90" t="n">
         <v>13</v>
       </c>
       <c r="AH90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ90" t="n">
         <v>200</v>
@@ -13313,19 +13313,19 @@
         <v>101</v>
       </c>
       <c r="AL90" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AM90" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AN90" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AP90" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ90" t="n">
         <v>40</v>
@@ -13365,36 +13365,36 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J91" t="n">
         <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L91" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P91" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R91" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -13411,46 +13411,46 @@
         <v>2.47</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AA91" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB91" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE91" t="n">
         <v>22</v>
       </c>
       <c r="AF91" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG91" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AH91" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI91" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ91" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK91" t="n">
         <v>800</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AM91" t="n">
         <v>13</v>
@@ -13459,10 +13459,10 @@
         <v>10.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP91" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ91" t="n">
         <v>40</v>
@@ -13502,96 +13502,96 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H92" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I92" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="J92" t="n">
         <v>1.7</v>
       </c>
       <c r="K92" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="L92" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P92" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R92" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V92" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="W92" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X92" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AA92" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD92" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>8.25</v>
       </c>
       <c r="AE92" t="n">
         <v>10.25</v>
       </c>
       <c r="AF92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG92" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ92" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK92" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL92" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM92" t="n">
         <v>65</v>
@@ -13603,10 +13603,10 @@
         <v>250</v>
       </c>
       <c r="AP92" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AQ92" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
@@ -13643,48 +13643,48 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="H93" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I93" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J93" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="K93" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P93" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R93" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V93" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W93" t="n">
         <v>1.26</v>
@@ -13693,61 +13693,61 @@
         <v>3.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AA93" t="n">
         <v>32</v>
       </c>
       <c r="AB93" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AC93" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD93" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE93" t="n">
+        <v>175</v>
+      </c>
+      <c r="AF93" t="n">
         <v>150</v>
       </c>
-      <c r="AF93" t="n">
-        <v>110</v>
-      </c>
       <c r="AG93" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH93" t="n">
         <v>13</v>
       </c>
       <c r="AI93" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ93" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK93" t="n">
         <v>900</v>
       </c>
       <c r="AL93" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AM93" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AN93" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO93" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AQ93" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -710,22 +710,22 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.83</v>
@@ -734,10 +734,10 @@
         <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
@@ -855,34 +855,34 @@
         <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1012,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1032,13 +1032,13 @@
         <v>2.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
         <v>7.5</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1068,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1157,7 +1157,7 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
         <v>2.2</v>
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1302,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1322,31 +1322,31 @@
         <v>2.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1361,13 +1361,13 @@
         <v>351</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>2.87</v>
       </c>
       <c r="K7" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1443,22 +1443,22 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
         <v>1.57</v>
@@ -1467,10 +1467,10 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1497,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
@@ -1509,7 +1509,7 @@
         <v>8.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1524,10 +1524,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1592,16 +1592,16 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U8" t="n">
         <v>4.5</v>
@@ -1673,10 +1673,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9">
@@ -1711,64 +1711,64 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="U9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1780,31 +1780,31 @@
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK9" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AL9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM9" t="n">
         <v>11</v>
@@ -1822,10 +1822,10 @@
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10">
@@ -1872,16 +1872,16 @@
         <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.83</v>
@@ -1904,10 +1904,10 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="X10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Y10" t="n">
         <v>2.75</v>
@@ -1925,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="n">
         <v>41</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.2</v>
@@ -2019,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2045,16 +2045,16 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA11" t="n">
         <v>5</v>
@@ -2075,7 +2075,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2105,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2163,7 +2163,7 @@
         <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.67</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="K16" t="n">
         <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2734,24 +2734,24 @@
         <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
         <v>1.39</v>
@@ -2766,22 +2766,22 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC16" t="n">
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
         <v>7.6</v>
@@ -2799,19 +2799,19 @@
         <v>450</v>
       </c>
       <c r="AL16" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="n">
         <v>35</v>
@@ -2851,54 +2851,54 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="K17" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L17" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="Y17" t="n">
         <v>1.75</v>
@@ -2907,28 +2907,28 @@
         <v>1.98</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -2937,25 +2937,25 @@
         <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN17" t="n">
         <v>8.25</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.85</v>
@@ -3001,13 +3001,13 @@
         <v>1.65</v>
       </c>
       <c r="J18" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
         <v>2.22</v>
       </c>
       <c r="L18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3042,28 +3042,28 @@
         <v>2.82</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG18" t="n">
         <v>7.9</v>
@@ -3078,22 +3078,22 @@
         <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL18" t="n">
         <v>7.3</v>
       </c>
       <c r="AM18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AN18" t="n">
         <v>8</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>8.25</v>
       </c>
       <c r="AO18" t="n">
         <v>12.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>25</v>
@@ -3433,13 +3433,13 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>3.75</v>
@@ -3456,7 +3456,7 @@
         <v>3.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
         <v>1.36</v>
@@ -3574,13 +3574,13 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>3.75</v>
@@ -3594,7 +3594,7 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>4.5</v>
@@ -3709,13 +3709,13 @@
         <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>13</v>
@@ -3724,13 +3724,13 @@
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3738,22 +3738,22 @@
         <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB23" t="n">
         <v>8.5</v>
@@ -3771,7 +3771,7 @@
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>7.5</v>
@@ -3838,31 +3838,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
@@ -3883,7 +3883,7 @@
         <v>3.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W24" t="n">
         <v>1.44</v>
@@ -3898,16 +3898,16 @@
         <v>1.83</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -3937,16 +3937,16 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP24" t="n">
         <v>21</v>
       </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>1.58</v>
@@ -4132,37 +4132,37 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L26" t="n">
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
         <v>19</v>
       </c>
       <c r="O26" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P26" t="n">
         <v>5.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R26" t="n">
         <v>2.6</v>
@@ -4170,10 +4170,10 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="W26" t="n">
         <v>1.25</v>
@@ -4197,7 +4197,7 @@
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
@@ -4212,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -4221,10 +4221,10 @@
         <v>126</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
         <v>17</v>
@@ -4233,7 +4233,7 @@
         <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
         <v>34</v>
@@ -4273,52 +4273,52 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
         <v>1.62</v>
@@ -4330,34 +4330,34 @@
         <v>2.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>81</v>
@@ -4366,28 +4366,28 @@
         <v>1250</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28">
@@ -4428,34 +4428,34 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L28" t="n">
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P28" t="n">
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S28" t="n">
         <v>4.9</v>
@@ -4467,7 +4467,7 @@
         <v>6.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4476,19 +4476,19 @@
         <v>2.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
         <v>34</v>
@@ -4509,7 +4509,7 @@
         <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="n">
         <v>101</v>
@@ -4521,7 +4521,7 @@
         <v>11</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>26</v>
@@ -4589,22 +4589,22 @@
         <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
         <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
         <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4612,7 +4612,7 @@
         <v>3.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4621,10 +4621,10 @@
         <v>2.63</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA29" t="n">
         <v>8</v>
@@ -4712,54 +4712,54 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="J30" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L30" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Y30" t="n">
         <v>1.88</v>
@@ -4768,55 +4768,55 @@
         <v>1.83</v>
       </c>
       <c r="AA30" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AE30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AI30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
         <v>90</v>
       </c>
       <c r="AK30" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AM30" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AN30" t="n">
         <v>8.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -5135,13 +5135,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -5191,7 +5191,7 @@
         <v>1.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -5224,7 +5224,7 @@
         <v>451</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM33" t="n">
         <v>11</v>
@@ -5280,28 +5280,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
@@ -5352,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5367,13 +5367,13 @@
         <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK34" t="n">
         <v>126</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM34" t="n">
         <v>11</v>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -5443,30 +5443,30 @@
         <v>2.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
         <v>1.36</v>
@@ -5475,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA35" t="n">
         <v>12</v>
@@ -5499,7 +5499,7 @@
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>7.5</v>
@@ -5707,13 +5707,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
         <v>3.05</v>
@@ -5722,10 +5722,10 @@
         <v>1.75</v>
       </c>
       <c r="L37" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N37" t="n">
         <v>4.5</v>
@@ -5734,7 +5734,7 @@
         <v>1.65</v>
       </c>
       <c r="P37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q37" t="n">
         <v>2.9</v>
@@ -5763,19 +5763,19 @@
         <v>1.57</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF37" t="n">
         <v>50</v>
@@ -5784,34 +5784,34 @@
         <v>4.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI37" t="n">
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK37" t="n">
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AM37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO37" t="n">
         <v>70</v>
       </c>
       <c r="AP37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -6148,13 +6148,13 @@
         <v>3.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
         <v>3.2</v>
@@ -6171,7 +6171,7 @@
         <v>3.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -6271,99 +6271,99 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="H41" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I41" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J41" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="K41" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V41" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB41" t="n">
         <v>6.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE41" t="n">
         <v>8.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI41" t="n">
         <v>21</v>
       </c>
-      <c r="AH41" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AO41" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AP41" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6400,31 +6400,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
         <v>7.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
         <v>2.75</v>
@@ -6441,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W42" t="n">
         <v>1.5</v>
@@ -6450,19 +6450,19 @@
         <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA42" t="n">
         <v>9.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
         <v>41</v>
@@ -6495,10 +6495,10 @@
         <v>9</v>
       </c>
       <c r="AN42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP42" t="n">
         <v>19</v>
@@ -6559,22 +6559,22 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6582,7 +6582,7 @@
         <v>3.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W43" t="n">
         <v>1.44</v>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
@@ -6732,10 +6732,10 @@
         <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA44" t="n">
         <v>6.5</v>
@@ -6823,16 +6823,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
@@ -6841,10 +6841,10 @@
         <v>4.33</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
         <v>1.25</v>
@@ -6853,39 +6853,39 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z45" t="n">
         <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
         <v>9.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD45" t="n">
         <v>17</v>
@@ -6894,10 +6894,10 @@
         <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH45" t="n">
         <v>7</v>
@@ -6906,16 +6906,16 @@
         <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK45" t="n">
         <v>201</v>
       </c>
       <c r="AL45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN45" t="n">
         <v>13</v>
@@ -6982,10 +6982,10 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.44</v>
@@ -7017,7 +7017,7 @@
         <v>2</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -7071,10 +7071,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="47">
@@ -7246,19 +7246,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J48" t="n">
         <v>2.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L48" t="n">
         <v>4</v>
@@ -7270,16 +7270,16 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S48" t="n">
         <v>2.05</v>
@@ -7288,28 +7288,28 @@
         <v>1.8</v>
       </c>
       <c r="U48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
         <v>8.5</v>
@@ -7345,7 +7345,7 @@
         <v>21</v>
       </c>
       <c r="AN48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO48" t="n">
         <v>41</v>
@@ -7391,22 +7391,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H49" t="n">
         <v>3.8</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
         <v>2.4</v>
       </c>
       <c r="K49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
@@ -7441,16 +7441,16 @@
         <v>3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA49" t="n">
         <v>7.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
@@ -7462,13 +7462,13 @@
         <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI49" t="n">
         <v>15</v>
@@ -7477,7 +7477,7 @@
         <v>51</v>
       </c>
       <c r="AK49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL49" t="n">
         <v>12</v>
@@ -7486,7 +7486,7 @@
         <v>21</v>
       </c>
       <c r="AN49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
@@ -7495,7 +7495,7 @@
         <v>34</v>
       </c>
       <c r="AQ49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7673,13 +7673,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J51" t="n">
         <v>2.1</v>
@@ -7688,7 +7688,7 @@
         <v>2.5</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7697,10 +7697,10 @@
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>1.53</v>
@@ -7709,10 +7709,10 @@
         <v>2.4</v>
       </c>
       <c r="S51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T51" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U51" t="n">
         <v>2.25</v>
@@ -7733,7 +7733,7 @@
         <v>2.25</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB51" t="n">
         <v>9.5</v>
@@ -7757,7 +7757,7 @@
         <v>8.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J52" t="n">
         <v>3.75</v>
@@ -7833,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
@@ -7868,25 +7868,25 @@
         <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA52" t="n">
         <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
         <v>34</v>
       </c>
       <c r="AE52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF52" t="n">
         <v>41</v>
@@ -7895,28 +7895,28 @@
         <v>8</v>
       </c>
       <c r="AH52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
       </c>
       <c r="AJ52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK52" t="n">
         <v>401</v>
       </c>
       <c r="AL52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN52" t="n">
         <v>10</v>
       </c>
-      <c r="AN52" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AO52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="n">
         <v>21</v>
@@ -7963,54 +7963,54 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I53" t="n">
         <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L53" t="n">
         <v>7.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R53" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y53" t="n">
         <v>2.2</v>
@@ -8019,13 +8019,13 @@
         <v>1.62</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB53" t="n">
         <v>6</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD53" t="n">
         <v>9.5</v>
@@ -8037,10 +8037,10 @@
         <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI53" t="n">
         <v>23</v>
@@ -8122,13 +8122,13 @@
         <v>3.4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P54" t="n">
         <v>2.5</v>
@@ -8145,7 +8145,7 @@
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
         <v>1.57</v>
@@ -8267,22 +8267,22 @@
         <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P55" t="n">
         <v>2.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8290,7 +8290,7 @@
         <v>6.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W55" t="n">
         <v>1.67</v>
@@ -8412,13 +8412,13 @@
         <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N56" t="n">
         <v>15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -8435,7 +8435,7 @@
         <v>2.75</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W56" t="n">
         <v>1.33</v>
@@ -8535,13 +8535,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J57" t="n">
         <v>5</v>
@@ -8550,33 +8550,33 @@
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P57" t="n">
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -8585,13 +8585,13 @@
         <v>2.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB57" t="n">
         <v>21</v>
@@ -8606,7 +8606,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG57" t="n">
         <v>8</v>
@@ -8615,7 +8615,7 @@
         <v>6.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
         <v>67</v>
@@ -8627,7 +8627,7 @@
         <v>6</v>
       </c>
       <c r="AM57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN57" t="n">
         <v>9</v>
@@ -8953,16 +8953,16 @@
         <v>2.72</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K60" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L60" t="n">
         <v>3.05</v>
@@ -8970,24 +8970,24 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="V60" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W60" t="n">
         <v>1.42</v>
@@ -8996,43 +8996,43 @@
         <v>2.47</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB60" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD60" t="n">
         <v>32</v>
       </c>
       <c r="AE60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK60" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL60" t="n">
         <v>7.9</v>
@@ -9047,10 +9047,10 @@
         <v>28</v>
       </c>
       <c r="AP60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9090,10 +9090,10 @@
         <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>2.75</v>
@@ -9102,13 +9102,13 @@
         <v>1.91</v>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.57</v>
@@ -9131,25 +9131,25 @@
         <v>1.13</v>
       </c>
       <c r="W61" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB61" t="n">
         <v>7.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD61" t="n">
         <v>15</v>
@@ -9161,7 +9161,7 @@
         <v>41</v>
       </c>
       <c r="AG61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH61" t="n">
         <v>6.5</v>
@@ -9170,19 +9170,19 @@
         <v>23</v>
       </c>
       <c r="AJ61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="n">
         <v>101</v>
       </c>
       <c r="AL61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO61" t="n">
         <v>51</v>
@@ -9194,10 +9194,10 @@
         <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="62">
@@ -9232,16 +9232,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
         <v>2</v>
@@ -9256,16 +9256,16 @@
         <v>8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -9291,13 +9291,13 @@
         <v>5</v>
       </c>
       <c r="AB62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE62" t="n">
         <v>17</v>
@@ -9306,7 +9306,7 @@
         <v>41</v>
       </c>
       <c r="AG62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH62" t="n">
         <v>7.5</v>
@@ -9315,34 +9315,34 @@
         <v>23</v>
       </c>
       <c r="AJ62" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="n">
         <v>101</v>
       </c>
       <c r="AL62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO62" t="n">
         <v>51</v>
       </c>
       <c r="AP62" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ62" t="n">
         <v>51</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="63">
@@ -9377,22 +9377,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>2.9</v>
       </c>
       <c r="I63" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K63" t="n">
         <v>1.91</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M63" t="n">
         <v>1.11</v>
@@ -9415,10 +9415,10 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W63" t="n">
         <v>1.57</v>
@@ -9466,16 +9466,16 @@
         <v>900</v>
       </c>
       <c r="AL63" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN63" t="n">
         <v>10</v>
       </c>
       <c r="AO63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP63" t="n">
         <v>21</v>
@@ -9484,10 +9484,10 @@
         <v>41</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="64">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>3.1</v>
@@ -9531,10 +9531,10 @@
         <v>3.6</v>
       </c>
       <c r="J64" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L64" t="n">
         <v>4.5</v>
@@ -9546,16 +9546,16 @@
         <v>7</v>
       </c>
       <c r="O64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P64" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R64" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -9566,16 +9566,16 @@
         <v>1.14</v>
       </c>
       <c r="W64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z64" t="n">
         <v>1.57</v>
-      </c>
-      <c r="X64" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1.62</v>
       </c>
       <c r="AA64" t="n">
         <v>5.5</v>
@@ -9584,7 +9584,7 @@
         <v>8.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD64" t="n">
         <v>19</v>
@@ -9602,7 +9602,7 @@
         <v>6.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ64" t="n">
         <v>81</v>
@@ -9617,7 +9617,7 @@
         <v>17</v>
       </c>
       <c r="AN64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO64" t="n">
         <v>41</v>
@@ -9629,10 +9629,10 @@
         <v>51</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="65">
@@ -9667,16 +9667,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H65" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K65" t="n">
         <v>2.5</v>
@@ -9688,7 +9688,7 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
@@ -9721,13 +9721,13 @@
         <v>3.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
         <v>7.5</v>
@@ -9736,7 +9736,7 @@
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
@@ -9748,16 +9748,16 @@
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL65" t="n">
         <v>21</v>
@@ -9775,7 +9775,7 @@
         <v>51</v>
       </c>
       <c r="AQ65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H66" t="n">
         <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J66" t="n">
         <v>3.1</v>
       </c>
       <c r="K66" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9872,13 +9872,13 @@
         <v>2.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD66" t="n">
         <v>26</v>
@@ -9896,7 +9896,7 @@
         <v>6.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ66" t="n">
         <v>34</v>
@@ -10132,10 +10132,10 @@
         <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R68" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10267,28 +10267,28 @@
         <v>15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R69" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S69" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T69" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W69" t="n">
         <v>1.29</v>
@@ -10391,60 +10391,60 @@
         <v>2.7</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
         <v>2.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R70" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.48</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W70" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X70" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB70" t="n">
         <v>12</v>
@@ -10462,13 +10462,13 @@
         <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
       </c>
       <c r="AI70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ70" t="n">
         <v>67</v>
@@ -10477,7 +10477,7 @@
         <v>101</v>
       </c>
       <c r="AL70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM70" t="n">
         <v>12</v>
@@ -10495,10 +10495,10 @@
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -10533,13 +10533,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H71" t="n">
         <v>3.9</v>
       </c>
       <c r="I71" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J71" t="n">
         <v>2.1</v>
@@ -10551,22 +10551,22 @@
         <v>6.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P71" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R71" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10586,7 +10586,7 @@
         <v>2.1</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
@@ -10674,13 +10674,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I72" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10692,22 +10692,22 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R72" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="n">
         <v>2.75</v>
@@ -10716,10 +10716,10 @@
         <v>1.46</v>
       </c>
       <c r="U72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V72" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W72" t="n">
         <v>1.4</v>
@@ -10731,7 +10731,7 @@
         <v>2</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA72" t="n">
         <v>6.5</v>
@@ -10755,7 +10755,7 @@
         <v>9.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
@@ -10823,16 +10823,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J73" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
@@ -10853,10 +10853,10 @@
         <v>3.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R73" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10873,7 +10873,7 @@
         <v>2.75</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z73" t="n">
         <v>2</v>
@@ -11014,7 +11014,7 @@
         <v>2.75</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z74" t="n">
         <v>2</v>
@@ -11270,24 +11270,24 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W76" t="n">
         <v>1.4</v>
@@ -11528,66 +11528,66 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I78" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="K78" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M78" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="O78" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P78" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R78" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="V78" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="W78" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="X78" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Z78" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="AA78" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC78" t="n">
         <v>9</v>
@@ -11596,34 +11596,34 @@
         <v>22</v>
       </c>
       <c r="AE78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AI78" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AK78" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL78" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AM78" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN78" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO78" t="n">
         <v>37</v>
@@ -11632,7 +11632,7 @@
         <v>21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11669,22 +11669,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H79" t="n">
         <v>5.2</v>
       </c>
       <c r="I79" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="J79" t="n">
         <v>1.72</v>
       </c>
       <c r="K79" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="L79" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -11693,42 +11693,42 @@
         <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P79" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R79" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V79" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W79" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X79" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AA79" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB79" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC79" t="n">
         <v>8.75</v>
@@ -11740,25 +11740,25 @@
         <v>9.75</v>
       </c>
       <c r="AF79" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG79" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH79" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI79" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK79" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM79" t="n">
         <v>65</v>
@@ -11770,10 +11770,10 @@
         <v>200</v>
       </c>
       <c r="AP79" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11819,10 +11819,10 @@
         <v>2.62</v>
       </c>
       <c r="J80" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="K80" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L80" t="n">
         <v>3.1</v>
@@ -11831,90 +11831,90 @@
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O80" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P80" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R80" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V80" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="W80" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X80" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM80" t="n">
         <v>16</v>
       </c>
-      <c r="AC80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AN80" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP80" t="n">
         <v>19</v>
       </c>
       <c r="AQ80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11951,7 +11951,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H81" t="n">
         <v>4.1</v>
@@ -11963,19 +11963,19 @@
         <v>2.1</v>
       </c>
       <c r="K81" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L81" t="n">
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N81" t="n">
         <v>12</v>
       </c>
       <c r="O81" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P81" t="n">
         <v>6.5</v>
@@ -11989,22 +11989,22 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W81" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X81" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA81" t="n">
         <v>13</v>
@@ -12028,7 +12028,7 @@
         <v>23</v>
       </c>
       <c r="AH81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI81" t="n">
         <v>12</v>
@@ -12046,7 +12046,7 @@
         <v>29</v>
       </c>
       <c r="AN81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO81" t="n">
         <v>51</v>
@@ -12055,7 +12055,7 @@
         <v>29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12110,13 +12110,13 @@
         <v>1.62</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
         <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -12133,7 +12133,7 @@
         <v>2.1</v>
       </c>
       <c r="V82" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W82" t="n">
         <v>1.25</v>
@@ -12251,13 +12251,13 @@
         <v>4.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="N83" t="n">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P83" t="n">
         <v>4.5</v>
@@ -12278,7 +12278,7 @@
         <v>2.25</v>
       </c>
       <c r="V83" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W83" t="n">
         <v>1.29</v>
@@ -12378,31 +12378,31 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P84" t="n">
         <v>3.25</v>
@@ -12419,7 +12419,7 @@
         <v>3.75</v>
       </c>
       <c r="V84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W84" t="n">
         <v>1.44</v>
@@ -12434,19 +12434,19 @@
         <v>1.83</v>
       </c>
       <c r="AA84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD84" t="n">
         <v>34</v>
       </c>
       <c r="AE84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF84" t="n">
         <v>41</v>
@@ -12458,7 +12458,7 @@
         <v>6.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ84" t="n">
         <v>51</v>
@@ -12467,10 +12467,10 @@
         <v>700</v>
       </c>
       <c r="AL84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN84" t="n">
         <v>9.5</v>
@@ -12664,22 +12664,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="H86" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J86" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K86" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
@@ -12697,21 +12697,21 @@
         <v>1.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="V86" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W86" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X86" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Y86" t="n">
         <v>1.65</v>
@@ -12723,16 +12723,16 @@
         <v>8.25</v>
       </c>
       <c r="AB86" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF86" t="n">
         <v>23</v>
@@ -12741,10 +12741,10 @@
         <v>7.8</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ86" t="n">
         <v>50</v>
@@ -12753,22 +12753,22 @@
         <v>350</v>
       </c>
       <c r="AL86" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN86" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AO86" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AP86" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AQ86" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
@@ -12805,66 +12805,66 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H87" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="I87" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
         <v>1.85</v>
       </c>
       <c r="K87" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L87" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P87" t="n">
-        <v>4.4</v>
+        <v>4.85</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="R87" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V87" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="W87" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X87" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AA87" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC87" t="n">
         <v>8.25</v>
@@ -12873,31 +12873,31 @@
         <v>10</v>
       </c>
       <c r="AE87" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF87" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AI87" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AK87" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AL87" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM87" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN87" t="n">
         <v>21</v>
@@ -12909,7 +12909,7 @@
         <v>65</v>
       </c>
       <c r="AQ87" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
         <v>3.15</v>
@@ -13096,13 +13096,13 @@
         <v>1.75</v>
       </c>
       <c r="J89" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K89" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L89" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M89" t="n">
         <v>1.1</v>
@@ -13111,10 +13111,10 @@
         <v>6.6</v>
       </c>
       <c r="O89" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P89" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="Q89" t="n">
         <v>2.25</v>
@@ -13131,10 +13131,10 @@
         <v>1.18</v>
       </c>
       <c r="W89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X89" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Y89" t="n">
         <v>2.07</v>
@@ -13143,28 +13143,28 @@
         <v>1.6</v>
       </c>
       <c r="AA89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC89" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD89" t="n">
         <v>100</v>
       </c>
       <c r="AE89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF89" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG89" t="n">
         <v>6.9</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI89" t="n">
         <v>19.5</v>
@@ -13182,16 +13182,16 @@
         <v>7</v>
       </c>
       <c r="AN89" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO89" t="n">
         <v>13.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13228,44 +13228,44 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="H90" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I90" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="J90" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="L90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P90" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R90" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="V90" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W90" t="n">
         <v>1.39</v>
@@ -13274,16 +13274,16 @@
         <v>2.57</v>
       </c>
       <c r="Y90" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB90" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AC90" t="n">
         <v>45</v>
@@ -13298,10 +13298,10 @@
         <v>175</v>
       </c>
       <c r="AG90" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AH90" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI90" t="n">
         <v>32</v>
@@ -13313,16 +13313,16 @@
         <v>101</v>
       </c>
       <c r="AL90" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AM90" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AP90" t="n">
         <v>11.5</v>
@@ -13365,22 +13365,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K91" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -13411,58 +13411,58 @@
         <v>2.47</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z91" t="n">
         <v>1.78</v>
       </c>
       <c r="AA91" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB91" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD91" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF91" t="n">
         <v>35</v>
       </c>
       <c r="AG91" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH91" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AI91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ91" t="n">
         <v>80</v>
       </c>
       <c r="AK91" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AM91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN91" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO91" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP91" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ91" t="n">
         <v>40</v>
@@ -13502,40 +13502,40 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H92" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I92" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="J92" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K92" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="L92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O92" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P92" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q92" t="n">
         <v>1.45</v>
       </c>
       <c r="R92" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -13549,64 +13549,64 @@
         <v>1.25</v>
       </c>
       <c r="X92" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AA92" t="n">
         <v>9.25</v>
       </c>
       <c r="AB92" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AC92" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD92" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE92" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG92" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH92" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ92" t="n">
         <v>80</v>
       </c>
       <c r="AK92" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL92" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM92" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN92" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO92" t="n">
         <v>250</v>
       </c>
       <c r="AP92" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AQ92" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
@@ -13643,72 +13643,72 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H93" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="I93" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="J93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K93" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="L93" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P93" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R93" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="V93" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="W93" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X93" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA93" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB93" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC93" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD93" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE93" t="n">
         <v>175</v>
@@ -13717,10 +13717,10 @@
         <v>150</v>
       </c>
       <c r="AG93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH93" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AI93" t="n">
         <v>30</v>
@@ -13732,19 +13732,19 @@
         <v>900</v>
       </c>
       <c r="AL93" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AM93" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AN93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AQ93" t="n">
         <v>35</v>
@@ -13787,89 +13787,93 @@
         <v>1.25</v>
       </c>
       <c r="H94" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I94" t="n">
         <v>9.5</v>
       </c>
       <c r="J94" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K94" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="L94" t="n">
         <v>7.3</v>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N94" t="n">
+        <v>10</v>
+      </c>
       <c r="O94" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P94" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R94" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="W94" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X94" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Z94" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AA94" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AB94" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC94" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD94" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE94" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF94" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI94" t="n">
         <v>21</v>
       </c>
-      <c r="AG94" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ94" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK94" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL94" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM94" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.83</v>
@@ -734,10 +734,10 @@
         <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
@@ -746,10 +746,10 @@
         <v>3.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>9.5</v>
@@ -761,10 +761,10 @@
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>10</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -779,19 +779,19 @@
         <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>151</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>81</v>
@@ -840,10 +840,10 @@
         <v>4.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J3" t="n">
         <v>4.75</v>
@@ -852,25 +852,25 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.9</v>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.57</v>
@@ -897,10 +897,10 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1012,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1068,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1157,7 +1157,7 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
         <v>2.2</v>
@@ -1302,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1413,22 +1413,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1446,7 +1446,7 @@
         <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
@@ -1506,10 +1506,10 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1524,10 +1524,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -1562,22 +1562,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1595,7 +1595,7 @@
         <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>3.85</v>
@@ -1634,16 +1634,16 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1714,7 +1714,7 @@
         <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>2.63</v>
@@ -1774,16 +1774,16 @@
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>67</v>
@@ -1904,10 +1904,10 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y10" t="n">
         <v>2.75</v>
@@ -2022,7 +2022,7 @@
         <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2045,7 +2045,7 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
         <v>2.05</v>
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.12</v>
       </c>
       <c r="L15" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2607,16 +2607,16 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Y15" t="n">
         <v>1.75</v>
@@ -2625,22 +2625,22 @@
         <v>1.98</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="n">
         <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
         <v>7.5</v>
@@ -2664,13 +2664,13 @@
         <v>9.25</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>26</v>
@@ -2710,37 +2710,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.55</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.8</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
         <v>1.87</v>
@@ -2754,43 +2754,43 @@
         <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>60</v>
@@ -2799,22 +2799,22 @@
         <v>450</v>
       </c>
       <c r="AL16" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2851,48 +2851,48 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="K17" t="n">
         <v>2.22</v>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
@@ -2901,19 +2901,19 @@
         <v>2.85</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA17" t="n">
         <v>12.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
         <v>65</v>
@@ -2922,40 +2922,40 @@
         <v>37</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK17" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AM17" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN17" t="n">
         <v>8.25</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3004,7 +3004,7 @@
         <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
         <v>2.2</v>
@@ -3013,39 +3013,39 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AA18" t="n">
         <v>13.5</v>
@@ -3066,7 +3066,7 @@
         <v>50</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH18" t="n">
         <v>7.5</v>
@@ -3075,28 +3075,28 @@
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
         <v>600</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
@@ -3433,36 +3433,36 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y21" t="n">
         <v>1.67</v>
@@ -3471,7 +3471,7 @@
         <v>2.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3483,13 +3483,13 @@
         <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3504,7 +3504,7 @@
         <v>151</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM21" t="n">
         <v>13</v>
@@ -3556,16 +3556,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -3574,13 +3574,13 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
         <v>3.75</v>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3615,19 +3615,19 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
         <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -3654,7 +3654,7 @@
         <v>9.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
@@ -3697,66 +3697,66 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V23" t="n">
         <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB23" t="n">
         <v>8</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.5</v>
@@ -3768,28 +3768,28 @@
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>7.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>51</v>
       </c>
       <c r="AK23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="n">
         <v>13</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>15</v>
@@ -3798,7 +3798,7 @@
         <v>51</v>
       </c>
       <c r="AP23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -3844,7 +3844,7 @@
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3856,13 +3856,13 @@
         <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
         <v>8.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
@@ -3874,16 +3874,16 @@
         <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U24" t="n">
         <v>3.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
         <v>1.44</v>
@@ -3892,13 +3892,13 @@
         <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -3937,7 +3937,7 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
@@ -3949,10 +3949,10 @@
         <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="25">
@@ -4273,52 +4273,52 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
         <v>1.62</v>
@@ -4327,34 +4327,34 @@
         <v>2.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
         <v>13</v>
       </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -4366,28 +4366,28 @@
         <v>1250</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN27" t="n">
         <v>10</v>
       </c>
-      <c r="AN27" t="n">
-        <v>11</v>
-      </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="28">
@@ -4440,22 +4440,22 @@
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
         <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
         <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
         <v>4.9</v>
@@ -4467,7 +4467,7 @@
         <v>6.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4571,13 +4571,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
@@ -4589,22 +4589,22 @@
         <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R29" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4612,7 +4612,7 @@
         <v>3.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
         <v>1.44</v>
@@ -4663,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -4853,84 +4853,84 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X31" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB31" t="n">
         <v>8.25</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -4948,16 +4948,16 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
         <v>90</v>
       </c>
       <c r="AP31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4997,19 +4997,19 @@
         <v>1.57</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
         <v>2.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L32" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -5024,33 +5024,33 @@
         <v>3.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="V32" t="n">
         <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X32" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Y32" t="n">
         <v>1.82</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB32" t="n">
         <v>7.9</v>
@@ -5062,16 +5062,16 @@
         <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="n">
         <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI32" t="n">
         <v>17.5</v>
@@ -5083,19 +5083,19 @@
         <v>700</v>
       </c>
       <c r="AL32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ32" t="n">
         <v>55</v>
@@ -5173,10 +5173,10 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="n">
         <v>1.53</v>
@@ -5242,10 +5242,10 @@
         <v>41</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34">
@@ -5280,22 +5280,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5334,10 +5334,10 @@
         <v>3.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -5346,13 +5346,13 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5361,10 +5361,10 @@
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ34" t="n">
         <v>34</v>
@@ -5376,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="AM34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN34" t="n">
         <v>9</v>
       </c>
       <c r="AO34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP34" t="n">
         <v>15</v>
@@ -5566,22 +5566,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5625,7 +5625,7 @@
         <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
         <v>9.5</v>
@@ -5652,10 +5652,10 @@
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM36" t="n">
         <v>15</v>
@@ -5667,7 +5667,7 @@
         <v>34</v>
       </c>
       <c r="AP36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ36" t="n">
         <v>41</v>
@@ -5707,25 +5707,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H37" t="n">
         <v>2.55</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>1.75</v>
       </c>
       <c r="L37" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="M37" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N37" t="n">
         <v>4.5</v>
@@ -5734,13 +5734,13 @@
         <v>1.65</v>
       </c>
       <c r="P37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="R37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5757,25 +5757,25 @@
         <v>2.1</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AA37" t="n">
         <v>5.2</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
         <v>50</v>
@@ -5787,31 +5787,31 @@
         <v>5.3</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK37" t="n">
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AM37" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO37" t="n">
         <v>70</v>
       </c>
       <c r="AP37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ37" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5848,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J38" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -5872,13 +5872,13 @@
         <v>6.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
         <v>1.6</v>
@@ -5886,61 +5886,61 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="V38" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
         <v>1.47</v>
       </c>
       <c r="X38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AA38" t="n">
         <v>11</v>
       </c>
       <c r="AB38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC38" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE38" t="n">
         <v>60</v>
       </c>
       <c r="AF38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG38" t="n">
         <v>6.2</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI38" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK38" t="n">
         <v>101</v>
       </c>
       <c r="AL38" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AN38" t="n">
         <v>8.5</v>
@@ -5989,19 +5989,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H39" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
         <v>4.15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L39" t="n">
         <v>4.55</v>
@@ -6010,42 +6010,42 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X39" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB39" t="n">
         <v>8.75</v>
@@ -6054,34 +6054,34 @@
         <v>8.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF39" t="n">
         <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AH39" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK39" t="n">
         <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN39" t="n">
         <v>13.5</v>
@@ -6130,13 +6130,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J40" t="n">
         <v>3.4</v>
@@ -6145,16 +6145,16 @@
         <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
         <v>3.2</v>
@@ -6171,7 +6171,7 @@
         <v>3.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -6180,13 +6180,13 @@
         <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
         <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE40" t="n">
         <v>23</v>
@@ -6216,7 +6216,7 @@
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL40" t="n">
         <v>8</v>
@@ -6231,7 +6231,7 @@
         <v>26</v>
       </c>
       <c r="AP40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
         <v>34</v>
@@ -6277,26 +6277,26 @@
         <v>6.2</v>
       </c>
       <c r="I41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="K41" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -6304,36 +6304,36 @@
         <v>1.72</v>
       </c>
       <c r="V41" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AA41" t="n">
         <v>9.25</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC41" t="n">
         <v>8.75</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE41" t="n">
         <v>8.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
         <v>12.5</v>
@@ -6354,16 +6354,16 @@
         <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO41" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AP41" t="n">
         <v>150</v>
       </c>
       <c r="AQ41" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
@@ -6412,28 +6412,28 @@
         <v>4.33</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6441,25 +6441,25 @@
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
         <v>13</v>
@@ -6474,28 +6474,28 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
       </c>
       <c r="AI42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ42" t="n">
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN42" t="n">
         <v>9</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>9.5</v>
       </c>
       <c r="AO42" t="n">
         <v>19</v>
@@ -6504,7 +6504,7 @@
         <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6559,7 +6559,7 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
         <v>9</v>
@@ -6568,13 +6568,13 @@
         <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6582,7 +6582,7 @@
         <v>3.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W43" t="n">
         <v>1.44</v>
@@ -6682,28 +6682,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6720,10 +6720,10 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
@@ -6732,16 +6732,16 @@
         <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA44" t="n">
         <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC44" t="n">
         <v>8.5</v>
@@ -6762,7 +6762,7 @@
         <v>7</v>
       </c>
       <c r="AI44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="n">
         <v>51</v>
@@ -6774,10 +6774,10 @@
         <v>12</v>
       </c>
       <c r="AM44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO44" t="n">
         <v>51</v>
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
@@ -6847,16 +6847,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6873,7 +6873,7 @@
         <v>2.75</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z45" t="n">
         <v>2</v>
@@ -6964,10 +6964,10 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H46" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.75</v>
       </c>
       <c r="I46" t="n">
         <v>2.9</v>
@@ -6979,33 +6979,33 @@
         <v>1.91</v>
       </c>
       <c r="L46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W46" t="n">
         <v>1.57</v>
@@ -7014,10 +7014,10 @@
         <v>2.25</v>
       </c>
       <c r="Y46" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -7029,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
         <v>26</v>
@@ -7038,7 +7038,7 @@
         <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH46" t="n">
         <v>5.5</v>
@@ -7053,7 +7053,7 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM46" t="n">
         <v>13</v>
@@ -7071,10 +7071,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="47">
@@ -7109,22 +7109,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H47" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="I47" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="J47" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7135,10 +7135,10 @@
         <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R47" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7155,61 +7155,61 @@
         <v>2.52</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB47" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AC47" t="n">
         <v>7</v>
       </c>
       <c r="AD47" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AE47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF47" t="n">
         <v>22</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI47" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK47" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL47" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN47" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AQ47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
@@ -7252,7 +7252,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.5</v>
@@ -7327,7 +7327,7 @@
         <v>15</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI48" t="n">
         <v>13</v>
@@ -7409,30 +7409,30 @@
         <v>4.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W49" t="n">
         <v>1.36</v>
@@ -7673,67 +7673,67 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="H51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N51" t="n">
+        <v>13</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P51" t="n">
         <v>4</v>
       </c>
-      <c r="I51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="Q51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R51" t="n">
         <v>2.1</v>
       </c>
-      <c r="K51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N51" t="n">
-        <v>17</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.4</v>
-      </c>
       <c r="S51" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T51" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="U51" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V51" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W51" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA51" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB51" t="n">
         <v>9.5</v>
@@ -7742,19 +7742,19 @@
         <v>8.5</v>
       </c>
       <c r="AD51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE51" t="n">
         <v>13</v>
       </c>
-      <c r="AE51" t="n">
-        <v>12</v>
-      </c>
       <c r="AF51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG51" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH51" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI51" t="n">
         <v>13</v>
@@ -7763,22 +7763,22 @@
         <v>41</v>
       </c>
       <c r="AK51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP51" t="n">
         <v>29</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>34</v>
       </c>
       <c r="AQ51" t="n">
         <v>34</v>
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H53" t="n">
         <v>4.33</v>
@@ -7972,13 +7972,13 @@
         <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="n">
         <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -7987,24 +7987,24 @@
         <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R53" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W53" t="n">
         <v>1.4</v>
@@ -8013,16 +8013,16 @@
         <v>2.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA53" t="n">
         <v>6</v>
       </c>
       <c r="AB53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
@@ -8034,19 +8034,19 @@
         <v>13</v>
       </c>
       <c r="AF53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG53" t="n">
         <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK53" t="n">
         <v>501</v>
@@ -8122,13 +8122,13 @@
         <v>3.4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
         <v>2.5</v>
@@ -8145,7 +8145,7 @@
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W54" t="n">
         <v>1.57</v>
@@ -8267,13 +8267,13 @@
         <v>3.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N55" t="n">
         <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P55" t="n">
         <v>2.2</v>
@@ -8290,7 +8290,7 @@
         <v>6.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W55" t="n">
         <v>1.67</v>
@@ -8394,13 +8394,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H56" t="n">
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J56" t="n">
         <v>1.91</v>
@@ -8412,13 +8412,13 @@
         <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -8435,7 +8435,7 @@
         <v>2.75</v>
       </c>
       <c r="V56" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W56" t="n">
         <v>1.33</v>
@@ -8459,7 +8459,7 @@
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -8471,10 +8471,10 @@
         <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ56" t="n">
         <v>67</v>
@@ -8538,7 +8538,7 @@
         <v>4.75</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
         <v>1.83</v>
@@ -8547,36 +8547,36 @@
         <v>5</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
         <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -8591,7 +8591,7 @@
         <v>1.7</v>
       </c>
       <c r="AA57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB57" t="n">
         <v>21</v>
@@ -8609,7 +8609,7 @@
         <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH57" t="n">
         <v>6.5</v>
@@ -8621,7 +8621,7 @@
         <v>67</v>
       </c>
       <c r="AK57" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL57" t="n">
         <v>6</v>
@@ -8950,22 +8950,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H60" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L60" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -8987,7 +8987,7 @@
         <v>3.2</v>
       </c>
       <c r="V60" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
         <v>1.42</v>
@@ -8999,34 +8999,34 @@
         <v>1.72</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
         <v>10</v>
       </c>
       <c r="AD60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF60" t="n">
         <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH60" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI60" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ60" t="n">
         <v>65</v>
@@ -9035,7 +9035,7 @@
         <v>500</v>
       </c>
       <c r="AL60" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AM60" t="n">
         <v>12.5</v>
@@ -9044,7 +9044,7 @@
         <v>9.5</v>
       </c>
       <c r="AO60" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP60" t="n">
         <v>22</v>
@@ -9087,13 +9087,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J61" t="n">
         <v>2.75</v>
@@ -9111,10 +9111,10 @@
         <v>6.5</v>
       </c>
       <c r="O61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P61" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q61" t="n">
         <v>2.7</v>
@@ -9125,10 +9125,10 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W61" t="n">
         <v>1.62</v>
@@ -9176,7 +9176,7 @@
         <v>101</v>
       </c>
       <c r="AL61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM61" t="n">
         <v>21</v>
@@ -9667,19 +9667,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H65" t="n">
         <v>4.75</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.83</v>
       </c>
       <c r="K65" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L65" t="n">
         <v>6.5</v>
@@ -9688,7 +9688,7 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
@@ -9703,10 +9703,10 @@
         <v>2.35</v>
       </c>
       <c r="S65" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U65" t="n">
         <v>2.38</v>
@@ -9721,13 +9721,13 @@
         <v>3.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
         <v>7.5</v>
@@ -9751,13 +9751,13 @@
         <v>9.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL65" t="n">
         <v>21</v>
@@ -9775,7 +9775,7 @@
         <v>51</v>
       </c>
       <c r="AQ65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9987,10 +9987,10 @@
         <v>5.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S67" t="n">
         <v>1.8</v>
@@ -9999,10 +9999,10 @@
         <v>2.05</v>
       </c>
       <c r="U67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W67" t="n">
         <v>1.25</v>
@@ -10120,10 +10120,10 @@
         <v>2.05</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O68" t="n">
         <v>1.1</v>
@@ -10132,10 +10132,10 @@
         <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R68" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10243,22 +10243,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J69" t="n">
         <v>3.75</v>
       </c>
       <c r="K69" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L69" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
@@ -10267,40 +10267,40 @@
         <v>15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P69" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R69" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S69" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U69" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V69" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W69" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA69" t="n">
         <v>15</v>
@@ -10315,10 +10315,10 @@
         <v>41</v>
       </c>
       <c r="AE69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG69" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         <v>7</v>
       </c>
       <c r="AI69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ69" t="n">
         <v>34</v>
@@ -10336,16 +10336,16 @@
         <v>101</v>
       </c>
       <c r="AL69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM69" t="n">
         <v>11</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>12</v>
       </c>
       <c r="AN69" t="n">
         <v>9</v>
       </c>
       <c r="AO69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP69" t="n">
         <v>15</v>
@@ -10400,16 +10400,16 @@
         <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L70" t="n">
         <v>3.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O70" t="n">
         <v>1.44</v>
@@ -10418,10 +10418,10 @@
         <v>2.63</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R70" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA70" t="n">
         <v>7</v>
@@ -10453,7 +10453,7 @@
         <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE70" t="n">
         <v>26</v>
@@ -10486,7 +10486,7 @@
         <v>11</v>
       </c>
       <c r="AO70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP70" t="n">
         <v>26</v>
@@ -10495,10 +10495,10 @@
         <v>41</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="71">
@@ -10533,13 +10533,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>3.9</v>
       </c>
       <c r="I71" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J71" t="n">
         <v>2.1</v>
@@ -10551,10 +10551,10 @@
         <v>6.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O71" t="n">
         <v>1.3</v>
@@ -10563,18 +10563,18 @@
         <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R71" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10586,7 +10586,7 @@
         <v>2.1</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
@@ -10598,7 +10598,7 @@
         <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE71" t="n">
         <v>13</v>
@@ -10625,7 +10625,7 @@
         <v>15</v>
       </c>
       <c r="AM71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
@@ -10731,7 +10731,7 @@
         <v>2</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA72" t="n">
         <v>6.5</v>
@@ -10829,10 +10829,10 @@
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J73" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
@@ -10873,7 +10873,7 @@
         <v>2.75</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z73" t="n">
         <v>2</v>
@@ -10882,7 +10882,7 @@
         <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC73" t="n">
         <v>9</v>
@@ -10903,10 +10903,10 @@
         <v>6.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK73" t="n">
         <v>201</v>
@@ -11014,7 +11014,7 @@
         <v>2.75</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z74" t="n">
         <v>2</v>
@@ -11528,54 +11528,54 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J78" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="K78" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L78" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P78" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R78" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V78" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W78" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X78" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y78" t="n">
         <v>1.52</v>
@@ -11584,52 +11584,52 @@
         <v>2.37</v>
       </c>
       <c r="AA78" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB78" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD78" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE78" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF78" t="n">
         <v>21</v>
       </c>
       <c r="AG78" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AI78" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ78" t="n">
         <v>40</v>
       </c>
       <c r="AK78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL78" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AM78" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN78" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AP78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ78" t="n">
         <v>23</v>
@@ -11669,22 +11669,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H79" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="K79" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="L79" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -11716,64 +11716,64 @@
         <v>1.23</v>
       </c>
       <c r="X79" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AA79" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC79" t="n">
         <v>8.75</v>
       </c>
       <c r="AD79" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AE79" t="n">
         <v>9.75</v>
       </c>
       <c r="AF79" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG79" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH79" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AI79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK79" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL79" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM79" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP79" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AQ79" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11810,111 +11810,111 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J80" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="K80" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M80" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O80" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R80" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="V80" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="W80" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X80" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AA80" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB80" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC80" t="n">
         <v>9.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF80" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG80" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AH80" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AI80" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL80" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AM80" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN80" t="n">
         <v>9.75</v>
       </c>
       <c r="AO80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ80" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
@@ -11951,31 +11951,31 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K81" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M81" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
         <v>12</v>
       </c>
       <c r="O81" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P81" t="n">
         <v>6.5</v>
@@ -11989,10 +11989,10 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V81" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
         <v>1.2</v>
@@ -12010,13 +12010,13 @@
         <v>13</v>
       </c>
       <c r="AB81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE81" t="n">
         <v>12</v>
@@ -12028,28 +12028,28 @@
         <v>23</v>
       </c>
       <c r="AH81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ81" t="n">
         <v>29</v>
       </c>
       <c r="AK81" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM81" t="n">
         <v>29</v>
       </c>
       <c r="AN81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP81" t="n">
         <v>29</v>
@@ -12092,48 +12092,52 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I82" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K82" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L82" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N82" t="n">
         <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R82" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
       <c r="U82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V82" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W82" t="n">
         <v>1.25</v>
@@ -12142,10 +12146,10 @@
         <v>3.75</v>
       </c>
       <c r="Y82" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA82" t="n">
         <v>23</v>
@@ -12154,7 +12158,7 @@
         <v>41</v>
       </c>
       <c r="AC82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD82" t="n">
         <v>101</v>
@@ -12166,37 +12170,37 @@
         <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
       </c>
       <c r="AK82" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL82" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM82" t="n">
         <v>7</v>
       </c>
       <c r="AN82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP82" t="n">
         <v>11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12233,31 +12237,31 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H83" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K83" t="n">
         <v>2.4</v>
       </c>
       <c r="L83" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M83" t="n">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
         <v>4.5</v>
@@ -12278,7 +12282,7 @@
         <v>2.25</v>
       </c>
       <c r="V83" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W83" t="n">
         <v>1.29</v>
@@ -12296,13 +12300,13 @@
         <v>9.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC83" t="n">
         <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE83" t="n">
         <v>12</v>
@@ -12314,31 +12318,31 @@
         <v>17</v>
       </c>
       <c r="AH83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
       </c>
       <c r="AK83" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM83" t="n">
         <v>29</v>
       </c>
       <c r="AN83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO83" t="n">
         <v>51</v>
       </c>
       <c r="AP83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ83" t="n">
         <v>34</v>
@@ -12378,31 +12382,31 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K84" t="n">
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
         <v>8</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P84" t="n">
         <v>3.25</v>
@@ -12419,7 +12423,7 @@
         <v>3.75</v>
       </c>
       <c r="V84" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W84" t="n">
         <v>1.44</v>
@@ -12428,25 +12432,25 @@
         <v>2.63</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC84" t="n">
         <v>13</v>
       </c>
       <c r="AD84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE84" t="n">
         <v>34</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>29</v>
       </c>
       <c r="AF84" t="n">
         <v>41</v>
@@ -12464,22 +12468,22 @@
         <v>51</v>
       </c>
       <c r="AK84" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM84" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ84" t="n">
         <v>29</v>
@@ -12805,13 +12809,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J87" t="n">
         <v>1.85</v>
@@ -12826,45 +12830,45 @@
         <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O87" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P87" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R87" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V87" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W87" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X87" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AC87" t="n">
         <v>8.25</v>
@@ -12873,34 +12877,34 @@
         <v>10</v>
       </c>
       <c r="AE87" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG87" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ87" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM87" t="n">
         <v>50</v>
       </c>
-      <c r="AK87" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>55</v>
-      </c>
       <c r="AN87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO87" t="n">
         <v>150</v>
@@ -12909,7 +12913,7 @@
         <v>65</v>
       </c>
       <c r="AQ87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -12976,10 +12980,10 @@
         <v>4.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R88" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13228,7 +13232,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
         <v>5.3</v>
@@ -13237,35 +13241,35 @@
         <v>1.22</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P90" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="V90" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W90" t="n">
         <v>1.39</v>
@@ -13274,61 +13278,61 @@
         <v>2.57</v>
       </c>
       <c r="Y90" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AA90" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB90" t="n">
         <v>100</v>
       </c>
       <c r="AC90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD90" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE90" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AF90" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>175</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>200</v>
       </c>
       <c r="AK90" t="n">
         <v>101</v>
       </c>
       <c r="AL90" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AM90" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO90" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AP90" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AQ90" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
@@ -13502,13 +13506,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H92" t="n">
         <v>5.5</v>
       </c>
       <c r="I92" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="J92" t="n">
         <v>1.65</v>
@@ -13517,7 +13521,7 @@
         <v>2.72</v>
       </c>
       <c r="L92" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
@@ -13532,7 +13536,7 @@
         <v>4.9</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R92" t="n">
         <v>2.57</v>
@@ -13546,34 +13550,34 @@
         <v>1.65</v>
       </c>
       <c r="W92" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X92" t="n">
         <v>3.6</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AA92" t="n">
         <v>9.25</v>
       </c>
       <c r="AB92" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AC92" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD92" t="n">
         <v>8.25</v>
       </c>
       <c r="AE92" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG92" t="n">
         <v>9.75</v>
@@ -13582,31 +13586,31 @@
         <v>11.25</v>
       </c>
       <c r="AI92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ92" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK92" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL92" t="n">
         <v>28</v>
       </c>
       <c r="AM92" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ92" t="n">
         <v>70</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>250</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>110</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>80</v>
       </c>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
@@ -13643,111 +13647,111 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.5</v>
+        <v>9.25</v>
       </c>
       <c r="H93" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="I93" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="J93" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="K93" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="L93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q93" t="n">
         <v>1.62</v>
       </c>
-      <c r="M93" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P93" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1.57</v>
-      </c>
       <c r="R93" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="V93" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="W93" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X93" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="Y93" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA93" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AB93" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AC93" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AD93" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AE93" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AF93" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AG93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI93" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AJ93" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK93" t="n">
         <v>900</v>
       </c>
       <c r="AL93" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AM93" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AN93" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO93" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AP93" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AQ93" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
@@ -13928,59 +13932,59 @@
         <v>2.5</v>
       </c>
       <c r="H95" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I95" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J95" t="n">
         <v>3.1</v>
       </c>
       <c r="K95" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P95" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R95" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W95" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X95" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB95" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC95" t="n">
         <v>9.5</v>
@@ -13989,19 +13993,19 @@
         <v>28</v>
       </c>
       <c r="AE95" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF95" t="n">
         <v>35</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH95" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI95" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ95" t="n">
         <v>70</v>
@@ -14010,22 +14014,22 @@
         <v>600</v>
       </c>
       <c r="AL95" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM95" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO95" t="n">
         <v>37</v>
       </c>
       <c r="AP95" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -698,7 +698,7 @@
         <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -776,13 +776,13 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -794,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP2" t="n">
         <v>51</v>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -867,22 +867,22 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
@@ -912,7 +912,7 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -933,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>8.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>12</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1003,7 +1003,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1056,7 +1056,7 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1139,7 +1139,7 @@
         <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1157,22 +1157,22 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1199,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1208,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1220,7 +1220,7 @@
         <v>126</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1278,7 +1278,7 @@
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1322,10 +1322,10 @@
         <v>2.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
@@ -1346,7 +1346,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1358,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL6" t="n">
         <v>7</v>
@@ -1431,10 +1431,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1562,16 +1562,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1640,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1655,13 +1655,13 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -1729,10 +1729,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1807,7 +1807,7 @@
         <v>6.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>11</v>
@@ -1904,10 +1904,10 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="X10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y10" t="n">
         <v>2.75</v>
@@ -2569,111 +2569,111 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>4.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
         <v>500</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AM15" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AN15" t="n">
         <v>8.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2710,111 +2710,111 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="K16" t="n">
         <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AB16" t="n">
         <v>11.25</v>
       </c>
       <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL16" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AM16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
         <v>37</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2992,22 +2992,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L18" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3016,84 +3016,84 @@
         <v>7.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X18" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AE18" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="n">
         <v>7.8</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="n">
         <v>600</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>26</v>
@@ -3415,48 +3415,48 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.4</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
         <v>1.4</v>
@@ -3465,22 +3465,22 @@
         <v>2.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
         <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -3489,7 +3489,7 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3501,25 +3501,25 @@
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN21" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>10</v>
-      </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3574,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3586,10 +3586,10 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>2.25</v>
@@ -3712,7 +3712,7 @@
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3741,28 +3741,28 @@
         <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB23" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8</v>
       </c>
       <c r="AC23" t="n">
         <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3783,7 +3783,7 @@
         <v>51</v>
       </c>
       <c r="AK23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL23" t="n">
         <v>13</v>
@@ -3792,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>51</v>
@@ -3892,10 +3892,10 @@
         <v>2.63</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -4273,16 +4273,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
@@ -4291,10 +4291,10 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.53</v>
@@ -4330,16 +4330,16 @@
         <v>2.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4369,7 +4369,7 @@
         <v>5.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN27" t="n">
         <v>10</v>
@@ -4476,10 +4476,10 @@
         <v>2.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA28" t="n">
         <v>6.5</v>
@@ -4574,57 +4574,57 @@
         <v>2.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AA29" t="n">
         <v>8</v>
@@ -4636,31 +4636,31 @@
         <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM29" t="n">
         <v>13</v>
@@ -4672,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>34</v>
@@ -4712,22 +4712,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K30" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L30" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4736,84 +4736,84 @@
         <v>7.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AE30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
         <v>7.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AM30" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>30</v>
@@ -4853,45 +4853,45 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="K31" t="n">
         <v>2.02</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="V31" t="n">
         <v>1.23</v>
@@ -4903,61 +4903,61 @@
         <v>2.57</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
         <v>37</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
         <v>10.25</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ31" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4994,22 +4994,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K32" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -5018,7 +5018,7 @@
         <v>8.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
         <v>3.65</v>
@@ -5035,34 +5035,34 @@
         <v>2.82</v>
       </c>
       <c r="V32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z32" t="n">
         <v>1.9</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF32" t="n">
         <v>27</v>
@@ -5071,7 +5071,7 @@
         <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI32" t="n">
         <v>17.5</v>
@@ -5083,19 +5083,19 @@
         <v>700</v>
       </c>
       <c r="AL32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM32" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ32" t="n">
         <v>55</v>
@@ -5135,22 +5135,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.25</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -5159,16 +5159,16 @@
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5191,10 +5191,10 @@
         <v>1.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5209,7 +5209,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH33" t="n">
         <v>6</v>
@@ -5218,28 +5218,28 @@
         <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR33" t="n">
         <v>1.78</v>
@@ -5283,16 +5283,16 @@
         <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
         <v>2.63</v>
@@ -5304,28 +5304,28 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S34" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W34" t="n">
         <v>1.3</v>
@@ -5334,10 +5334,10 @@
         <v>3.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -5358,7 +5358,7 @@
         <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5370,10 +5370,10 @@
         <v>34</v>
       </c>
       <c r="AK34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM34" t="n">
         <v>12</v>
@@ -5425,22 +5425,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5469,25 +5469,25 @@
         <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC35" t="n">
         <v>12</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13</v>
       </c>
       <c r="AD35" t="n">
         <v>41</v>
@@ -5499,7 +5499,7 @@
         <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
         <v>7.5</v>
@@ -5517,19 +5517,19 @@
         <v>7.5</v>
       </c>
       <c r="AM35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN35" t="n">
         <v>9</v>
       </c>
-      <c r="AN35" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AO35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP35" t="n">
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5584,10 +5584,10 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -5634,7 +5634,7 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
         <v>34</v>
@@ -5652,7 +5652,7 @@
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="n">
         <v>9</v>
@@ -5848,48 +5848,48 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J38" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="R38" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W38" t="n">
         <v>1.47</v>
@@ -5898,16 +5898,16 @@
         <v>2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Z38" t="n">
         <v>1.65</v>
       </c>
       <c r="AA38" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
         <v>17</v>
@@ -5922,13 +5922,13 @@
         <v>70</v>
       </c>
       <c r="AG38" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="n">
         <v>120</v>
@@ -5937,10 +5937,10 @@
         <v>101</v>
       </c>
       <c r="AL38" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AM38" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AN38" t="n">
         <v>8.5</v>
@@ -5949,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5989,111 +5989,111 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="J39" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="K39" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L39" t="n">
-        <v>4.55</v>
+        <v>4.05</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AB39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC39" t="n">
         <v>8.75</v>
       </c>
-      <c r="AC39" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD39" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE39" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="n">
         <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AH39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI39" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL39" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO39" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AP39" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AQ39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6133,16 +6133,16 @@
         <v>2.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L40" t="n">
         <v>3.25</v>
@@ -6154,10 +6154,10 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -6192,7 +6192,7 @@
         <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD40" t="n">
         <v>29</v>
@@ -6228,13 +6228,13 @@
         <v>10</v>
       </c>
       <c r="AO40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6271,60 +6271,60 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H41" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="I41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="K41" t="n">
         <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V41" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
         <v>6.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE41" t="n">
         <v>8.5</v>
@@ -6333,13 +6333,13 @@
         <v>21</v>
       </c>
       <c r="AG41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH41" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ41" t="n">
         <v>70</v>
@@ -6348,19 +6348,19 @@
         <v>350</v>
       </c>
       <c r="AL41" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM41" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN41" t="n">
         <v>40</v>
       </c>
       <c r="AO41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP41" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AQ41" t="n">
         <v>90</v>
@@ -6400,13 +6400,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>4.33</v>
@@ -6444,16 +6444,16 @@
         <v>1.22</v>
       </c>
       <c r="W42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA42" t="n">
         <v>10</v>
@@ -6462,7 +6462,7 @@
         <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD42" t="n">
         <v>41</v>
@@ -6486,25 +6486,25 @@
         <v>51</v>
       </c>
       <c r="AK42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN42" t="n">
         <v>9</v>
       </c>
       <c r="AO42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP42" t="n">
         <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6565,16 +6565,16 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6682,28 +6682,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -6732,22 +6732,22 @@
         <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC44" t="n">
         <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE44" t="n">
         <v>15</v>
@@ -6756,37 +6756,37 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI44" t="n">
         <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK44" t="n">
         <v>351</v>
       </c>
       <c r="AL44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP44" t="n">
         <v>41</v>
       </c>
       <c r="AQ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6847,16 +6847,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6964,87 +6964,87 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H46" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L46" t="n">
         <v>3.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R46" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF46" t="n">
         <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH46" t="n">
         <v>5.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="n">
         <v>67</v>
@@ -7053,10 +7053,10 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN46" t="n">
         <v>12</v>
@@ -7071,10 +7071,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="47">
@@ -7112,19 +7112,19 @@
         <v>1.45</v>
       </c>
       <c r="H47" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J47" t="n">
         <v>1.98</v>
       </c>
       <c r="K47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7135,10 +7135,10 @@
         <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7155,46 +7155,46 @@
         <v>2.52</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE47" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH47" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI47" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ47" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM47" t="n">
         <v>27</v>
@@ -7203,7 +7203,7 @@
         <v>15.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP47" t="n">
         <v>50</v>
@@ -7246,13 +7246,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
         <v>2.5</v>
@@ -7267,7 +7267,7 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O48" t="n">
         <v>1.18</v>
@@ -7276,16 +7276,16 @@
         <v>4.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -7306,25 +7306,25 @@
         <v>2.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB48" t="n">
         <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD48" t="n">
         <v>17</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
         <v>8</v>
@@ -7336,7 +7336,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL48" t="n">
         <v>13</v>
@@ -7351,10 +7351,10 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>29</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7391,22 +7391,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -7435,10 +7435,10 @@
         <v>1.33</v>
       </c>
       <c r="W49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y49" t="n">
         <v>1.8</v>
@@ -7468,7 +7468,7 @@
         <v>11</v>
       </c>
       <c r="AH49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI49" t="n">
         <v>15</v>
@@ -7486,7 +7486,7 @@
         <v>21</v>
       </c>
       <c r="AN49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
@@ -7818,22 +7818,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
@@ -7874,16 +7874,16 @@
         <v>1.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC52" t="n">
         <v>11</v>
       </c>
       <c r="AD52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="n">
         <v>26</v>
@@ -7910,16 +7910,16 @@
         <v>7</v>
       </c>
       <c r="AM52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN52" t="n">
         <v>10</v>
       </c>
       <c r="AO52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP52" t="n">
         <v>23</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>21</v>
       </c>
       <c r="AQ52" t="n">
         <v>34</v>
@@ -7963,22 +7963,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -8028,7 +8028,7 @@
         <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE53" t="n">
         <v>13</v>
@@ -8052,16 +8052,16 @@
         <v>501</v>
       </c>
       <c r="AL53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM53" t="n">
         <v>34</v>
       </c>
       <c r="AN53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP53" t="n">
         <v>51</v>
@@ -8104,22 +8104,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
         <v>2.88</v>
       </c>
       <c r="I54" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>1.91</v>
       </c>
       <c r="L54" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M54" t="n">
         <v>1.13</v>
@@ -8154,25 +8154,25 @@
         <v>2.25</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA54" t="n">
         <v>7.5</v>
       </c>
       <c r="AB54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC54" t="n">
         <v>13</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>12</v>
       </c>
       <c r="AD54" t="n">
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
@@ -8193,19 +8193,19 @@
         <v>501</v>
       </c>
       <c r="AL54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
@@ -8273,10 +8273,10 @@
         <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q55" t="n">
         <v>3.1</v>
@@ -8287,10 +8287,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W55" t="n">
         <v>1.67</v>
@@ -8565,18 +8565,18 @@
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -8700,10 +8700,10 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P58" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="Q58" t="n">
         <v>1.91</v>
@@ -8714,10 +8714,10 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="V58" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="W58" t="n">
         <v>1.4</v>
@@ -8726,10 +8726,10 @@
         <v>2.4</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AA58" t="n">
         <v>9.25</v>
@@ -8950,7 +8950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
@@ -8962,32 +8962,32 @@
         <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L60" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R60" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="V60" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W60" t="n">
         <v>1.42</v>
@@ -8996,28 +8996,28 @@
         <v>2.47</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AA60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD60" t="n">
         <v>30</v>
       </c>
       <c r="AE60" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG60" t="n">
         <v>8.75</v>
@@ -9026,10 +9026,10 @@
         <v>6</v>
       </c>
       <c r="AI60" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="n">
         <v>500</v>
@@ -9041,7 +9041,7 @@
         <v>12.5</v>
       </c>
       <c r="AN60" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO60" t="n">
         <v>29</v>
@@ -9087,13 +9087,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
         <v>2.75</v>
@@ -9137,10 +9137,10 @@
         <v>2.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA61" t="n">
         <v>5</v>
@@ -9161,7 +9161,7 @@
         <v>41</v>
       </c>
       <c r="AG61" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH61" t="n">
         <v>6.5</v>
@@ -9176,13 +9176,13 @@
         <v>101</v>
       </c>
       <c r="AL61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO61" t="n">
         <v>51</v>
@@ -9232,28 +9232,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J62" t="n">
         <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L62" t="n">
         <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O62" t="n">
         <v>1.5</v>
@@ -9276,10 +9276,10 @@
         <v>1.17</v>
       </c>
       <c r="W62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X62" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y62" t="n">
         <v>2.38</v>
@@ -9300,7 +9300,7 @@
         <v>13</v>
       </c>
       <c r="AE62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF62" t="n">
         <v>41</v>
@@ -9309,22 +9309,22 @@
         <v>7</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI62" t="n">
         <v>23</v>
       </c>
       <c r="AJ62" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="n">
         <v>101</v>
       </c>
       <c r="AL62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN62" t="n">
         <v>17</v>
@@ -9339,10 +9339,10 @@
         <v>51</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="63">
@@ -9377,54 +9377,54 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I63" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J63" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
         <v>1.91</v>
       </c>
       <c r="L63" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P63" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R63" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W63" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X63" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y63" t="n">
         <v>2.2</v>
@@ -9433,28 +9433,28 @@
         <v>1.62</v>
       </c>
       <c r="AA63" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB63" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC63" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF63" t="n">
         <v>41</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>51</v>
       </c>
       <c r="AG63" t="n">
         <v>6</v>
       </c>
       <c r="AH63" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI63" t="n">
         <v>19</v>
@@ -9466,28 +9466,28 @@
         <v>900</v>
       </c>
       <c r="AL63" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM63" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AN63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO63" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AP63" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ63" t="n">
         <v>41</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64">
@@ -9667,13 +9667,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H65" t="n">
         <v>4.75</v>
       </c>
       <c r="I65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
         <v>1.83</v>
@@ -9682,7 +9682,7 @@
         <v>2.6</v>
       </c>
       <c r="L65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9697,22 +9697,22 @@
         <v>5</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V65" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.53</v>
       </c>
       <c r="W65" t="n">
         <v>1.29</v>
@@ -9751,7 +9751,7 @@
         <v>9.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
@@ -9760,13 +9760,13 @@
         <v>201</v>
       </c>
       <c r="AL65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM65" t="n">
         <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO65" t="n">
         <v>81</v>
@@ -9775,7 +9775,7 @@
         <v>51</v>
       </c>
       <c r="AQ65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9812,13 +9812,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J66" t="n">
         <v>3.1</v>
@@ -9827,7 +9827,7 @@
         <v>2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9836,28 +9836,28 @@
         <v>15</v>
       </c>
       <c r="O66" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P66" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S66" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U66" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
@@ -9878,7 +9878,7 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD66" t="n">
         <v>26</v>
@@ -9957,28 +9957,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K67" t="n">
         <v>2.6</v>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O67" t="n">
         <v>1.14</v>
@@ -9987,10 +9987,10 @@
         <v>5.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S67" t="n">
         <v>1.8</v>
@@ -9999,10 +9999,10 @@
         <v>2.05</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W67" t="n">
         <v>1.25</v>
@@ -10017,7 +10017,7 @@
         <v>2.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB67" t="n">
         <v>8.5</v>
@@ -10053,7 +10053,7 @@
         <v>21</v>
       </c>
       <c r="AM67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN67" t="n">
         <v>19</v>
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>3.75</v>
@@ -10258,7 +10258,7 @@
         <v>2.38</v>
       </c>
       <c r="L69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
@@ -10267,28 +10267,28 @@
         <v>15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R69" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T69" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W69" t="n">
         <v>1.3</v>
@@ -10327,7 +10327,7 @@
         <v>7</v>
       </c>
       <c r="AI69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ69" t="n">
         <v>34</v>
@@ -10339,13 +10339,13 @@
         <v>10</v>
       </c>
       <c r="AM69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN69" t="n">
         <v>9</v>
       </c>
       <c r="AO69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP69" t="n">
         <v>15</v>
@@ -10391,7 +10391,7 @@
         <v>2.7</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
         <v>2.7</v>
@@ -10406,30 +10406,30 @@
         <v>3.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="V70" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="W70" t="n">
         <v>1.53</v>
@@ -10444,7 +10444,7 @@
         <v>1.73</v>
       </c>
       <c r="AA70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB70" t="n">
         <v>12</v>
@@ -10456,13 +10456,13 @@
         <v>26</v>
       </c>
       <c r="AE70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
         <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10471,13 +10471,13 @@
         <v>17</v>
       </c>
       <c r="AJ70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK70" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM70" t="n">
         <v>12</v>
@@ -10489,7 +10489,7 @@
         <v>26</v>
       </c>
       <c r="AP70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ70" t="n">
         <v>41</v>
@@ -10533,7 +10533,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H71" t="n">
         <v>3.9</v>
@@ -10551,30 +10551,30 @@
         <v>6.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P71" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R71" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10598,13 +10598,13 @@
         <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG71" t="n">
         <v>9</v>
@@ -10622,10 +10622,10 @@
         <v>1250</v>
       </c>
       <c r="AL71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
@@ -10674,13 +10674,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10692,10 +10692,10 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
@@ -10722,10 +10722,10 @@
         <v>1.29</v>
       </c>
       <c r="W72" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X72" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y72" t="n">
         <v>2</v>
@@ -10734,7 +10734,7 @@
         <v>1.73</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB72" t="n">
         <v>7</v>
@@ -10746,28 +10746,28 @@
         <v>11</v>
       </c>
       <c r="AE72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF72" t="n">
         <v>29</v>
       </c>
       <c r="AG72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK72" t="n">
         <v>351</v>
       </c>
       <c r="AL72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM72" t="n">
         <v>29</v>
@@ -10823,81 +10823,81 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J73" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R73" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W73" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z73" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD73" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE73" t="n">
         <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH73" t="n">
         <v>6.5</v>
@@ -10909,25 +10909,25 @@
         <v>51</v>
       </c>
       <c r="AK73" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO73" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP73" t="n">
         <v>34</v>
       </c>
-      <c r="AP73" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -10964,28 +10964,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H74" t="n">
         <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J74" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -11020,16 +11020,16 @@
         <v>2</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC74" t="n">
         <v>10</v>
       </c>
       <c r="AD74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE74" t="n">
         <v>21</v>
@@ -11053,19 +11053,19 @@
         <v>201</v>
       </c>
       <c r="AL74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ74" t="n">
         <v>29</v>
@@ -11108,19 +11108,19 @@
         <v>3.9</v>
       </c>
       <c r="H75" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J75" t="n">
         <v>4.75</v>
       </c>
       <c r="K75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L75" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M75" t="n">
         <v>1.05</v>
@@ -11135,24 +11135,24 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R75" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W75" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X75" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y75" t="n">
         <v>1.8</v>
@@ -11179,10 +11179,10 @@
         <v>41</v>
       </c>
       <c r="AG75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI75" t="n">
         <v>15</v>
@@ -11951,84 +11951,84 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J81" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K81" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L81" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M81" t="n">
         <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O81" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P81" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R81" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W81" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X81" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="n">
         <v>17</v>
       </c>
       <c r="AE81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG81" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI81" t="n">
         <v>11</v>
@@ -12037,22 +12037,22 @@
         <v>29</v>
       </c>
       <c r="AK81" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM81" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO81" t="n">
         <v>41</v>
       </c>
       <c r="AP81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ81" t="n">
         <v>26</v>
@@ -12095,16 +12095,16 @@
         <v>8</v>
       </c>
       <c r="H82" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I82" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J82" t="n">
         <v>7.5</v>
       </c>
       <c r="K82" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L82" t="n">
         <v>1.67</v>
@@ -12170,13 +12170,13 @@
         <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
@@ -12185,22 +12185,22 @@
         <v>700</v>
       </c>
       <c r="AL82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM82" t="n">
         <v>7</v>
       </c>
       <c r="AN82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP82" t="n">
         <v>11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12237,58 +12237,58 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I83" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L83" t="n">
         <v>5</v>
       </c>
-      <c r="J83" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R83" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S83" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="U83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V83" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W83" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X83" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y83" t="n">
         <v>1.62</v>
@@ -12297,13 +12297,13 @@
         <v>2.2</v>
       </c>
       <c r="AA83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB83" t="n">
         <v>9</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD83" t="n">
         <v>12</v>
@@ -12318,7 +12318,7 @@
         <v>17</v>
       </c>
       <c r="AH83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI83" t="n">
         <v>15</v>
@@ -12327,13 +12327,13 @@
         <v>41</v>
       </c>
       <c r="AK83" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL83" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN83" t="n">
         <v>17</v>
@@ -12345,7 +12345,7 @@
         <v>41</v>
       </c>
       <c r="AQ83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12400,10 +12400,10 @@
         <v>2.6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12412,18 +12412,18 @@
         <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R84" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V84" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W84" t="n">
         <v>1.44</v>
@@ -12471,10 +12471,10 @@
         <v>800</v>
       </c>
       <c r="AL84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN84" t="n">
         <v>9</v>
@@ -12523,19 +12523,19 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
       </c>
       <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K85" t="n">
         <v>1.95</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1.91</v>
       </c>
       <c r="L85" t="n">
         <v>2.75</v>
@@ -12553,18 +12553,18 @@
         <v>2.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R85" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V85" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W85" t="n">
         <v>1.57</v>
@@ -12573,10 +12573,10 @@
         <v>2.25</v>
       </c>
       <c r="Y85" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA85" t="n">
         <v>9</v>
@@ -12588,7 +12588,7 @@
         <v>15</v>
       </c>
       <c r="AD85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE85" t="n">
         <v>41</v>
@@ -12597,13 +12597,13 @@
         <v>51</v>
       </c>
       <c r="AG85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH85" t="n">
         <v>6</v>
       </c>
       <c r="AI85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ85" t="n">
         <v>81</v>
@@ -12630,10 +12630,10 @@
         <v>41</v>
       </c>
       <c r="AR85" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="86">
@@ -12668,22 +12668,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="H86" t="n">
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J86" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="K86" t="n">
         <v>2.12</v>
       </c>
       <c r="L86" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
@@ -12695,48 +12695,48 @@
         <v>1.25</v>
       </c>
       <c r="P86" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q86" t="n">
         <v>1.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V86" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W86" t="n">
         <v>1.38</v>
       </c>
       <c r="X86" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z86" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC86" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB86" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD86" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AE86" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF86" t="n">
         <v>23</v>
@@ -12754,22 +12754,22 @@
         <v>50</v>
       </c>
       <c r="AK86" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL86" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN86" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AO86" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP86" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ86" t="n">
         <v>30</v>
@@ -12809,13 +12809,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H87" t="n">
         <v>4.6</v>
       </c>
       <c r="I87" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
         <v>1.85</v>
@@ -12824,7 +12824,7 @@
         <v>2.5</v>
       </c>
       <c r="L87" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
@@ -12836,7 +12836,7 @@
         <v>1.16</v>
       </c>
       <c r="P87" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Q87" t="n">
         <v>1.5</v>
@@ -12853,10 +12853,10 @@
         <v>1.6</v>
       </c>
       <c r="W87" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X87" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Y87" t="n">
         <v>1.7</v>
@@ -12868,43 +12868,43 @@
         <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AC87" t="n">
         <v>8.25</v>
       </c>
       <c r="AD87" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE87" t="n">
         <v>10.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG87" t="n">
         <v>9.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI87" t="n">
         <v>16</v>
       </c>
       <c r="AJ87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK87" t="n">
         <v>350</v>
       </c>
       <c r="AL87" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO87" t="n">
         <v>150</v>
@@ -12950,13 +12950,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>3.8</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J88" t="n">
         <v>2.3</v>
@@ -12965,7 +12965,7 @@
         <v>2.38</v>
       </c>
       <c r="L88" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
@@ -12994,22 +12994,22 @@
         <v>1.44</v>
       </c>
       <c r="W88" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X88" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y88" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z88" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB88" t="n">
         <v>9</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC88" t="n">
         <v>8.5</v>
@@ -13030,7 +13030,7 @@
         <v>7.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ88" t="n">
         <v>41</v>
@@ -13045,13 +13045,13 @@
         <v>23</v>
       </c>
       <c r="AN88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO88" t="n">
         <v>41</v>
       </c>
       <c r="AP88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ88" t="n">
         <v>34</v>
@@ -13369,33 +13369,33 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I91" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J91" t="n">
         <v>2.92</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L91" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P91" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R91" t="n">
         <v>1.57</v>
@@ -13412,43 +13412,43 @@
         <v>1.42</v>
       </c>
       <c r="X91" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Y91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z91" t="n">
         <v>1.82</v>
       </c>
-      <c r="Z91" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AA91" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB91" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD91" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE91" t="n">
         <v>21</v>
       </c>
       <c r="AF91" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG91" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AH91" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ91" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK91" t="n">
         <v>700</v>
@@ -13457,16 +13457,16 @@
         <v>8</v>
       </c>
       <c r="AM91" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN91" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO91" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP91" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ91" t="n">
         <v>40</v>
@@ -13788,28 +13788,28 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H94" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I94" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="J94" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="K94" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="L94" t="n">
-        <v>7.3</v>
+        <v>8.75</v>
       </c>
       <c r="M94" t="n">
         <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O94" t="n">
         <v>1.13</v>
@@ -13826,34 +13826,34 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V94" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W94" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X94" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z94" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AA94" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB94" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AC94" t="n">
         <v>9</v>
       </c>
       <c r="AD94" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE94" t="n">
         <v>10</v>
@@ -13862,10 +13862,10 @@
         <v>23</v>
       </c>
       <c r="AG94" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH94" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI94" t="n">
         <v>21</v>
@@ -13877,22 +13877,22 @@
         <v>450</v>
       </c>
       <c r="AL94" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>450</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ94" t="n">
         <v>80</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>250</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>70</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -13929,22 +13929,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H95" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I95" t="n">
         <v>2.9</v>
       </c>
       <c r="J95" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L95" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -13969,10 +13969,10 @@
         <v>1.23</v>
       </c>
       <c r="W95" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X95" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="Y95" t="n">
         <v>1.75</v>
@@ -13981,28 +13981,28 @@
         <v>1.85</v>
       </c>
       <c r="AA95" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB95" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC95" t="n">
         <v>9.5</v>
       </c>
       <c r="AD95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF95" t="n">
         <v>35</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH95" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI95" t="n">
         <v>13.5</v>
@@ -14026,7 +14026,7 @@
         <v>37</v>
       </c>
       <c r="AP95" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ95" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -885,16 +885,16 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -909,13 +909,13 @@
         <v>51</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
@@ -924,10 +924,10 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -988,7 +988,7 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1068,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1127,40 +1127,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>2.05</v>
@@ -1169,22 +1169,22 @@
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA5" t="n">
         <v>9.5</v>
@@ -1193,22 +1193,22 @@
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
         <v>13</v>
       </c>
-      <c r="AF5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1217,22 +1217,22 @@
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1302,18 +1302,18 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1413,16 +1413,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
@@ -1476,10 +1476,10 @@
         <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>81</v>
@@ -1512,13 +1512,13 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1571,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1592,16 +1592,16 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U8" t="n">
         <v>4.5</v>
@@ -1610,10 +1610,10 @@
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y8" t="n">
         <v>2.2</v>
@@ -1640,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1673,10 +1673,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="9">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -1729,10 +1729,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1807,7 +1807,7 @@
         <v>6.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
         <v>11</v>
@@ -1890,10 +1890,10 @@
         <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1904,10 +1904,10 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Y10" t="n">
         <v>2.75</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -2045,16 +2045,16 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA11" t="n">
         <v>5</v>
@@ -2075,7 +2075,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2093,7 +2093,7 @@
         <v>7.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN11" t="n">
         <v>17</v>
@@ -2105,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2569,60 +2569,60 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K15" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AA15" t="n">
         <v>12.5</v>
@@ -2631,46 +2631,46 @@
         <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF15" t="n">
         <v>40</v>
       </c>
-      <c r="AF15" t="n">
-        <v>45</v>
-      </c>
       <c r="AG15" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
         <v>500</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AN15" t="n">
         <v>8.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>25</v>
@@ -2710,111 +2710,111 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H16" t="n">
         <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>19.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AH16" t="n">
         <v>6.1</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM16" t="n">
         <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2854,16 +2854,16 @@
         <v>4.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
         <v>2.27</v>
@@ -2872,13 +2872,13 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="n">
         <v>1.78</v>
@@ -2889,7 +2889,7 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
@@ -2898,7 +2898,7 @@
         <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Y17" t="n">
         <v>1.78</v>
@@ -2907,7 +2907,7 @@
         <v>1.93</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>24</v>
@@ -2919,16 +2919,16 @@
         <v>65</v>
       </c>
       <c r="AE17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
         <v>45</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AI17" t="n">
         <v>15.5</v>
@@ -2949,10 +2949,10 @@
         <v>8.25</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>25</v>
@@ -2992,111 +2992,111 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J18" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="K18" t="n">
         <v>2.22</v>
       </c>
       <c r="L18" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
         <v>2.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH18" t="n">
         <v>7.8</v>
       </c>
-      <c r="AH18" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL18" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO18" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AP18" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3133,28 +3133,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
@@ -3177,28 +3177,28 @@
         <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y19" t="n">
         <v>1.65</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC19" t="n">
         <v>8.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>16.5</v>
@@ -3207,31 +3207,31 @@
         <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
         <v>350</v>
       </c>
       <c r="AL19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP19" t="n">
         <v>24</v>
@@ -3445,10 +3445,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3556,22 +3556,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3600,10 +3600,10 @@
         <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
         <v>1.67</v>
@@ -3612,7 +3612,7 @@
         <v>2.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
         <v>17</v>
@@ -3624,13 +3624,13 @@
         <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
@@ -3645,19 +3645,19 @@
         <v>151</v>
       </c>
       <c r="AL22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN22" t="n">
         <v>9</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>9.5</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
@@ -3700,13 +3700,13 @@
         <v>1.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -3741,10 +3741,10 @@
         <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
         <v>1.83</v>
@@ -3859,7 +3859,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -4309,10 +4309,10 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
@@ -4571,19 +4571,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
         <v>3.6</v>
@@ -4601,10 +4601,10 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4615,40 +4615,40 @@
         <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
         <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>
@@ -4657,10 +4657,10 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>13</v>
@@ -4675,10 +4675,14 @@
         <v>26</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4853,111 +4857,111 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="K31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
         <v>37</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI31" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO31" t="n">
         <v>100</v>
       </c>
-      <c r="AK31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>80</v>
-      </c>
       <c r="AP31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ31" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4994,111 +4998,111 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>4.05</v>
       </c>
       <c r="I32" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="V32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.4</v>
       </c>
-      <c r="W32" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X32" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG32" t="n">
         <v>8</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
         <v>8.25</v>
       </c>
       <c r="AI32" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP32" t="n">
         <v>80</v>
       </c>
-      <c r="AK32" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>55</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5135,13 +5139,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -5150,13 +5154,13 @@
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -5165,10 +5169,10 @@
         <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R33" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5230,10 +5234,10 @@
         <v>10</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP33" t="n">
         <v>21</v>
@@ -5280,52 +5284,52 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U34" t="n">
         <v>2.63</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
         <v>1.3</v>
@@ -5334,16 +5338,16 @@
         <v>3.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -5358,7 +5362,7 @@
         <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5370,10 +5374,10 @@
         <v>34</v>
       </c>
       <c r="AK34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM34" t="n">
         <v>12</v>
@@ -5382,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
         <v>15</v>
@@ -5425,22 +5429,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="J35" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5475,28 +5479,28 @@
         <v>2.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD35" t="n">
         <v>41</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5505,7 +5509,7 @@
         <v>7.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="n">
         <v>51</v>
@@ -5514,16 +5518,16 @@
         <v>251</v>
       </c>
       <c r="AL35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP35" t="n">
         <v>15</v>
@@ -5584,10 +5588,10 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -5848,37 +5852,37 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="J38" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="K38" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
         <v>1.57</v>
@@ -5886,73 +5890,73 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="V38" t="n">
         <v>1.21</v>
       </c>
       <c r="W38" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X38" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AA38" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB38" t="n">
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF38" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AI38" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ38" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK38" t="n">
         <v>101</v>
       </c>
       <c r="AL38" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AM38" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5989,111 +5993,111 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="K39" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="L39" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD39" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
         <v>32</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AH39" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN39" t="n">
         <v>14.5</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AO39" t="n">
         <v>75</v>
       </c>
-      <c r="AK39" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO39" t="n">
+      <c r="AP39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>55</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>40</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6130,22 +6134,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J40" t="n">
         <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -6154,10 +6158,10 @@
         <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -6271,99 +6275,99 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H41" t="n">
         <v>6.3</v>
       </c>
       <c r="I41" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L41" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R41" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V41" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AC41" t="n">
         <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE41" t="n">
         <v>8.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH41" t="n">
         <v>13.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL41" t="n">
         <v>50</v>
       </c>
       <c r="AM41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>450</v>
+      </c>
+      <c r="AP41" t="n">
         <v>150</v>
       </c>
-      <c r="AN41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>600</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>175</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6541,22 +6545,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
@@ -6565,24 +6569,24 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W43" t="n">
         <v>1.44</v>
@@ -6591,37 +6595,37 @@
         <v>2.63</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC43" t="n">
         <v>10</v>
       </c>
-      <c r="AC43" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE43" t="n">
         <v>21</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>19</v>
       </c>
       <c r="AF43" t="n">
         <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH43" t="n">
         <v>6</v>
       </c>
       <c r="AI43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
@@ -6630,22 +6634,22 @@
         <v>251</v>
       </c>
       <c r="AL43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>34</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>41</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6682,19 +6686,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L44" t="n">
         <v>6</v>
@@ -6706,24 +6710,24 @@
         <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
@@ -6747,19 +6751,19 @@
         <v>8.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
         <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI44" t="n">
         <v>19</v>
@@ -6771,16 +6775,16 @@
         <v>351</v>
       </c>
       <c r="AL44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP44" t="n">
         <v>41</v>
@@ -6823,22 +6827,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J45" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -6847,24 +6851,24 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6879,19 +6883,19 @@
         <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>9</v>
       </c>
       <c r="AD45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE45" t="n">
         <v>17</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>15</v>
       </c>
       <c r="AF45" t="n">
         <v>26</v>
@@ -6900,13 +6904,13 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="n">
         <v>201</v>
@@ -6915,16 +6919,16 @@
         <v>11</v>
       </c>
       <c r="AM45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ45" t="n">
         <v>34</v>
@@ -6964,22 +6968,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>1.83</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.14</v>
@@ -7008,37 +7012,37 @@
         <v>1.13</v>
       </c>
       <c r="W46" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH46" t="n">
         <v>5.5</v>
@@ -7047,7 +7051,7 @@
         <v>19</v>
       </c>
       <c r="AJ46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="n">
         <v>1250</v>
@@ -7246,19 +7250,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
         <v>4</v>
@@ -7267,31 +7271,31 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
         <v>1.3</v>
@@ -7300,19 +7304,19 @@
         <v>3.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB48" t="n">
         <v>10</v>
       </c>
-      <c r="AB48" t="n">
-        <v>11</v>
-      </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD48" t="n">
         <v>17</v>
@@ -7324,7 +7328,7 @@
         <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
         <v>8</v>
@@ -7336,7 +7340,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL48" t="n">
         <v>13</v>
@@ -7351,10 +7355,10 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7391,13 +7395,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>2.5</v>
@@ -7415,24 +7419,24 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R49" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
         <v>1.4</v>
@@ -7447,10 +7451,10 @@
         <v>1.91</v>
       </c>
       <c r="AA49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
@@ -7465,7 +7469,7 @@
         <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
         <v>7</v>
@@ -7480,7 +7484,7 @@
         <v>251</v>
       </c>
       <c r="AL49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM49" t="n">
         <v>21</v>
@@ -7532,22 +7536,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -7562,10 +7566,10 @@
         <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -7576,16 +7580,16 @@
         <v>1.3</v>
       </c>
       <c r="W50" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA50" t="n">
         <v>11</v>
@@ -7594,19 +7598,19 @@
         <v>17</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
         <v>34</v>
       </c>
       <c r="AE50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
         <v>6.5</v>
@@ -7621,16 +7625,16 @@
         <v>201</v>
       </c>
       <c r="AL50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN50" t="n">
         <v>9</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP50" t="n">
         <v>17</v>
@@ -7963,13 +7967,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J53" t="n">
         <v>2.1</v>
@@ -8013,10 +8017,10 @@
         <v>2.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA53" t="n">
         <v>6</v>
@@ -8037,7 +8041,7 @@
         <v>29</v>
       </c>
       <c r="AG53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH53" t="n">
         <v>8</v>
@@ -8049,10 +8053,10 @@
         <v>67</v>
       </c>
       <c r="AK53" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM53" t="n">
         <v>34</v>
@@ -8104,13 +8108,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
         <v>2.88</v>
       </c>
       <c r="I54" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -8122,10 +8126,10 @@
         <v>3.25</v>
       </c>
       <c r="M54" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.5</v>
@@ -8193,7 +8197,7 @@
         <v>501</v>
       </c>
       <c r="AL54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM54" t="n">
         <v>10</v>
@@ -8273,10 +8277,10 @@
         <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P55" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q55" t="n">
         <v>3.1</v>
@@ -8287,10 +8291,10 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W55" t="n">
         <v>1.67</v>
@@ -8424,10 +8428,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -8535,28 +8539,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.4</v>
@@ -8565,18 +8569,18 @@
         <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
@@ -8591,13 +8595,13 @@
         <v>1.7</v>
       </c>
       <c r="AA57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD57" t="n">
         <v>51</v>
@@ -8700,10 +8704,10 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Q58" t="n">
         <v>1.91</v>
@@ -8714,10 +8718,10 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="V58" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W58" t="n">
         <v>1.4</v>
@@ -8726,10 +8730,10 @@
         <v>2.4</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AA58" t="n">
         <v>9.25</v>
@@ -8950,107 +8954,107 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="H60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L60" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.2</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P60" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R60" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="V60" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W60" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X60" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB60" t="n">
         <v>13.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF60" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH60" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AI60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM60" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ60" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AN60" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO60" t="n">
         <v>29</v>
       </c>
       <c r="AP60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ60" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -9087,13 +9091,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
         <v>2.75</v>
@@ -9102,13 +9106,13 @@
         <v>1.91</v>
       </c>
       <c r="L61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O61" t="n">
         <v>1.53</v>
@@ -9146,13 +9150,13 @@
         <v>5</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC61" t="n">
         <v>10</v>
       </c>
       <c r="AD61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE61" t="n">
         <v>21</v>
@@ -9170,7 +9174,7 @@
         <v>23</v>
       </c>
       <c r="AJ61" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="n">
         <v>101</v>
@@ -9185,7 +9189,7 @@
         <v>15</v>
       </c>
       <c r="AO61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP61" t="n">
         <v>41</v>
@@ -9232,22 +9236,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I62" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J62" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K62" t="n">
         <v>1.95</v>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -9282,22 +9286,22 @@
         <v>2.25</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA62" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC62" t="n">
         <v>9.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE62" t="n">
         <v>19</v>
@@ -9309,10 +9313,10 @@
         <v>7</v>
       </c>
       <c r="AH62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ62" t="n">
         <v>81</v>
@@ -9321,13 +9325,13 @@
         <v>101</v>
       </c>
       <c r="AL62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM62" t="n">
         <v>21</v>
       </c>
       <c r="AN62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO62" t="n">
         <v>51</v>
@@ -9377,28 +9381,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H63" t="n">
         <v>2.8</v>
       </c>
       <c r="I63" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K63" t="n">
         <v>1.91</v>
       </c>
       <c r="L63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.53</v>
@@ -9442,7 +9446,7 @@
         <v>12</v>
       </c>
       <c r="AD63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE63" t="n">
         <v>29</v>
@@ -9667,16 +9671,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H65" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K65" t="n">
         <v>2.6</v>
@@ -9703,10 +9707,10 @@
         <v>2.4</v>
       </c>
       <c r="S65" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T65" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U65" t="n">
         <v>2.25</v>
@@ -9721,22 +9725,22 @@
         <v>3.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA65" t="n">
         <v>8.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE65" t="n">
         <v>11</v>
@@ -9748,7 +9752,7 @@
         <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI65" t="n">
         <v>19</v>
@@ -9757,7 +9761,7 @@
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL65" t="n">
         <v>23</v>
@@ -9769,7 +9773,7 @@
         <v>23</v>
       </c>
       <c r="AO65" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP65" t="n">
         <v>51</v>
@@ -9812,19 +9816,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H66" t="n">
         <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J66" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K66" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L66" t="n">
         <v>3</v>
@@ -9848,10 +9852,10 @@
         <v>2.3</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T66" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U66" t="n">
         <v>2.38</v>
@@ -9872,16 +9876,16 @@
         <v>2.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
         <v>11</v>
       </c>
       <c r="AD66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE66" t="n">
         <v>19</v>
@@ -9917,10 +9921,10 @@
         <v>26</v>
       </c>
       <c r="AP66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -9957,22 +9961,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H67" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J67" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L67" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>1.03</v>
@@ -9981,34 +9985,34 @@
         <v>17</v>
       </c>
       <c r="O67" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P67" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R67" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S67" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T67" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V67" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W67" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X67" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y67" t="n">
         <v>1.62</v>
@@ -10017,55 +10021,55 @@
         <v>2.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC67" t="n">
         <v>8.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF67" t="n">
         <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ67" t="n">
         <v>41</v>
       </c>
       <c r="AK67" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP67" t="n">
         <v>41</v>
       </c>
       <c r="AQ67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
@@ -10102,28 +10106,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H68" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I68" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J68" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K68" t="n">
         <v>2.75</v>
       </c>
       <c r="L68" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O68" t="n">
         <v>1.1</v>
@@ -10132,10 +10136,10 @@
         <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R68" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10152,19 +10156,19 @@
         <v>4.33</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD68" t="n">
         <v>51</v>
@@ -10173,7 +10177,7 @@
         <v>34</v>
       </c>
       <c r="AF68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
         <v>23</v>
@@ -10194,13 +10198,13 @@
         <v>13</v>
       </c>
       <c r="AM68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN68" t="n">
         <v>9</v>
       </c>
       <c r="AO68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP68" t="n">
         <v>11</v>
@@ -10243,22 +10247,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J69" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="n">
         <v>2.38</v>
       </c>
       <c r="L69" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
@@ -10273,10 +10277,10 @@
         <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R69" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S69" t="n">
         <v>2.03</v>
@@ -10297,28 +10301,28 @@
         <v>3.4</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB69" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE69" t="n">
         <v>21</v>
       </c>
-      <c r="AC69" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="n">
+      <c r="AF69" t="n">
         <v>26</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>29</v>
       </c>
       <c r="AG69" t="n">
         <v>15</v>
@@ -10336,19 +10340,19 @@
         <v>101</v>
       </c>
       <c r="AL69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ69" t="n">
         <v>21</v>
@@ -10388,28 +10392,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K70" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70" t="n">
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.4</v>
@@ -10418,45 +10422,45 @@
         <v>2.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V70" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X70" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA70" t="n">
         <v>7.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
         <v>11</v>
       </c>
       <c r="AD70" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE70" t="n">
         <v>26</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>23</v>
       </c>
       <c r="AF70" t="n">
         <v>41</v>
@@ -10474,16 +10478,16 @@
         <v>51</v>
       </c>
       <c r="AK70" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO70" t="n">
         <v>26</v>
@@ -10492,7 +10496,7 @@
         <v>23</v>
       </c>
       <c r="AQ70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR70" t="n">
         <v>1.78</v>
@@ -10674,13 +10678,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I72" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
         <v>2.2</v>
@@ -10692,22 +10696,22 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S72" t="n">
         <v>2.75</v>
@@ -10716,10 +10720,10 @@
         <v>1.46</v>
       </c>
       <c r="U72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V72" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10755,7 +10759,7 @@
         <v>9</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI72" t="n">
         <v>19</v>
@@ -10838,33 +10842,33 @@
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q73" t="n">
         <v>2.05</v>
       </c>
       <c r="R73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V73" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W73" t="n">
         <v>1.44</v>
@@ -10873,10 +10877,10 @@
         <v>2.63</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA73" t="n">
         <v>7</v>
@@ -10885,7 +10889,7 @@
         <v>9</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD73" t="n">
         <v>17</v>
@@ -10897,7 +10901,7 @@
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH73" t="n">
         <v>6.5</v>
@@ -10909,7 +10913,7 @@
         <v>51</v>
       </c>
       <c r="AK73" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL73" t="n">
         <v>11</v>
@@ -10964,28 +10968,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="J74" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -11020,19 +11024,19 @@
         <v>2</v>
       </c>
       <c r="AA74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB74" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF74" t="n">
         <v>29</v>
@@ -11053,22 +11057,22 @@
         <v>201</v>
       </c>
       <c r="AL74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN74" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO74" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP74" t="n">
         <v>26</v>
       </c>
-      <c r="AP74" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11105,22 +11109,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J75" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K75" t="n">
         <v>2.2</v>
       </c>
       <c r="L75" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M75" t="n">
         <v>1.05</v>
@@ -11161,22 +11165,22 @@
         <v>1.91</v>
       </c>
       <c r="AA75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC75" t="n">
         <v>12</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>13</v>
       </c>
       <c r="AD75" t="n">
         <v>41</v>
       </c>
       <c r="AE75" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF75" t="n">
         <v>34</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>41</v>
       </c>
       <c r="AG75" t="n">
         <v>11</v>
@@ -11197,16 +11201,16 @@
         <v>7.5</v>
       </c>
       <c r="AM75" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ75" t="n">
         <v>26</v>
@@ -11270,24 +11274,24 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P76" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R76" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V76" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
         <v>1.4</v>
@@ -11332,7 +11336,7 @@
         <v>41</v>
       </c>
       <c r="AK76" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL76" t="n">
         <v>9.5</v>
@@ -11417,18 +11421,18 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11951,22 +11955,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H81" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I81" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J81" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K81" t="n">
         <v>2.5</v>
       </c>
       <c r="L81" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M81" t="n">
         <v>1.02</v>
@@ -12001,10 +12005,10 @@
         <v>3.75</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA81" t="n">
         <v>12</v>
@@ -12031,13 +12035,13 @@
         <v>8</v>
       </c>
       <c r="AI81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK81" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL81" t="n">
         <v>19</v>
@@ -12046,7 +12050,7 @@
         <v>23</v>
       </c>
       <c r="AN81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO81" t="n">
         <v>41</v>
@@ -12055,7 +12059,7 @@
         <v>26</v>
       </c>
       <c r="AQ81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12092,13 +12096,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H82" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I82" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="J82" t="n">
         <v>7.5</v>
@@ -12110,10 +12114,10 @@
         <v>1.67</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O82" t="n">
         <v>1.14</v>
@@ -12146,10 +12150,10 @@
         <v>3.75</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA82" t="n">
         <v>23</v>
@@ -12161,7 +12165,7 @@
         <v>23</v>
       </c>
       <c r="AD82" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE82" t="n">
         <v>51</v>
@@ -12170,13 +12174,13 @@
         <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ82" t="n">
         <v>51</v>
@@ -12188,13 +12192,13 @@
         <v>9</v>
       </c>
       <c r="AM82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN82" t="n">
         <v>9.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP82" t="n">
         <v>11</v>
@@ -12237,13 +12241,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H83" t="n">
         <v>4.2</v>
       </c>
       <c r="I83" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
         <v>1.95</v>
@@ -12255,58 +12259,58 @@
         <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R83" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S83" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T83" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="U83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W83" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X83" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE83" t="n">
         <v>12</v>
@@ -12327,7 +12331,7 @@
         <v>41</v>
       </c>
       <c r="AK83" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="n">
         <v>21</v>
@@ -12336,7 +12340,7 @@
         <v>34</v>
       </c>
       <c r="AN83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO83" t="n">
         <v>51</v>
@@ -12400,10 +12404,10 @@
         <v>2.6</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -12412,18 +12416,18 @@
         <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R84" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W84" t="n">
         <v>1.44</v>
@@ -12526,13 +12530,13 @@
         <v>4.2</v>
       </c>
       <c r="H85" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J85" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
         <v>1.95</v>
@@ -12541,10 +12545,10 @@
         <v>2.75</v>
       </c>
       <c r="M85" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O85" t="n">
         <v>1.5</v>
@@ -12624,16 +12628,16 @@
         <v>17</v>
       </c>
       <c r="AP85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ85" t="n">
         <v>41</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="86">
@@ -12668,90 +12672,90 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J86" t="n">
         <v>2.6</v>
       </c>
       <c r="K86" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L86" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="M86" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P86" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R86" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V86" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W86" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X86" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z86" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AA86" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB86" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AC86" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE86" t="n">
         <v>15</v>
       </c>
       <c r="AF86" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG86" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AI86" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK86" t="n">
         <v>300</v>
@@ -12760,19 +12764,19 @@
         <v>12.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN86" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO86" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AP86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ86" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
@@ -12812,51 +12816,51 @@
         <v>1.39</v>
       </c>
       <c r="H87" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="K87" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P87" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R87" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V87" t="n">
         <v>1.6</v>
       </c>
       <c r="W87" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X87" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y87" t="n">
         <v>1.7</v>
@@ -12865,55 +12869,55 @@
         <v>2.05</v>
       </c>
       <c r="AA87" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG87" t="n">
         <v>9</v>
       </c>
-      <c r="AB87" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AH87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK87" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL87" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM87" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO87" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP87" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AQ87" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -12950,22 +12954,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H88" t="n">
         <v>3.8</v>
       </c>
       <c r="I88" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J88" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K88" t="n">
         <v>2.38</v>
       </c>
       <c r="L88" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
@@ -12980,10 +12984,10 @@
         <v>4.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -13015,7 +13019,7 @@
         <v>8.5</v>
       </c>
       <c r="AD88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE88" t="n">
         <v>13</v>
@@ -13042,13 +13046,13 @@
         <v>15</v>
       </c>
       <c r="AM88" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN88" t="n">
         <v>15</v>
       </c>
       <c r="AO88" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP88" t="n">
         <v>34</v>
@@ -13929,107 +13933,107 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="H95" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I95" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="J95" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>1.95</v>
       </c>
       <c r="L95" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P95" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R95" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V95" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W95" t="n">
         <v>1.44</v>
       </c>
       <c r="X95" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB95" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE95" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF95" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AH95" t="n">
         <v>5.6</v>
       </c>
       <c r="AI95" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ95" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK95" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL95" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM95" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AO95" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP95" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AQ95" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -707,13 +707,13 @@
         <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -734,34 +734,34 @@
         <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.67</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -794,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP2" t="n">
         <v>51</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -867,16 +867,16 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="T3" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="U3" t="n">
         <v>2.3</v>
@@ -885,10 +885,10 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y3" t="n">
         <v>1.53</v>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
@@ -924,10 +924,10 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -982,84 +982,84 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1068,16 +1068,16 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1089,10 +1089,10 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1322,22 +1322,22 @@
         <v>2.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1346,19 +1346,19 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL6" t="n">
         <v>7</v>
@@ -1367,13 +1367,13 @@
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1562,22 +1562,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1598,31 +1598,31 @@
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>1.26</v>
       </c>
       <c r="U8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1637,10 +1637,10 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1667,16 +1667,16 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -1807,7 +1807,7 @@
         <v>6.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>11</v>
@@ -2019,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2186,10 +2186,10 @@
         <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y12" t="n">
         <v>2.75</v>
@@ -3415,22 +3415,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3465,22 +3465,22 @@
         <v>2.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA21" t="n">
         <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -3489,7 +3489,7 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3504,19 +3504,19 @@
         <v>201</v>
       </c>
       <c r="AL21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>29</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
         <v>4.75</v>
@@ -4288,7 +4288,7 @@
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -4297,22 +4297,22 @@
         <v>6.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="U27" t="n">
         <v>5.5</v>
@@ -4321,10 +4321,10 @@
         <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y27" t="n">
         <v>2.25</v>
@@ -4369,13 +4369,13 @@
         <v>5.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
@@ -4384,10 +4384,10 @@
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="28">
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -4437,7 +4437,7 @@
         <v>1.83</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.14</v>
@@ -4509,25 +4509,25 @@
         <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="n">
         <v>101</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
       </c>
       <c r="AO28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP28" t="n">
         <v>26</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -6134,22 +6134,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
         <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -6164,18 +6164,18 @@
         <v>3.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -6184,22 +6184,22 @@
         <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE40" t="n">
         <v>23</v>
@@ -6208,7 +6208,7 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH40" t="n">
         <v>6</v>
@@ -6220,7 +6220,7 @@
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="n">
         <v>8</v>
@@ -6232,13 +6232,13 @@
         <v>10</v>
       </c>
       <c r="AO40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP40" t="n">
         <v>23</v>
       </c>
-      <c r="AP40" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6563,10 +6563,10 @@
         <v>3.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -6716,18 +6716,18 @@
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
@@ -6827,22 +6827,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J45" t="n">
         <v>2.75</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -6851,16 +6851,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6877,13 +6877,13 @@
         <v>2.75</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
         <v>10</v>
@@ -6901,22 +6901,22 @@
         <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
         <v>6.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM45" t="n">
         <v>17</v>
@@ -6925,10 +6925,10 @@
         <v>12</v>
       </c>
       <c r="AO45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ45" t="n">
         <v>34</v>
@@ -6968,13 +6968,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>2.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
@@ -6986,22 +6986,22 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7057,10 +7057,10 @@
         <v>1250</v>
       </c>
       <c r="AL46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN46" t="n">
         <v>12</v>
@@ -7822,66 +7822,66 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J52" t="n">
         <v>3.6</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P52" t="n">
         <v>3.4</v>
       </c>
-      <c r="M52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N52" t="n">
-        <v>8</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q52" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="W52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z52" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z52" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
         <v>11</v>
@@ -7890,43 +7890,43 @@
         <v>29</v>
       </c>
       <c r="AE52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ52" t="n">
         <v>51</v>
       </c>
       <c r="AK52" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AL52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR52" t="n">
         <v>1.8</v>
@@ -7967,40 +7967,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H53" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R53" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8011,49 +8011,49 @@
         <v>1.29</v>
       </c>
       <c r="W53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AA53" t="n">
         <v>6</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
         <v>13</v>
       </c>
       <c r="AF53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH53" t="n">
         <v>8</v>
       </c>
       <c r="AI53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL53" t="n">
         <v>15</v>
@@ -8062,10 +8062,10 @@
         <v>34</v>
       </c>
       <c r="AN53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP53" t="n">
         <v>51</v>
@@ -8108,22 +8108,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="H54" t="n">
         <v>2.88</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K54" t="n">
         <v>1.91</v>
       </c>
       <c r="L54" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="n">
         <v>1.11</v>
@@ -8146,16 +8146,16 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V54" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y54" t="n">
         <v>2.1</v>
@@ -8164,22 +8164,22 @@
         <v>1.67</v>
       </c>
       <c r="AA54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC54" t="n">
         <v>15</v>
       </c>
-      <c r="AC54" t="n">
-        <v>13</v>
-      </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
         <v>6</v>
@@ -8188,7 +8188,7 @@
         <v>5.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="n">
         <v>67</v>
@@ -8197,16 +8197,16 @@
         <v>501</v>
       </c>
       <c r="AL54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN54" t="n">
         <v>10</v>
       </c>
       <c r="AO54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP54" t="n">
         <v>23</v>
@@ -8215,10 +8215,10 @@
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="55">
@@ -8253,19 +8253,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L55" t="n">
         <v>3.75</v>
@@ -8283,10 +8283,10 @@
         <v>2.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R55" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -8303,10 +8303,10 @@
         <v>2.1</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -8321,10 +8321,10 @@
         <v>29</v>
       </c>
       <c r="AE55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="n">
         <v>5.5</v>
@@ -8333,10 +8333,10 @@
         <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ55" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="n">
         <v>501</v>
@@ -8345,7 +8345,7 @@
         <v>6</v>
       </c>
       <c r="AM55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN55" t="n">
         <v>12</v>
@@ -8357,7 +8357,7 @@
         <v>29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR55" t="n">
         <v>2.1</v>
@@ -8398,16 +8398,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K56" t="n">
         <v>2.4</v>
@@ -8416,10 +8416,10 @@
         <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -8428,10 +8428,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -8457,13 +8457,13 @@
         <v>7</v>
       </c>
       <c r="AB56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC56" t="n">
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -8478,7 +8478,7 @@
         <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
         <v>67</v>
@@ -8496,13 +8496,13 @@
         <v>19</v>
       </c>
       <c r="AO56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP56" t="n">
         <v>51</v>
       </c>
       <c r="AQ56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -9381,28 +9381,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>2.8</v>
       </c>
       <c r="I63" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J63" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
         <v>1.91</v>
       </c>
       <c r="L63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O63" t="n">
         <v>1.53</v>
@@ -9446,7 +9446,7 @@
         <v>12</v>
       </c>
       <c r="AD63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE63" t="n">
         <v>29</v>
@@ -9526,28 +9526,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K64" t="n">
         <v>1.91</v>
       </c>
       <c r="L64" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.53</v>
@@ -9585,25 +9585,25 @@
         <v>5.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC64" t="n">
         <v>10</v>
       </c>
       <c r="AD64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF64" t="n">
         <v>41</v>
       </c>
       <c r="AG64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI64" t="n">
         <v>21</v>
@@ -9615,28 +9615,28 @@
         <v>900</v>
       </c>
       <c r="AL64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO64" t="n">
         <v>41</v>
       </c>
       <c r="AP64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ64" t="n">
         <v>51</v>
       </c>
       <c r="AR64" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="65">
@@ -10136,10 +10136,10 @@
         <v>7</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R68" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10259,7 +10259,7 @@
         <v>3.4</v>
       </c>
       <c r="K69" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L69" t="n">
         <v>2.75</v>
@@ -10277,16 +10277,16 @@
         <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S69" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T69" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U69" t="n">
         <v>2.5</v>
@@ -10328,7 +10328,7 @@
         <v>15</v>
       </c>
       <c r="AH69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI69" t="n">
         <v>11</v>
@@ -10392,16 +10392,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>1.08</v>
       </c>
       <c r="N70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O70" t="n">
         <v>1.4</v>
@@ -10422,10 +10422,10 @@
         <v>2.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -10451,7 +10451,7 @@
         <v>7.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC70" t="n">
         <v>11</v>
@@ -10460,13 +10460,13 @@
         <v>29</v>
       </c>
       <c r="AE70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH70" t="n">
         <v>6</v>
@@ -10478,13 +10478,13 @@
         <v>51</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AL70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN70" t="n">
         <v>10</v>
@@ -10561,16 +10561,16 @@
         <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10678,52 +10678,52 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="H72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U72" t="n">
         <v>3.75</v>
       </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N72" t="n">
-        <v>11</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>2</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U72" t="n">
-        <v>3.4</v>
-      </c>
       <c r="V72" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W72" t="n">
         <v>1.44</v>
@@ -10732,22 +10732,22 @@
         <v>2.63</v>
       </c>
       <c r="Y72" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA72" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC72" t="n">
         <v>8.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE72" t="n">
         <v>15</v>
@@ -10759,40 +10759,40 @@
         <v>9</v>
       </c>
       <c r="AH72" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK72" t="n">
         <v>351</v>
       </c>
       <c r="AL72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM72" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP72" t="n">
         <v>41</v>
       </c>
       <c r="AQ72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="73">
@@ -10968,28 +10968,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -11030,16 +11030,16 @@
         <v>11</v>
       </c>
       <c r="AC74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD74" t="n">
         <v>21</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG74" t="n">
         <v>10</v>
@@ -11060,7 +11060,7 @@
         <v>10</v>
       </c>
       <c r="AM74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN74" t="n">
         <v>12</v>
@@ -11250,22 +11250,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K76" t="n">
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -11280,10 +11280,10 @@
         <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11306,19 +11306,19 @@
         <v>2.1</v>
       </c>
       <c r="AA76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF76" t="n">
         <v>29</v>
@@ -11336,25 +11336,25 @@
         <v>41</v>
       </c>
       <c r="AK76" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN76" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM76" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>10</v>
-      </c>
       <c r="AO76" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ76" t="n">
         <v>26</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>29</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11391,22 +11391,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I77" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J77" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K77" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -11421,30 +11421,30 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V77" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA77" t="n">
         <v>7</v>
@@ -11453,19 +11453,19 @@
         <v>9</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH77" t="n">
         <v>6.5</v>
@@ -11480,7 +11480,7 @@
         <v>251</v>
       </c>
       <c r="AL77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM77" t="n">
         <v>21</v>
@@ -12265,10 +12265,10 @@
         <v>10.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q83" t="n">
         <v>1.53</v>
@@ -12277,10 +12277,10 @@
         <v>2.38</v>
       </c>
       <c r="S83" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T83" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U83" t="n">
         <v>2.25</v>
@@ -12389,19 +12389,19 @@
         <v>3.8</v>
       </c>
       <c r="H84" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J84" t="n">
         <v>4.33</v>
       </c>
       <c r="K84" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L84" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -12416,18 +12416,18 @@
         <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R84" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V84" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W84" t="n">
         <v>1.44</v>
@@ -12436,10 +12436,10 @@
         <v>2.63</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA84" t="n">
         <v>10</v>
@@ -12460,10 +12460,10 @@
         <v>41</v>
       </c>
       <c r="AG84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI84" t="n">
         <v>17</v>
@@ -12484,7 +12484,7 @@
         <v>9</v>
       </c>
       <c r="AO84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP84" t="n">
         <v>17</v>
@@ -12527,28 +12527,28 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H85" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K85" t="n">
         <v>1.95</v>
       </c>
       <c r="L85" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M85" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O85" t="n">
         <v>1.5</v>
@@ -12583,7 +12583,7 @@
         <v>1.62</v>
       </c>
       <c r="AA85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB85" t="n">
         <v>19</v>
@@ -12610,7 +12610,7 @@
         <v>19</v>
       </c>
       <c r="AJ85" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK85" t="n">
         <v>101</v>
@@ -12619,25 +12619,25 @@
         <v>5.5</v>
       </c>
       <c r="AM85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN85" t="n">
         <v>9.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ85" t="n">
         <v>41</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="86">
@@ -12813,22 +12813,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I87" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="J87" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K87" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L87" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M87" t="n">
         <v>1.03</v>
@@ -12851,22 +12851,22 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="V87" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W87" t="n">
         <v>1.29</v>
       </c>
       <c r="X87" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Y87" t="n">
         <v>1.7</v>
       </c>
       <c r="Z87" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA87" t="n">
         <v>8.75</v>
@@ -12875,49 +12875,49 @@
         <v>7.9</v>
       </c>
       <c r="AC87" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD87" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE87" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG87" t="n">
         <v>9</v>
       </c>
       <c r="AH87" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI87" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK87" t="n">
         <v>400</v>
       </c>
       <c r="AL87" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM87" t="n">
         <v>50</v>
       </c>
       <c r="AN87" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO87" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP87" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AQ87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
@@ -13933,22 +13933,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="H95" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I95" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K95" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L95" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -13959,7 +13959,7 @@
         <v>2.6</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R95" t="n">
         <v>1.57</v>
@@ -13967,49 +13967,49 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="V95" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W95" t="n">
         <v>1.44</v>
       </c>
       <c r="X95" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB95" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE95" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF95" t="n">
         <v>32</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AH95" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AI95" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ95" t="n">
         <v>75</v>
@@ -14018,19 +14018,19 @@
         <v>700</v>
       </c>
       <c r="AL95" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM95" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN95" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO95" t="n">
         <v>45</v>
       </c>
       <c r="AP95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ95" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -1413,22 +1413,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1443,22 +1443,22 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="U7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
         <v>1.57</v>
@@ -1476,16 +1476,16 @@
         <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="n">
         <v>19</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1494,10 +1494,10 @@
         <v>6.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>81</v>
@@ -1506,28 +1506,28 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP7" t="n">
         <v>41</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -1562,46 +1562,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U8" t="n">
         <v>5</v>
@@ -1610,10 +1610,10 @@
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y8" t="n">
         <v>2.25</v>
@@ -1634,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1643,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1655,7 +1655,7 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM8" t="n">
         <v>23</v>
@@ -1667,16 +1667,16 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -1765,10 +1765,10 @@
         <v>2.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1813,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2019,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2045,10 +2045,10 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y11" t="n">
         <v>2.5</v>
@@ -2145,25 +2145,25 @@
         <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.67</v>
@@ -2198,7 +2198,7 @@
         <v>1.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB12" t="n">
         <v>6.5</v>
@@ -2222,10 +2222,10 @@
         <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="n">
         <v>101</v>
@@ -2234,16 +2234,16 @@
         <v>10</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
         <v>23</v>
       </c>
       <c r="AO12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP12" t="n">
         <v>67</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>51</v>
       </c>
       <c r="AQ12" t="n">
         <v>81</v>
@@ -3838,22 +3838,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3904,10 +3904,10 @@
         <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -3940,13 +3940,13 @@
         <v>9.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>1.6</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
         <v>4.75</v>
@@ -4327,10 +4327,10 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA27" t="n">
         <v>8</v>
@@ -4339,7 +4339,7 @@
         <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
         <v>41</v>
@@ -4369,13 +4369,13 @@
         <v>5.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
@@ -4434,16 +4434,16 @@
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
         <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4458,16 +4458,16 @@
         <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="U28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4506,7 +4506,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
         <v>101</v>
@@ -4527,7 +4527,7 @@
         <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5638,7 +5638,7 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF36" t="n">
         <v>34</v>
@@ -5656,7 +5656,7 @@
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL36" t="n">
         <v>9</v>
@@ -10410,10 +10410,10 @@
         <v>3.4</v>
       </c>
       <c r="M70" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>1.4</v>
@@ -10430,10 +10430,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V70" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W70" t="n">
         <v>1.5</v>
@@ -10537,13 +10537,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>3.9</v>
       </c>
       <c r="I71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J71" t="n">
         <v>2.1</v>
@@ -10552,7 +10552,7 @@
         <v>2.2</v>
       </c>
       <c r="L71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
@@ -10561,16 +10561,16 @@
         <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10587,10 +10587,10 @@
         <v>2.63</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
@@ -10599,19 +10599,19 @@
         <v>6.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF71" t="n">
         <v>34</v>
       </c>
       <c r="AG71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH71" t="n">
         <v>7.5</v>
@@ -10626,16 +10626,16 @@
         <v>1250</v>
       </c>
       <c r="AL71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
       </c>
       <c r="AO71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP71" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-28.xlsx
@@ -1562,67 +1562,67 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="Y8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>5</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1631,19 +1631,19 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1655,10 +1655,10 @@
         <v>501</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
         <v>17</v>
@@ -1673,10 +1673,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -1747,10 +1747,10 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U9" t="n">
         <v>5</v>
@@ -1765,10 +1765,10 @@
         <v>2.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1813,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
         <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.17</v>
@@ -2189,25 +2189,25 @@
         <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA12" t="n">
         <v>4.33</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2219,7 +2219,7 @@
         <v>4.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
@@ -2231,13 +2231,13 @@
         <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
         <v>81</v>
@@ -2246,7 +2246,7 @@
         <v>67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -4428,16 +4428,16 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.13</v>
@@ -4458,16 +4458,16 @@
         <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="U28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4506,7 +4506,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
         <v>101</v>
@@ -4527,7 +4527,7 @@
         <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -8821,22 +8821,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="H59" t="n">
         <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
         <v>2.18</v>
       </c>
       <c r="L59" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -8863,61 +8863,61 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA59" t="n">
         <v>9.25</v>
       </c>
       <c r="AB59" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF59" t="n">
         <v>22</v>
       </c>
-      <c r="AE59" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>23</v>
-      </c>
       <c r="AG59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH59" t="n">
         <v>6.8</v>
       </c>
       <c r="AI59" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ59" t="n">
         <v>45</v>
       </c>
       <c r="AK59" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="n">
         <v>11.75</v>
       </c>
       <c r="AM59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN59" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO59" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP59" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H60" t="n">
         <v>3.2</v>
@@ -8963,13 +8963,13 @@
         <v>2.55</v>
       </c>
       <c r="J60" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -9006,28 +9006,28 @@
         <v>2.02</v>
       </c>
       <c r="AA60" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB60" t="n">
         <v>13.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD60" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF60" t="n">
         <v>29</v>
       </c>
-      <c r="AE60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>28</v>
-      </c>
       <c r="AG60" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI60" t="n">
         <v>12.5</v>
@@ -9039,7 +9039,7 @@
         <v>400</v>
       </c>
       <c r="AL60" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM60" t="n">
         <v>13.5</v>
@@ -9051,10 +9051,10 @@
         <v>29</v>
       </c>
       <c r="AP60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
@@ -10537,13 +10537,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H71" t="n">
         <v>3.9</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J71" t="n">
         <v>2.1</v>
@@ -10552,13 +10552,13 @@
         <v>2.2</v>
       </c>
       <c r="L71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -10605,13 +10605,13 @@
         <v>10</v>
       </c>
       <c r="AE71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
         <v>34</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="n">
         <v>7.5</v>
@@ -10635,7 +10635,7 @@
         <v>21</v>
       </c>
       <c r="AO71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP71" t="n">
         <v>51</v>
